--- a/Setup_v1.xlsx
+++ b/Setup_v1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d45dba343eb289d6/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\YuanJia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="230" documentId="13_ncr:1_{0D765CAF-8D1E-48E6-9E3E-07C7B13BE521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0194C19C-0E42-4865-9AF1-E3C77E9944C8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA367A35-2FB9-4AFB-854D-858CED4EEF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,12 +21,13 @@
     <sheet name="dict" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="config_inception">config!$B$4</definedName>
     <definedName name="const_default_str">config!$A$2</definedName>
     <definedName name="const_func_ccy">config!$B$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="191" r:id="rId7"/>
+    <pivotCache cacheId="180" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -71,8 +72,8 @@
     <author>tc={E68F4AA3-3D0A-4E51-9DB5-71D163687642}</author>
     <author>tc={60652D12-341E-458F-9404-85AE92F8BD45}</author>
     <author>tc={5D615C4E-EBE7-4C5B-AFF7-7BFD865942AD}</author>
+    <author>tc={1AB846D4-C243-49DD-BFCE-0F152034E39C}</author>
     <author>tc={AF69EBA6-49A2-4E66-B2B5-ADDCB203CBBC}</author>
-    <author>tc={1AB846D4-C243-49DD-BFCE-0F152034E39C}</author>
     <author>tc={89049742-F5D2-410B-B198-12AF77C32560}</author>
     <author>tc={8D1C1E60-2EA0-4CC8-8F9F-A8A7E37ADBA1}</author>
   </authors>
@@ -101,7 +102,15 @@
     资产处置损益</t>
       </text>
     </comment>
-    <comment ref="F6" authorId="3" shapeId="0" xr:uid="{AF69EBA6-49A2-4E66-B2B5-ADDCB203CBBC}">
+    <comment ref="J6" authorId="3" shapeId="0" xr:uid="{1AB846D4-C243-49DD-BFCE-0F152034E39C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    自主活动损益 （类似 诗与歌 这样的活动）</t>
+      </text>
+    </comment>
+    <comment ref="F9" authorId="4" shapeId="0" xr:uid="{AF69EBA6-49A2-4E66-B2B5-ADDCB203CBBC}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -109,15 +118,7 @@
     Inventories</t>
       </text>
     </comment>
-    <comment ref="J6" authorId="4" shapeId="0" xr:uid="{1AB846D4-C243-49DD-BFCE-0F152034E39C}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    自主活动损益 （类似 诗与歌 这样的活动）</t>
-      </text>
-    </comment>
-    <comment ref="F14" authorId="5" shapeId="0" xr:uid="{89049742-F5D2-410B-B198-12AF77C32560}">
+    <comment ref="F18" authorId="5" shapeId="0" xr:uid="{89049742-F5D2-410B-B198-12AF77C32560}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -125,7 +126,7 @@
     Reserve 准备金</t>
       </text>
     </comment>
-    <comment ref="E15" authorId="6" shapeId="0" xr:uid="{8D1C1E60-2EA0-4CC8-8F9F-A8A7E37ADBA1}">
+    <comment ref="E19" authorId="6" shapeId="0" xr:uid="{8D1C1E60-2EA0-4CC8-8F9F-A8A7E37ADBA1}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -140,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="247">
   <si>
     <t>Const</t>
   </si>
@@ -184,9 +185,6 @@
     <t>Bank</t>
   </si>
   <si>
-    <t>Cash</t>
-  </si>
-  <si>
     <t>Assets</t>
   </si>
   <si>
@@ -436,9 +434,6 @@
     <t>JH.7471</t>
   </si>
   <si>
-    <t>CD.0214</t>
-  </si>
-  <si>
     <t>JT.7708</t>
   </si>
   <si>
@@ -448,15 +443,9 @@
     <t>创业园-琦</t>
   </si>
   <si>
-    <t>创业园-晓</t>
-  </si>
-  <si>
     <t>CYY-Qi</t>
   </si>
   <si>
-    <t>CYY-Xiao</t>
-  </si>
-  <si>
     <t>JH.1465</t>
   </si>
   <si>
@@ -521,9 +510,6 @@
   </si>
   <si>
     <t>AP</t>
-  </si>
-  <si>
-    <t>temp</t>
   </si>
   <si>
     <t>Order</t>
@@ -572,10 +558,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>(私账）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>ToTax</t>
   </si>
   <si>
@@ -618,26 +600,16 @@
   </si>
   <si>
     <t>货款</t>
-  </si>
-  <si>
-    <t>货款</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>个人社保</t>
   </si>
   <si>
+    <t>平台</t>
+  </si>
+  <si>
     <t>保证金</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>平台</t>
-  </si>
-  <si>
-    <t>保证金</t>
-  </si>
-  <si>
-    <t>员工预支款</t>
   </si>
   <si>
     <t>借款</t>
@@ -677,14 +649,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>充值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>预收账款</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>T0000</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -782,9 +746,6 @@
     <t>1.应收-应付</t>
   </si>
   <si>
-    <t>0.现金</t>
-  </si>
-  <si>
     <t>2.预付-订阅</t>
   </si>
   <si>
@@ -827,12 +788,6 @@
     <t>明月村-累计折旧</t>
   </si>
   <si>
-    <t>水街-建设投资</t>
-  </si>
-  <si>
-    <t>明月村-基础投资</t>
-  </si>
-  <si>
     <t>水街-累计折旧</t>
   </si>
   <si>
@@ -840,6 +795,117 @@
   </si>
   <si>
     <t>ToEmp</t>
+  </si>
+  <si>
+    <t>合作实体</t>
+  </si>
+  <si>
+    <t>OnEmp</t>
+  </si>
+  <si>
+    <t>水街员工</t>
+  </si>
+  <si>
+    <t>员工预支</t>
+  </si>
+  <si>
+    <t>Depo</t>
+  </si>
+  <si>
+    <t>押金</t>
+  </si>
+  <si>
+    <t>尾款-工程</t>
+  </si>
+  <si>
+    <t>MemShip</t>
+  </si>
+  <si>
+    <t>会员充值</t>
+  </si>
+  <si>
+    <t>住房押金</t>
+  </si>
+  <si>
+    <t>水街</t>
+  </si>
+  <si>
+    <t>Cash-UnRev</t>
+  </si>
+  <si>
+    <t>0.现金-预售</t>
+  </si>
+  <si>
+    <t>FrOther</t>
+  </si>
+  <si>
+    <t>应收-其他</t>
+  </si>
+  <si>
+    <t>明月村-土地</t>
+  </si>
+  <si>
+    <t>明月村-建筑</t>
+  </si>
+  <si>
+    <t>水街-建筑</t>
+  </si>
+  <si>
+    <t>配平</t>
+  </si>
+  <si>
+    <t>检查</t>
+  </si>
+  <si>
+    <t>*资产-负债/权益</t>
+  </si>
+  <si>
+    <t>服装</t>
+  </si>
+  <si>
+    <t>注释</t>
+  </si>
+  <si>
+    <t>库存抵消率</t>
+  </si>
+  <si>
+    <t>账号</t>
+  </si>
+  <si>
+    <t>集团内部</t>
+  </si>
+  <si>
+    <t>不包括 晓</t>
+  </si>
+  <si>
+    <t>预计 为明年</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9万 件 </t>
+  </si>
+  <si>
+    <t>太久卖不掉的</t>
+  </si>
+  <si>
+    <t>去年</t>
+  </si>
+  <si>
+    <t>利润 （2025）</t>
+  </si>
+  <si>
+    <t>几种可能</t>
+  </si>
+  <si>
+    <t>1） 有些资产 没有录入 资产负债表</t>
+  </si>
+  <si>
+    <t>资产负债表 倒推</t>
+  </si>
+  <si>
+    <t>差别</t>
+  </si>
+  <si>
+    <t>2） 已经发生的“分红”</t>
   </si>
 </sst>
 </file>
@@ -850,7 +916,7 @@
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="165" formatCode="yy/m/d;@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -937,12 +1003,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1054,7 +1114,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -1102,13 +1162,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="60% - Accent1" xfId="3" builtinId="32"/>
@@ -1117,7 +1180,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
-  <dxfs count="186">
+  <dxfs count="36">
     <dxf>
       <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
     </dxf>
@@ -1167,462 +1230,6 @@
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1641,7 +1248,13 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
@@ -1705,7 +1318,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Administrator" refreshedDate="46053.490254050928" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="79" xr:uid="{05F4C23F-DC46-422C-907A-0D04194B955D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Administrator" refreshedDate="46054.610394328702" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="79" xr:uid="{05F4C23F-DC46-422C-907A-0D04194B955D}">
   <cacheSource type="worksheet">
     <worksheetSource name="Jnl"/>
   </cacheSource>
@@ -1729,10 +1342,9 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Item" numFmtId="0">
-      <sharedItems containsBlank="1" count="66">
+      <sharedItems containsBlank="1" count="77">
         <s v="JH.0682"/>
         <s v="JH.7471"/>
-        <s v="CD.0214"/>
         <s v="JT.7708"/>
         <s v="JH.2521"/>
         <s v="JH.1465"/>
@@ -1754,27 +1366,39 @@
         <s v="平台"/>
         <s v="个人社保"/>
         <s v="保证金"/>
-        <s v="员工预支款"/>
+        <s v="水街员工"/>
         <s v="借款"/>
-        <s v="货款"/>
+        <s v="合作实体"/>
         <s v="预付费用"/>
         <s v="预付货款"/>
         <s v="低耗"/>
         <s v="图书"/>
         <s v="服饰"/>
-        <s v="明月村-基础投资"/>
+        <s v="明月村-土地"/>
+        <s v="明月村-建筑"/>
         <s v="明月村-累计折旧"/>
-        <s v="水街-建设投资"/>
+        <s v="水街-建筑"/>
         <s v="水街-累计折旧"/>
         <s v="乐于斯"/>
         <s v="低苦艾"/>
+        <s v="货款"/>
         <s v="税金"/>
         <s v="工资"/>
-        <s v="充值"/>
-        <s v="预收账款"/>
+        <s v="尾款-工程"/>
+        <s v="水街"/>
+        <s v="明月村"/>
+        <s v="住房押金"/>
         <s v="前期修建借款"/>
         <s v="注册资本"/>
         <s v="accuInc"/>
+        <s v="CD.0214" u="1"/>
+        <s v="明月村-基础投资" u="1"/>
+        <s v="水街-建设投资" u="1"/>
+        <s v="充值" u="1"/>
+        <s v="预收账款" u="1"/>
+        <s v="客户押金" u="1"/>
+        <s v="销售预付" u="1"/>
+        <s v="员工预支款" u="1"/>
         <s v="明月村.基础投资" u="1"/>
         <s v="SJ.Base" u="1"/>
         <s v="SJ.AccuD" u="1"/>
@@ -1805,7 +1429,7 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="NetBal" numFmtId="38">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-25036191" maxValue="24079061.699999999"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-25036191" maxValue="21129338.43"/>
     </cacheField>
     <cacheField name="BSLv0" numFmtId="0">
       <sharedItems count="3">
@@ -1818,8 +1442,8 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="BSLv2" numFmtId="0">
-      <sharedItems count="14">
-        <s v="Cash"/>
+      <sharedItems count="16">
+        <s v="Cash-UnRev"/>
         <s v="Rec-Pay"/>
         <s v="Prep-Sub"/>
         <s v="Invtr"/>
@@ -1827,6 +1451,8 @@
         <s v="Invest-LTD"/>
         <s v="Cap"/>
         <s v="Rsv"/>
+        <s v="Cash" u="1"/>
+        <s v="UnRev" u="1"/>
         <s v="Invest" u="1"/>
         <e v="#N/A" u="1"/>
         <s v="0.Cash" u="1"/>
@@ -1842,8 +1468,8 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="NameBSLv2" numFmtId="0">
-      <sharedItems count="9">
-        <s v="0.现金"/>
+      <sharedItems count="11">
+        <s v="0.现金-预售"/>
         <s v="1.应收-应付"/>
         <s v="2.预付-订阅"/>
         <s v="3.库存占款"/>
@@ -1851,14 +1477,19 @@
         <s v="6.投资与长期负债"/>
         <s v="X.资本"/>
         <s v="9.储备性权益"/>
+        <s v="0.现金" u="1"/>
+        <s v="0.待完成销售" u="1"/>
         <e v="#N/A" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="NameAcct" numFmtId="0">
-      <sharedItems count="16">
+      <sharedItems count="21">
         <s v="银行"/>
         <s v="物理现金"/>
         <s v="应收-一般"/>
+        <s v="应收-其他"/>
+        <s v="押金"/>
+        <s v="员工预支"/>
         <s v="订单"/>
         <s v="当期存货"/>
         <s v="房地产"/>
@@ -1867,9 +1498,11 @@
         <s v="应付-税款"/>
         <s v="应付-薪资"/>
         <s v="应付-其他"/>
+        <s v="会员充值"/>
         <s v="额外投入"/>
         <s v="原始资本"/>
         <s v="可分配利润"/>
+        <e v="#N/A" u="1"/>
         <s v="应收账款-一般" u="1"/>
         <s v="应付账款-一般" u="1"/>
       </sharedItems>
@@ -1878,7 +1511,6 @@
       <sharedItems count="14">
         <s v="远家花园"/>
         <s v="创业园-琦"/>
-        <s v="创业园-晓"/>
         <s v="桑木"/>
         <s v="榆乐"/>
         <s v="喜家文化"/>
@@ -1890,6 +1522,7 @@
         <s v="小月号"/>
         <s v="郑术燕"/>
         <s v="染匠文化"/>
+        <s v="创业园-晓" u="1"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -1948,29 +1581,9 @@
     <d v="2025-12-31T00:00:00"/>
     <s v="Ctrl"/>
     <s v="forward"/>
-    <s v="CYY-Xiao"/>
+    <s v="SangMu"/>
     <s v="Bank"/>
     <x v="2"/>
-    <n v="30640.9"/>
-    <b v="1"/>
-    <n v="30640.9"/>
-    <x v="0"/>
-    <s v="Assets"/>
-    <x v="0"/>
-    <s v="Other"/>
-    <s v="Non-Op"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="T0000"/>
-    <d v="2025-12-31T00:00:00"/>
-    <s v="Ctrl"/>
-    <s v="forward"/>
-    <s v="SangMu"/>
-    <s v="Bank"/>
-    <x v="3"/>
     <n v="1597158.42"/>
     <b v="1"/>
     <n v="1597158.42"/>
@@ -1981,7 +1594,7 @@
     <s v="Non-Op"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <s v="T0000"/>
@@ -1990,10 +1603,30 @@
     <s v="forward"/>
     <s v="YuLe"/>
     <s v="Bank"/>
-    <x v="4"/>
+    <x v="3"/>
     <n v="2759122.91"/>
     <b v="1"/>
     <n v="2759122.91"/>
+    <x v="0"/>
+    <s v="Assets"/>
+    <x v="0"/>
+    <s v="Other"/>
+    <s v="Non-Op"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="T0000"/>
+    <d v="2025-12-31T00:00:00"/>
+    <s v="Ctrl"/>
+    <s v="forward"/>
+    <s v="XiJia"/>
+    <s v="Bank"/>
+    <x v="4"/>
+    <n v="838646.21"/>
+    <b v="1"/>
+    <n v="838646.21"/>
     <x v="0"/>
     <s v="Assets"/>
     <x v="0"/>
@@ -2009,11 +1642,31 @@
     <s v="Ctrl"/>
     <s v="forward"/>
     <s v="XiJia"/>
+    <s v="Phys.C"/>
+    <x v="5"/>
+    <n v="25540.15"/>
+    <b v="1"/>
+    <n v="25540.15"/>
+    <x v="0"/>
+    <s v="Assets"/>
+    <x v="0"/>
+    <s v="Other"/>
+    <s v="Non-Op"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="T0000"/>
+    <d v="2025-12-31T00:00:00"/>
+    <s v="Ctrl"/>
+    <s v="forward"/>
+    <s v="HY-GaoX"/>
     <s v="Bank"/>
-    <x v="5"/>
-    <n v="838646.21"/>
+    <x v="6"/>
+    <n v="125030.24"/>
     <b v="1"/>
-    <n v="838646.21"/>
+    <n v="125030.24"/>
     <x v="0"/>
     <s v="Assets"/>
     <x v="0"/>
@@ -2030,10 +1683,10 @@
     <s v="forward"/>
     <s v="XiJia"/>
     <s v="Phys.C"/>
-    <x v="6"/>
-    <n v="25540.15"/>
+    <x v="7"/>
+    <n v="2000"/>
     <b v="1"/>
-    <n v="25540.15"/>
+    <n v="2000"/>
     <x v="0"/>
     <s v="Assets"/>
     <x v="0"/>
@@ -2041,19 +1694,19 @@
     <s v="Non-Op"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="5"/>
+    <x v="4"/>
   </r>
   <r>
     <s v="T0000"/>
     <d v="2025-12-31T00:00:00"/>
     <s v="Ctrl"/>
     <s v="forward"/>
-    <s v="HY-GaoX"/>
+    <s v="MiXiaoYi"/>
     <s v="Bank"/>
-    <x v="7"/>
-    <n v="125030.24"/>
+    <x v="8"/>
+    <n v="1012107.86"/>
     <b v="1"/>
-    <n v="125030.24"/>
+    <n v="1012107.86"/>
     <x v="0"/>
     <s v="Assets"/>
     <x v="0"/>
@@ -2070,47 +1723,7 @@
     <s v="forward"/>
     <s v="XiJia"/>
     <s v="Phys.C"/>
-    <x v="8"/>
-    <n v="2000"/>
-    <b v="1"/>
-    <n v="2000"/>
-    <x v="0"/>
-    <s v="Assets"/>
-    <x v="0"/>
-    <s v="Other"/>
-    <s v="Non-Op"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <s v="T0000"/>
-    <d v="2025-12-31T00:00:00"/>
-    <s v="Ctrl"/>
-    <s v="forward"/>
-    <s v="MiXiaoYi"/>
-    <s v="Bank"/>
     <x v="9"/>
-    <n v="1012107.86"/>
-    <b v="1"/>
-    <n v="1012107.86"/>
-    <x v="0"/>
-    <s v="Assets"/>
-    <x v="0"/>
-    <s v="Other"/>
-    <s v="Non-Op"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="T0000"/>
-    <d v="2025-12-31T00:00:00"/>
-    <s v="Ctrl"/>
-    <s v="forward"/>
-    <s v="XiJia"/>
-    <s v="Phys.C"/>
-    <x v="10"/>
     <n v="1304"/>
     <b v="1"/>
     <n v="1304"/>
@@ -2121,7 +1734,7 @@
     <s v="Non-Op"/>
     <x v="0"/>
     <x v="1"/>
-    <x v="5"/>
+    <x v="4"/>
   </r>
   <r>
     <s v="T0000"/>
@@ -2130,7 +1743,7 @@
     <s v="forward"/>
     <s v="YuanWH"/>
     <s v="Bank"/>
-    <x v="11"/>
+    <x v="10"/>
     <n v="174191.78"/>
     <b v="1"/>
     <n v="174191.78"/>
@@ -2141,7 +1754,7 @@
     <s v="Non-Op"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="8"/>
+    <x v="7"/>
   </r>
   <r>
     <s v="T0000"/>
@@ -2150,10 +1763,30 @@
     <s v="forward"/>
     <s v="YWH-PuJ"/>
     <s v="Bank"/>
-    <x v="12"/>
+    <x v="11"/>
     <n v="21355.13"/>
     <b v="1"/>
     <n v="21355.13"/>
+    <x v="0"/>
+    <s v="Assets"/>
+    <x v="0"/>
+    <s v="Other"/>
+    <s v="Non-Op"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="T0000"/>
+    <d v="2025-12-31T00:00:00"/>
+    <s v="Ctrl"/>
+    <s v="forward"/>
+    <s v="XiaoXi"/>
+    <s v="Bank"/>
+    <x v="12"/>
+    <n v="143995.32"/>
+    <b v="1"/>
+    <n v="143995.32"/>
     <x v="0"/>
     <s v="Assets"/>
     <x v="0"/>
@@ -2171,26 +1804,6 @@
     <s v="XiaoXi"/>
     <s v="Bank"/>
     <x v="13"/>
-    <n v="143995.32"/>
-    <b v="1"/>
-    <n v="143995.32"/>
-    <x v="0"/>
-    <s v="Assets"/>
-    <x v="0"/>
-    <s v="Other"/>
-    <s v="Non-Op"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <s v="T0000"/>
-    <d v="2025-12-31T00:00:00"/>
-    <s v="Ctrl"/>
-    <s v="forward"/>
-    <s v="XiaoXi"/>
-    <s v="Bank"/>
-    <x v="14"/>
     <n v="435221.41"/>
     <b v="1"/>
     <n v="435221.41"/>
@@ -2201,7 +1814,7 @@
     <s v="Non-Op"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="10"/>
+    <x v="9"/>
   </r>
   <r>
     <s v="T0000"/>
@@ -2210,7 +1823,7 @@
     <s v="forward"/>
     <s v="XiaoYue"/>
     <s v="Bank"/>
-    <x v="14"/>
+    <x v="13"/>
     <n v="12977.6"/>
     <b v="1"/>
     <n v="12977.6"/>
@@ -2221,7 +1834,7 @@
     <s v="Non-Op"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="11"/>
+    <x v="10"/>
   </r>
   <r>
     <s v="T0000"/>
@@ -2230,7 +1843,7 @@
     <s v="forward"/>
     <s v="ZhengSY"/>
     <s v="Bank"/>
-    <x v="15"/>
+    <x v="14"/>
     <n v="30900.25"/>
     <b v="1"/>
     <n v="30900.25"/>
@@ -2241,7 +1854,7 @@
     <s v="Non-Op"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="12"/>
+    <x v="11"/>
   </r>
   <r>
     <s v="T0000"/>
@@ -2250,10 +1863,30 @@
     <s v="forward"/>
     <s v="YuanWH"/>
     <s v="Bank"/>
-    <x v="16"/>
+    <x v="15"/>
     <n v="6917.42"/>
     <b v="1"/>
     <n v="6917.42"/>
+    <x v="0"/>
+    <s v="Assets"/>
+    <x v="0"/>
+    <s v="Other"/>
+    <s v="Non-Op"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="T0000"/>
+    <d v="2025-12-31T00:00:00"/>
+    <s v="Ctrl"/>
+    <s v="forward"/>
+    <s v="YWH-PuJ"/>
+    <s v="Bank"/>
+    <x v="16"/>
+    <n v="709.51"/>
+    <b v="1"/>
+    <n v="709.51"/>
     <x v="0"/>
     <s v="Assets"/>
     <x v="0"/>
@@ -2269,39 +1902,39 @@
     <s v="Ctrl"/>
     <s v="forward"/>
     <s v="YWH-PuJ"/>
-    <s v="Bank"/>
+    <s v="Phys.C"/>
     <x v="17"/>
-    <n v="709.51"/>
+    <n v="20812"/>
     <b v="1"/>
-    <n v="709.51"/>
+    <n v="20812"/>
     <x v="0"/>
     <s v="Assets"/>
     <x v="0"/>
     <s v="Other"/>
     <s v="Non-Op"/>
     <x v="0"/>
-    <x v="0"/>
-    <x v="9"/>
+    <x v="1"/>
+    <x v="8"/>
   </r>
   <r>
     <s v="T0000"/>
     <d v="2025-12-31T00:00:00"/>
     <s v="Ctrl"/>
     <s v="forward"/>
-    <s v="YWH-PuJ"/>
-    <s v="Phys.C"/>
+    <s v="RanJ"/>
+    <s v="Bank"/>
     <x v="18"/>
-    <n v="20812"/>
+    <n v="630993.46"/>
     <b v="1"/>
-    <n v="20812"/>
+    <n v="630993.46"/>
     <x v="0"/>
     <s v="Assets"/>
     <x v="0"/>
     <s v="Other"/>
     <s v="Non-Op"/>
     <x v="0"/>
-    <x v="1"/>
-    <x v="9"/>
+    <x v="0"/>
+    <x v="12"/>
   </r>
   <r>
     <s v="T0000"/>
@@ -2311,26 +1944,6 @@
     <s v="RanJ"/>
     <s v="Bank"/>
     <x v="19"/>
-    <n v="630993.46"/>
-    <b v="1"/>
-    <n v="630993.46"/>
-    <x v="0"/>
-    <s v="Assets"/>
-    <x v="0"/>
-    <s v="Other"/>
-    <s v="Non-Op"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <s v="T0000"/>
-    <d v="2025-12-31T00:00:00"/>
-    <s v="Ctrl"/>
-    <s v="forward"/>
-    <s v="RanJ"/>
-    <s v="Bank"/>
-    <x v="20"/>
     <n v="20124.45"/>
     <b v="1"/>
     <n v="20124.45"/>
@@ -2341,7 +1954,7 @@
     <s v="Non-Op"/>
     <x v="0"/>
     <x v="0"/>
-    <x v="13"/>
+    <x v="12"/>
   </r>
   <r>
     <s v="T0000"/>
@@ -2350,10 +1963,130 @@
     <s v="forward"/>
     <s v="XiJia"/>
     <s v="AR"/>
-    <x v="21"/>
+    <x v="20"/>
     <n v="18526.13"/>
     <b v="1"/>
     <n v="18526.13"/>
+    <x v="0"/>
+    <s v="Assets"/>
+    <x v="1"/>
+    <s v="Other"/>
+    <s v="Non-Op"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="T0000"/>
+    <d v="2025-12-31T00:00:00"/>
+    <s v="Ctrl"/>
+    <s v="forward"/>
+    <s v="XiJia"/>
+    <s v="FrOther"/>
+    <x v="21"/>
+    <n v="2385.75"/>
+    <b v="1"/>
+    <n v="2385.75"/>
+    <x v="0"/>
+    <s v="Assets"/>
+    <x v="1"/>
+    <s v="Other"/>
+    <s v="Non-Op"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="T0000"/>
+    <d v="2025-12-31T00:00:00"/>
+    <s v="Ctrl"/>
+    <s v="forward"/>
+    <s v="XiJia"/>
+    <s v="Depo"/>
+    <x v="22"/>
+    <n v="100000"/>
+    <b v="1"/>
+    <n v="100000"/>
+    <x v="0"/>
+    <s v="Assets"/>
+    <x v="2"/>
+    <s v="Other"/>
+    <s v="Non-Op"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="T0000"/>
+    <d v="2025-12-31T00:00:00"/>
+    <s v="Ctrl"/>
+    <s v="forward"/>
+    <s v="HuaYuan"/>
+    <s v="AR"/>
+    <x v="20"/>
+    <n v="289043.94"/>
+    <b v="1"/>
+    <n v="289043.94"/>
+    <x v="0"/>
+    <s v="Assets"/>
+    <x v="1"/>
+    <s v="Other"/>
+    <s v="Non-Op"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="T0000"/>
+    <d v="2025-12-31T00:00:00"/>
+    <s v="Ctrl"/>
+    <s v="forward"/>
+    <s v="HuaYuan"/>
+    <s v="FrOther"/>
+    <x v="21"/>
+    <n v="24591.75"/>
+    <b v="1"/>
+    <n v="24591.75"/>
+    <x v="0"/>
+    <s v="Assets"/>
+    <x v="1"/>
+    <s v="Other"/>
+    <s v="Non-Op"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="T0000"/>
+    <d v="2025-12-31T00:00:00"/>
+    <s v="Ctrl"/>
+    <s v="forward"/>
+    <s v="HuaYuan"/>
+    <s v="Depo"/>
+    <x v="22"/>
+    <n v="66888.95"/>
+    <b v="1"/>
+    <n v="66888.95"/>
+    <x v="0"/>
+    <s v="Assets"/>
+    <x v="2"/>
+    <s v="Other"/>
+    <s v="Non-Op"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="T0000"/>
+    <d v="2025-12-31T00:00:00"/>
+    <s v="Ctrl"/>
+    <s v="forward"/>
+    <s v="HY-GaoX"/>
+    <s v="AR"/>
+    <x v="20"/>
+    <n v="4640.3"/>
+    <b v="1"/>
+    <n v="4640.3"/>
     <x v="0"/>
     <s v="Assets"/>
     <x v="1"/>
@@ -2368,19 +2101,19 @@
     <d v="2025-12-31T00:00:00"/>
     <s v="Ctrl"/>
     <s v="forward"/>
-    <s v="XiJia"/>
-    <s v="AR"/>
-    <x v="22"/>
-    <n v="2385.75"/>
+    <s v="HY-GaoX"/>
+    <s v="FrOther"/>
+    <x v="21"/>
+    <n v="1474.3"/>
     <b v="1"/>
-    <n v="2385.75"/>
+    <n v="1474.3"/>
     <x v="0"/>
     <s v="Assets"/>
     <x v="1"/>
     <s v="Other"/>
     <s v="Non-Op"/>
     <x v="1"/>
-    <x v="2"/>
+    <x v="3"/>
     <x v="5"/>
   </r>
   <r>
@@ -2388,92 +2121,112 @@
     <d v="2025-12-31T00:00:00"/>
     <s v="Ctrl"/>
     <s v="forward"/>
-    <s v="XiJia"/>
-    <s v="AR"/>
-    <x v="23"/>
-    <n v="100000"/>
+    <s v="RanJ"/>
+    <s v="FrOther"/>
+    <x v="21"/>
+    <n v="3340.05"/>
     <b v="1"/>
-    <n v="100000"/>
+    <n v="3340.05"/>
     <x v="0"/>
     <s v="Assets"/>
     <x v="1"/>
     <s v="Other"/>
     <s v="Non-Op"/>
     <x v="1"/>
-    <x v="2"/>
-    <x v="5"/>
+    <x v="3"/>
+    <x v="12"/>
   </r>
   <r>
     <s v="T0000"/>
     <d v="2025-12-31T00:00:00"/>
     <s v="Ctrl"/>
     <s v="forward"/>
-    <s v="HuaYuan"/>
-    <s v="AR"/>
+    <s v="YuLe"/>
+    <s v="FrOther"/>
     <x v="21"/>
-    <n v="289043.94"/>
+    <n v="14294.35"/>
     <b v="1"/>
-    <n v="289043.94"/>
+    <n v="14294.35"/>
     <x v="0"/>
     <s v="Assets"/>
     <x v="1"/>
     <s v="Other"/>
     <s v="Non-Op"/>
     <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
   </r>
   <r>
     <s v="T0000"/>
     <d v="2025-12-31T00:00:00"/>
     <s v="Ctrl"/>
     <s v="forward"/>
-    <s v="HuaYuan"/>
-    <s v="AR"/>
-    <x v="22"/>
-    <n v="24591.75"/>
+    <s v="SangMu"/>
+    <s v="FrOther"/>
+    <x v="21"/>
+    <n v="1431.45"/>
     <b v="1"/>
-    <n v="24591.75"/>
+    <n v="1431.45"/>
     <x v="0"/>
     <s v="Assets"/>
     <x v="1"/>
     <s v="Other"/>
     <s v="Non-Op"/>
     <x v="1"/>
+    <x v="3"/>
     <x v="2"/>
-    <x v="0"/>
   </r>
   <r>
     <s v="T0000"/>
     <d v="2025-12-31T00:00:00"/>
     <s v="Ctrl"/>
     <s v="forward"/>
-    <s v="HuaYuan"/>
-    <s v="AR"/>
-    <x v="23"/>
-    <n v="66888.95"/>
+    <s v="MiXiaoYi"/>
+    <s v="FrOther"/>
+    <x v="21"/>
+    <n v="11451.6"/>
     <b v="1"/>
-    <n v="66888.95"/>
+    <n v="11451.6"/>
     <x v="0"/>
     <s v="Assets"/>
     <x v="1"/>
     <s v="Other"/>
     <s v="Non-Op"/>
     <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
+    <x v="3"/>
+    <x v="6"/>
   </r>
   <r>
     <s v="T0000"/>
     <d v="2025-12-31T00:00:00"/>
     <s v="Ctrl"/>
     <s v="forward"/>
-    <s v="HY-GaoX"/>
+    <s v="MiXiaoYi"/>
+    <s v="Depo"/>
+    <x v="22"/>
+    <n v="4000"/>
+    <b v="1"/>
+    <n v="4000"/>
+    <x v="0"/>
+    <s v="Assets"/>
+    <x v="2"/>
+    <s v="Other"/>
+    <s v="Non-Op"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="T0000"/>
+    <d v="2025-12-31T00:00:00"/>
+    <s v="Ctrl"/>
+    <s v="forward"/>
+    <s v="MiXiaoYi"/>
     <s v="AR"/>
-    <x v="21"/>
-    <n v="4640.3"/>
+    <x v="20"/>
+    <n v="12892.74"/>
     <b v="1"/>
-    <n v="4640.3"/>
+    <n v="12892.74"/>
     <x v="0"/>
     <s v="Assets"/>
     <x v="1"/>
@@ -2488,19 +2241,19 @@
     <d v="2025-12-31T00:00:00"/>
     <s v="Ctrl"/>
     <s v="forward"/>
-    <s v="HY-GaoX"/>
-    <s v="AR"/>
-    <x v="22"/>
-    <n v="1474.3"/>
+    <s v="MiXiaoYi"/>
+    <s v="OnEmp"/>
+    <x v="23"/>
+    <n v="30000"/>
     <b v="1"/>
-    <n v="1474.3"/>
+    <n v="30000"/>
     <x v="0"/>
     <s v="Assets"/>
-    <x v="1"/>
+    <x v="2"/>
     <s v="Other"/>
     <s v="Non-Op"/>
-    <x v="1"/>
     <x v="2"/>
+    <x v="5"/>
     <x v="6"/>
   </r>
   <r>
@@ -2508,132 +2261,12 @@
     <d v="2025-12-31T00:00:00"/>
     <s v="Ctrl"/>
     <s v="forward"/>
-    <s v="RanJ"/>
+    <s v="YuanWH"/>
     <s v="AR"/>
-    <x v="22"/>
-    <n v="3340.05"/>
+    <x v="20"/>
+    <n v="240013.22999999998"/>
     <b v="1"/>
-    <n v="3340.05"/>
-    <x v="0"/>
-    <s v="Assets"/>
-    <x v="1"/>
-    <s v="Other"/>
-    <s v="Non-Op"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <s v="T0000"/>
-    <d v="2025-12-31T00:00:00"/>
-    <s v="Ctrl"/>
-    <s v="forward"/>
-    <s v="YuLe"/>
-    <s v="AR"/>
-    <x v="22"/>
-    <n v="14294.35"/>
-    <b v="1"/>
-    <n v="14294.35"/>
-    <x v="0"/>
-    <s v="Assets"/>
-    <x v="1"/>
-    <s v="Other"/>
-    <s v="Non-Op"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <s v="T0000"/>
-    <d v="2025-12-31T00:00:00"/>
-    <s v="Ctrl"/>
-    <s v="forward"/>
-    <s v="SangMu"/>
-    <s v="AR"/>
-    <x v="22"/>
-    <n v="1431.45"/>
-    <b v="1"/>
-    <n v="1431.45"/>
-    <x v="0"/>
-    <s v="Assets"/>
-    <x v="1"/>
-    <s v="Other"/>
-    <s v="Non-Op"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="T0000"/>
-    <d v="2025-12-31T00:00:00"/>
-    <s v="Ctrl"/>
-    <s v="forward"/>
-    <s v="MiXiaoYi"/>
-    <s v="AR"/>
-    <x v="22"/>
-    <n v="11451.6"/>
-    <b v="1"/>
-    <n v="11451.6"/>
-    <x v="0"/>
-    <s v="Assets"/>
-    <x v="1"/>
-    <s v="Other"/>
-    <s v="Non-Op"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="T0000"/>
-    <d v="2025-12-31T00:00:00"/>
-    <s v="Ctrl"/>
-    <s v="forward"/>
-    <s v="MiXiaoYi"/>
-    <s v="AR"/>
-    <x v="23"/>
-    <n v="4000"/>
-    <b v="1"/>
-    <n v="4000"/>
-    <x v="0"/>
-    <s v="Assets"/>
-    <x v="1"/>
-    <s v="Other"/>
-    <s v="Non-Op"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="T0000"/>
-    <d v="2025-12-31T00:00:00"/>
-    <s v="Ctrl"/>
-    <s v="forward"/>
-    <s v="MiXiaoYi"/>
-    <s v="AR"/>
-    <x v="21"/>
-    <n v="12892.74"/>
-    <b v="1"/>
-    <n v="12892.74"/>
-    <x v="0"/>
-    <s v="Assets"/>
-    <x v="1"/>
-    <s v="Other"/>
-    <s v="Non-Op"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="T0000"/>
-    <d v="2025-12-31T00:00:00"/>
-    <s v="Ctrl"/>
-    <s v="forward"/>
-    <s v="MiXiaoYi"/>
-    <s v="AR"/>
-    <x v="24"/>
-    <n v="30000"/>
-    <b v="1"/>
-    <n v="30000"/>
+    <n v="240013.22999999998"/>
     <x v="0"/>
     <s v="Assets"/>
     <x v="1"/>
@@ -2650,10 +2283,10 @@
     <s v="forward"/>
     <s v="YuanWH"/>
     <s v="AR"/>
-    <x v="21"/>
-    <n v="240013.22999999998"/>
+    <x v="24"/>
+    <n v="150000"/>
     <b v="1"/>
-    <n v="240013.22999999998"/>
+    <n v="150000"/>
     <x v="0"/>
     <s v="Assets"/>
     <x v="1"/>
@@ -2661,7 +2294,7 @@
     <s v="Non-Op"/>
     <x v="1"/>
     <x v="2"/>
-    <x v="8"/>
+    <x v="7"/>
   </r>
   <r>
     <s v="T0000"/>
@@ -2669,39 +2302,19 @@
     <s v="Ctrl"/>
     <s v="forward"/>
     <s v="YuanWH"/>
-    <s v="AR"/>
-    <x v="25"/>
-    <n v="150000"/>
-    <b v="1"/>
-    <n v="150000"/>
-    <x v="0"/>
-    <s v="Assets"/>
-    <x v="1"/>
-    <s v="Other"/>
-    <s v="Non-Op"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="T0000"/>
-    <d v="2025-12-31T00:00:00"/>
-    <s v="Ctrl"/>
-    <s v="forward"/>
-    <s v="YuanWH"/>
-    <s v="AR"/>
-    <x v="23"/>
+    <s v="Depo"/>
+    <x v="22"/>
     <n v="38389.65"/>
     <b v="1"/>
     <n v="38389.65"/>
     <x v="0"/>
     <s v="Assets"/>
-    <x v="1"/>
+    <x v="2"/>
     <s v="Other"/>
     <s v="Non-Op"/>
-    <x v="1"/>
     <x v="2"/>
-    <x v="8"/>
+    <x v="4"/>
+    <x v="7"/>
   </r>
   <r>
     <s v="T0000"/>
@@ -2710,7 +2323,7 @@
     <s v="forward"/>
     <s v="CYY-Qi"/>
     <s v="AR"/>
-    <x v="26"/>
+    <x v="25"/>
     <n v="25551.3"/>
     <b v="1"/>
     <n v="25551.3"/>
@@ -2730,7 +2343,7 @@
     <s v="forward"/>
     <s v="XiJia"/>
     <s v="Order"/>
-    <x v="27"/>
+    <x v="26"/>
     <n v="130521.15"/>
     <b v="1"/>
     <n v="130521.15"/>
@@ -2740,8 +2353,8 @@
     <s v="Other"/>
     <s v="Non-Op"/>
     <x v="2"/>
-    <x v="3"/>
-    <x v="5"/>
+    <x v="6"/>
+    <x v="4"/>
   </r>
   <r>
     <s v="T0000"/>
@@ -2750,7 +2363,7 @@
     <s v="forward"/>
     <s v="HuaYuan"/>
     <s v="Order"/>
-    <x v="27"/>
+    <x v="26"/>
     <n v="87645.27"/>
     <b v="1"/>
     <n v="87645.27"/>
@@ -2760,7 +2373,7 @@
     <s v="Other"/>
     <s v="Non-Op"/>
     <x v="2"/>
-    <x v="3"/>
+    <x v="6"/>
     <x v="0"/>
   </r>
   <r>
@@ -2770,7 +2383,7 @@
     <s v="forward"/>
     <s v="SangMu"/>
     <s v="Order"/>
-    <x v="28"/>
+    <x v="27"/>
     <n v="99417.5"/>
     <b v="1"/>
     <n v="99417.5"/>
@@ -2780,8 +2393,8 @@
     <s v="Other"/>
     <s v="Non-Op"/>
     <x v="2"/>
-    <x v="3"/>
-    <x v="3"/>
+    <x v="6"/>
+    <x v="2"/>
   </r>
   <r>
     <s v="T0000"/>
@@ -2790,7 +2403,7 @@
     <s v="forward"/>
     <s v="MiXiaoYi"/>
     <s v="Order"/>
-    <x v="27"/>
+    <x v="26"/>
     <n v="1225"/>
     <b v="1"/>
     <n v="1225"/>
@@ -2800,8 +2413,8 @@
     <s v="Other"/>
     <s v="Non-Op"/>
     <x v="2"/>
-    <x v="3"/>
-    <x v="7"/>
+    <x v="6"/>
+    <x v="6"/>
   </r>
   <r>
     <s v="T0000"/>
@@ -2810,7 +2423,7 @@
     <s v="forward"/>
     <s v="YuanWH"/>
     <s v="Curr"/>
-    <x v="29"/>
+    <x v="28"/>
     <n v="192761.82"/>
     <b v="1"/>
     <n v="192761.82"/>
@@ -2820,8 +2433,8 @@
     <s v="Other"/>
     <s v="Non-Op"/>
     <x v="3"/>
-    <x v="4"/>
-    <x v="8"/>
+    <x v="7"/>
+    <x v="7"/>
   </r>
   <r>
     <s v="T0000"/>
@@ -2830,7 +2443,7 @@
     <s v="forward"/>
     <s v="MiXiaoYi"/>
     <s v="Curr"/>
-    <x v="30"/>
+    <x v="29"/>
     <n v="242182.81"/>
     <b v="1"/>
     <n v="242182.81"/>
@@ -2840,8 +2453,8 @@
     <s v="Other"/>
     <s v="Non-Op"/>
     <x v="3"/>
-    <x v="4"/>
     <x v="7"/>
+    <x v="6"/>
   </r>
   <r>
     <s v="T0000"/>
@@ -2850,7 +2463,7 @@
     <s v="forward"/>
     <s v="HuaYuan"/>
     <s v="Curr"/>
-    <x v="31"/>
+    <x v="30"/>
     <n v="10513383.689999999"/>
     <b v="1"/>
     <n v="10513383.689999999"/>
@@ -2860,8 +2473,28 @@
     <s v="Other"/>
     <s v="Non-Op"/>
     <x v="3"/>
+    <x v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="T0000"/>
+    <d v="2025-12-31T00:00:00"/>
+    <s v="Ctrl"/>
+    <s v="forward"/>
+    <s v="YuanWH"/>
+    <s v="Property"/>
+    <x v="31"/>
+    <n v="2949723.27"/>
+    <b v="1"/>
+    <n v="2949723.27"/>
+    <x v="0"/>
+    <s v="Assets"/>
     <x v="4"/>
-    <x v="0"/>
+    <s v="Other"/>
+    <s v="Non-Op"/>
+    <x v="4"/>
+    <x v="8"/>
+    <x v="7"/>
   </r>
   <r>
     <s v="T0000"/>
@@ -2871,17 +2504,17 @@
     <s v="YuanWH"/>
     <s v="Property"/>
     <x v="32"/>
-    <n v="24079061.699999999"/>
+    <n v="21129338.43"/>
     <b v="1"/>
-    <n v="24079061.699999999"/>
+    <n v="21129338.43"/>
     <x v="0"/>
     <s v="Assets"/>
     <x v="4"/>
     <s v="Other"/>
     <s v="Non-Op"/>
     <x v="4"/>
-    <x v="5"/>
     <x v="8"/>
+    <x v="7"/>
   </r>
   <r>
     <s v="T0000"/>
@@ -2900,8 +2533,8 @@
     <s v="Other"/>
     <s v="Non-Op"/>
     <x v="4"/>
-    <x v="5"/>
     <x v="8"/>
+    <x v="7"/>
   </r>
   <r>
     <s v="T0000"/>
@@ -2920,8 +2553,8 @@
     <s v="Other"/>
     <s v="Non-Op"/>
     <x v="4"/>
+    <x v="8"/>
     <x v="5"/>
-    <x v="6"/>
   </r>
   <r>
     <s v="T0000"/>
@@ -2940,8 +2573,8 @@
     <s v="Other"/>
     <s v="Non-Op"/>
     <x v="4"/>
+    <x v="8"/>
     <x v="5"/>
-    <x v="6"/>
   </r>
   <r>
     <s v="T0000"/>
@@ -2960,8 +2593,8 @@
     <s v="Other"/>
     <s v="Non-Op"/>
     <x v="5"/>
-    <x v="6"/>
-    <x v="5"/>
+    <x v="9"/>
+    <x v="4"/>
   </r>
   <r>
     <s v="T0000"/>
@@ -2980,8 +2613,8 @@
     <s v="Other"/>
     <s v="Non-Op"/>
     <x v="5"/>
-    <x v="6"/>
-    <x v="5"/>
+    <x v="9"/>
+    <x v="4"/>
   </r>
   <r>
     <s v="T0000"/>
@@ -2990,7 +2623,7 @@
     <s v="forward"/>
     <s v="XiJia"/>
     <s v="AP"/>
-    <x v="26"/>
+    <x v="38"/>
     <n v="6891.7999999999993"/>
     <b v="1"/>
     <n v="-6891.7999999999993"/>
@@ -3000,8 +2633,8 @@
     <s v="Other"/>
     <s v="Non-Op"/>
     <x v="1"/>
-    <x v="7"/>
-    <x v="5"/>
+    <x v="10"/>
+    <x v="4"/>
   </r>
   <r>
     <s v="T0000"/>
@@ -3010,7 +2643,7 @@
     <s v="forward"/>
     <s v="XiJia"/>
     <s v="ToTax"/>
-    <x v="38"/>
+    <x v="39"/>
     <n v="30730.53"/>
     <b v="1"/>
     <n v="-30730.53"/>
@@ -3020,8 +2653,8 @@
     <s v="Other"/>
     <s v="Non-Op"/>
     <x v="1"/>
-    <x v="8"/>
-    <x v="5"/>
+    <x v="11"/>
+    <x v="4"/>
   </r>
   <r>
     <s v="T0000"/>
@@ -3030,7 +2663,7 @@
     <s v="forward"/>
     <s v="XiJia"/>
     <s v="ToEmp"/>
-    <x v="39"/>
+    <x v="40"/>
     <n v="37380.69"/>
     <b v="1"/>
     <n v="-37380.69"/>
@@ -3040,8 +2673,8 @@
     <s v="Other"/>
     <s v="Non-Op"/>
     <x v="1"/>
-    <x v="9"/>
-    <x v="5"/>
+    <x v="12"/>
+    <x v="4"/>
   </r>
   <r>
     <s v="T0000"/>
@@ -3050,7 +2683,7 @@
     <s v="forward"/>
     <s v="HuaYuan"/>
     <s v="ToTax"/>
-    <x v="38"/>
+    <x v="39"/>
     <n v="441296.96"/>
     <b v="1"/>
     <n v="-441296.96"/>
@@ -3060,7 +2693,7 @@
     <s v="Other"/>
     <s v="Non-Op"/>
     <x v="1"/>
-    <x v="8"/>
+    <x v="11"/>
     <x v="0"/>
   </r>
   <r>
@@ -3070,7 +2703,7 @@
     <s v="forward"/>
     <s v="HuaYuan"/>
     <s v="ToEmp"/>
-    <x v="39"/>
+    <x v="40"/>
     <n v="454010.9"/>
     <b v="1"/>
     <n v="-454010.9"/>
@@ -3080,7 +2713,7 @@
     <s v="Other"/>
     <s v="Non-Op"/>
     <x v="1"/>
-    <x v="9"/>
+    <x v="12"/>
     <x v="0"/>
   </r>
   <r>
@@ -3090,7 +2723,7 @@
     <s v="forward"/>
     <s v="HY-GaoX"/>
     <s v="ToTax"/>
-    <x v="38"/>
+    <x v="39"/>
     <n v="5489.66"/>
     <b v="1"/>
     <n v="-5489.66"/>
@@ -3100,8 +2733,8 @@
     <s v="Other"/>
     <s v="Non-Op"/>
     <x v="1"/>
-    <x v="8"/>
-    <x v="6"/>
+    <x v="11"/>
+    <x v="5"/>
   </r>
   <r>
     <s v="T0000"/>
@@ -3110,7 +2743,7 @@
     <s v="forward"/>
     <s v="HY-GaoX"/>
     <s v="ToEmp"/>
-    <x v="39"/>
+    <x v="40"/>
     <n v="34956.620000000003"/>
     <b v="1"/>
     <n v="-34956.620000000003"/>
@@ -3120,8 +2753,8 @@
     <s v="Other"/>
     <s v="Non-Op"/>
     <x v="1"/>
-    <x v="9"/>
-    <x v="6"/>
+    <x v="12"/>
+    <x v="5"/>
   </r>
   <r>
     <s v="T0000"/>
@@ -3130,7 +2763,7 @@
     <s v="forward"/>
     <s v="HY-GaoX"/>
     <s v="ToOther"/>
-    <x v="23"/>
+    <x v="41"/>
     <n v="2200"/>
     <b v="1"/>
     <n v="-2200"/>
@@ -3140,8 +2773,8 @@
     <s v="Other"/>
     <s v="Non-Op"/>
     <x v="1"/>
-    <x v="10"/>
-    <x v="6"/>
+    <x v="13"/>
+    <x v="5"/>
   </r>
   <r>
     <s v="T0000"/>
@@ -3150,7 +2783,7 @@
     <s v="forward"/>
     <s v="RanJ"/>
     <s v="ToTax"/>
-    <x v="38"/>
+    <x v="39"/>
     <n v="15725.69"/>
     <b v="1"/>
     <n v="-15725.69"/>
@@ -3160,8 +2793,8 @@
     <s v="Other"/>
     <s v="Non-Op"/>
     <x v="1"/>
-    <x v="8"/>
-    <x v="13"/>
+    <x v="11"/>
+    <x v="12"/>
   </r>
   <r>
     <s v="T0000"/>
@@ -3170,7 +2803,7 @@
     <s v="forward"/>
     <s v="RanJ"/>
     <s v="ToEmp"/>
-    <x v="39"/>
+    <x v="40"/>
     <n v="33541.86"/>
     <b v="1"/>
     <n v="-33541.86"/>
@@ -3180,8 +2813,8 @@
     <s v="Other"/>
     <s v="Non-Op"/>
     <x v="1"/>
-    <x v="9"/>
-    <x v="13"/>
+    <x v="12"/>
+    <x v="12"/>
   </r>
   <r>
     <s v="T0000"/>
@@ -3190,7 +2823,7 @@
     <s v="forward"/>
     <s v="YuLe"/>
     <s v="ToTax"/>
-    <x v="38"/>
+    <x v="39"/>
     <n v="42232.84"/>
     <b v="1"/>
     <n v="-42232.84"/>
@@ -3200,8 +2833,8 @@
     <s v="Other"/>
     <s v="Non-Op"/>
     <x v="1"/>
-    <x v="8"/>
-    <x v="4"/>
+    <x v="11"/>
+    <x v="3"/>
   </r>
   <r>
     <s v="T0000"/>
@@ -3210,7 +2843,7 @@
     <s v="forward"/>
     <s v="YuLe"/>
     <s v="ToEmp"/>
-    <x v="39"/>
+    <x v="40"/>
     <n v="76031.259999999995"/>
     <b v="1"/>
     <n v="-76031.259999999995"/>
@@ -3220,8 +2853,8 @@
     <s v="Other"/>
     <s v="Non-Op"/>
     <x v="1"/>
-    <x v="9"/>
-    <x v="4"/>
+    <x v="12"/>
+    <x v="3"/>
   </r>
   <r>
     <s v="T0000"/>
@@ -3230,7 +2863,7 @@
     <s v="forward"/>
     <s v="SangMu"/>
     <s v="ToTax"/>
-    <x v="38"/>
+    <x v="39"/>
     <n v="77772.66"/>
     <b v="1"/>
     <n v="-77772.66"/>
@@ -3240,8 +2873,8 @@
     <s v="Other"/>
     <s v="Non-Op"/>
     <x v="1"/>
-    <x v="8"/>
-    <x v="3"/>
+    <x v="11"/>
+    <x v="2"/>
   </r>
   <r>
     <s v="T0000"/>
@@ -3250,7 +2883,7 @@
     <s v="forward"/>
     <s v="SangMu"/>
     <s v="ToEmp"/>
-    <x v="39"/>
+    <x v="40"/>
     <n v="18440"/>
     <b v="1"/>
     <n v="-18440"/>
@@ -3260,8 +2893,8 @@
     <s v="Other"/>
     <s v="Non-Op"/>
     <x v="1"/>
-    <x v="9"/>
-    <x v="3"/>
+    <x v="12"/>
+    <x v="2"/>
   </r>
   <r>
     <s v="T0000"/>
@@ -3270,7 +2903,7 @@
     <s v="forward"/>
     <s v="MiXiaoYi"/>
     <s v="ToTax"/>
-    <x v="38"/>
+    <x v="39"/>
     <n v="30461.37"/>
     <b v="1"/>
     <n v="-30461.37"/>
@@ -3280,8 +2913,8 @@
     <s v="Other"/>
     <s v="Non-Op"/>
     <x v="1"/>
-    <x v="8"/>
-    <x v="7"/>
+    <x v="11"/>
+    <x v="6"/>
   </r>
   <r>
     <s v="T0000"/>
@@ -3290,7 +2923,7 @@
     <s v="forward"/>
     <s v="MiXiaoYi"/>
     <s v="ToEmp"/>
-    <x v="39"/>
+    <x v="40"/>
     <n v="156507.97"/>
     <b v="1"/>
     <n v="-156507.97"/>
@@ -3300,7 +2933,47 @@
     <s v="Other"/>
     <s v="Non-Op"/>
     <x v="1"/>
-    <x v="9"/>
+    <x v="12"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="T0000"/>
+    <d v="2025-12-31T00:00:00"/>
+    <s v="Ctrl"/>
+    <s v="forward"/>
+    <s v="MiXiaoYi"/>
+    <s v="MemShip"/>
+    <x v="42"/>
+    <n v="50507.19"/>
+    <b v="1"/>
+    <n v="-50507.19"/>
+    <x v="1"/>
+    <s v="Liability"/>
+    <x v="0"/>
+    <s v="Other"/>
+    <s v="Non-Op"/>
+    <x v="0"/>
+    <x v="14"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="T0000"/>
+    <d v="2025-12-31T00:00:00"/>
+    <s v="Ctrl"/>
+    <s v="forward"/>
+    <s v="YuanWH"/>
+    <s v="ToTax"/>
+    <x v="39"/>
+    <n v="12351.18"/>
+    <b v="1"/>
+    <n v="-12351.18"/>
+    <x v="1"/>
+    <s v="Liability"/>
+    <x v="1"/>
+    <s v="Other"/>
+    <s v="Non-Op"/>
+    <x v="1"/>
+    <x v="11"/>
     <x v="7"/>
   </r>
   <r>
@@ -3308,12 +2981,72 @@
     <d v="2025-12-31T00:00:00"/>
     <s v="Ctrl"/>
     <s v="forward"/>
-    <s v="MiXiaoYi"/>
+    <s v="YuanWH"/>
+    <s v="ToEmp"/>
+    <x v="40"/>
+    <n v="112127.37"/>
+    <b v="1"/>
+    <n v="-112127.37"/>
+    <x v="1"/>
+    <s v="Liability"/>
+    <x v="1"/>
+    <s v="Other"/>
+    <s v="Non-Op"/>
+    <x v="1"/>
+    <x v="12"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="T0000"/>
+    <d v="2025-12-31T00:00:00"/>
+    <s v="Ctrl"/>
+    <s v="forward"/>
+    <s v="YuanWH"/>
+    <s v="MemShip"/>
+    <x v="43"/>
+    <n v="389468.04000000004"/>
+    <b v="1"/>
+    <n v="-389468.04000000004"/>
+    <x v="1"/>
+    <s v="Liability"/>
+    <x v="0"/>
+    <s v="Other"/>
+    <s v="Non-Op"/>
+    <x v="0"/>
+    <x v="14"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="T0000"/>
+    <d v="2025-12-31T00:00:00"/>
+    <s v="Ctrl"/>
+    <s v="forward"/>
+    <s v="YuanWH"/>
     <s v="ToOther"/>
-    <x v="40"/>
-    <n v="50507.19"/>
+    <x v="44"/>
+    <n v="5997.5"/>
     <b v="1"/>
-    <n v="-50507.19"/>
+    <n v="-5997.5"/>
+    <x v="1"/>
+    <s v="Liability"/>
+    <x v="1"/>
+    <s v="Other"/>
+    <s v="Non-Op"/>
+    <x v="1"/>
+    <x v="13"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="T0000"/>
+    <d v="2025-12-31T00:00:00"/>
+    <s v="Ctrl"/>
+    <s v="forward"/>
+    <s v="YuanWH"/>
+    <s v="AP"/>
+    <x v="38"/>
+    <n v="25551.3"/>
+    <b v="1"/>
+    <n v="-25551.3"/>
     <x v="1"/>
     <s v="Liability"/>
     <x v="1"/>
@@ -3329,108 +3062,8 @@
     <s v="Ctrl"/>
     <s v="forward"/>
     <s v="YuanWH"/>
-    <s v="ToTax"/>
-    <x v="38"/>
-    <n v="12351.18"/>
-    <b v="1"/>
-    <n v="-12351.18"/>
-    <x v="1"/>
-    <s v="Liability"/>
-    <x v="1"/>
-    <s v="Other"/>
-    <s v="Non-Op"/>
-    <x v="1"/>
-    <x v="8"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="T0000"/>
-    <d v="2025-12-31T00:00:00"/>
-    <s v="Ctrl"/>
-    <s v="forward"/>
-    <s v="YuanWH"/>
-    <s v="ToEmp"/>
-    <x v="39"/>
-    <n v="112127.37"/>
-    <b v="1"/>
-    <n v="-112127.37"/>
-    <x v="1"/>
-    <s v="Liability"/>
-    <x v="1"/>
-    <s v="Other"/>
-    <s v="Non-Op"/>
-    <x v="1"/>
-    <x v="9"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="T0000"/>
-    <d v="2025-12-31T00:00:00"/>
-    <s v="Ctrl"/>
-    <s v="forward"/>
-    <s v="YuanWH"/>
-    <s v="ToOther"/>
-    <x v="41"/>
-    <n v="389468.04000000004"/>
-    <b v="1"/>
-    <n v="-389468.04000000004"/>
-    <x v="1"/>
-    <s v="Liability"/>
-    <x v="1"/>
-    <s v="Other"/>
-    <s v="Non-Op"/>
-    <x v="1"/>
-    <x v="10"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="T0000"/>
-    <d v="2025-12-31T00:00:00"/>
-    <s v="Ctrl"/>
-    <s v="forward"/>
-    <s v="YuanWH"/>
-    <s v="ToOther"/>
-    <x v="23"/>
-    <n v="5997.5"/>
-    <b v="1"/>
-    <n v="-5997.5"/>
-    <x v="1"/>
-    <s v="Liability"/>
-    <x v="1"/>
-    <s v="Other"/>
-    <s v="Non-Op"/>
-    <x v="1"/>
-    <x v="10"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="T0000"/>
-    <d v="2025-12-31T00:00:00"/>
-    <s v="Ctrl"/>
-    <s v="forward"/>
-    <s v="YuanWH"/>
-    <s v="AP"/>
-    <x v="26"/>
-    <n v="25551.3"/>
-    <b v="1"/>
-    <n v="-25551.3"/>
-    <x v="1"/>
-    <s v="Liability"/>
-    <x v="1"/>
-    <s v="Other"/>
-    <s v="Non-Op"/>
-    <x v="1"/>
-    <x v="7"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="T0000"/>
-    <d v="2025-12-31T00:00:00"/>
-    <s v="Ctrl"/>
-    <s v="forward"/>
-    <s v="YuanWH"/>
     <s v="APIC"/>
-    <x v="42"/>
+    <x v="45"/>
     <n v="14402045"/>
     <b v="1"/>
     <n v="-14402045"/>
@@ -3440,8 +3073,8 @@
     <s v="Other"/>
     <s v="Non-Op"/>
     <x v="6"/>
-    <x v="11"/>
-    <x v="8"/>
+    <x v="15"/>
+    <x v="7"/>
   </r>
   <r>
     <s v="T0000"/>
@@ -3450,7 +3083,7 @@
     <s v="forward"/>
     <s v="XiJia"/>
     <s v="Common"/>
-    <x v="43"/>
+    <x v="46"/>
     <n v="25036191"/>
     <b v="1"/>
     <n v="-25036191"/>
@@ -3460,8 +3093,8 @@
     <s v="Other"/>
     <s v="Non-Op"/>
     <x v="6"/>
-    <x v="12"/>
-    <x v="5"/>
+    <x v="16"/>
+    <x v="4"/>
   </r>
   <r>
     <s v="T0000"/>
@@ -3470,25 +3103,25 @@
     <s v="forward"/>
     <s v="XiJia"/>
     <s v="RE"/>
-    <x v="44"/>
-    <n v="7657356.6349999905"/>
+    <x v="47"/>
+    <n v="7626715.7400000319"/>
     <b v="1"/>
-    <n v="-7657356.6349999905"/>
+    <n v="-7626715.7400000319"/>
     <x v="1"/>
     <s v="Equity"/>
     <x v="7"/>
     <s v="Other"/>
     <s v="Non-Op"/>
     <x v="7"/>
-    <x v="13"/>
-    <x v="5"/>
+    <x v="17"/>
+    <x v="4"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{086B7771-E2BB-4B00-A506-AF7420A21A62}" name="PivotTable2" cacheId="191" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" colGrandTotals="0" itemPrintTitles="1" mergeItem="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A1:E29" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{086B7771-E2BB-4B00-A506-AF7420A21A62}" name="PivotTable2" cacheId="180" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" colGrandTotals="0" itemPrintTitles="1" mergeItem="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:E33" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
@@ -3496,74 +3129,85 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="67">
-        <item m="1" x="58"/>
-        <item x="10"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item x="17"/>
-        <item x="0"/>
-        <item x="19"/>
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="78">
+        <item m="1" x="69"/>
+        <item m="1" x="75"/>
+        <item x="47"/>
+        <item m="1" x="73"/>
+        <item x="9"/>
         <item x="5"/>
         <item x="7"/>
+        <item x="17"/>
+        <item m="1" x="48"/>
+        <item m="1" x="74"/>
+        <item x="16"/>
+        <item x="0"/>
+        <item x="18"/>
         <item x="4"/>
-        <item x="13"/>
-        <item x="9"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="12"/>
+        <item x="8"/>
         <item x="1"/>
-        <item x="20"/>
-        <item x="3"/>
+        <item x="19"/>
+        <item x="2"/>
+        <item m="1" x="76"/>
+        <item m="1" x="60"/>
+        <item m="1" x="59"/>
+        <item x="10"/>
+        <item x="14"/>
         <item x="11"/>
         <item x="15"/>
-        <item x="12"/>
-        <item x="16"/>
-        <item m="1" x="59"/>
-        <item x="14"/>
+        <item m="1" x="58"/>
+        <item m="1" x="57"/>
+        <item m="1" x="70"/>
+        <item x="13"/>
+        <item m="1" x="71"/>
+        <item m="1" x="72"/>
+        <item m="1" x="63"/>
+        <item x="21"/>
+        <item x="36"/>
+        <item m="1" x="66"/>
+        <item x="28"/>
+        <item x="37"/>
+        <item x="44"/>
+        <item x="22"/>
+        <item x="24"/>
+        <item m="1" x="51"/>
+        <item x="45"/>
+        <item x="25"/>
+        <item m="1" x="55"/>
+        <item x="29"/>
+        <item m="1" x="64"/>
+        <item m="1" x="61"/>
+        <item m="1" x="53"/>
+        <item x="41"/>
+        <item x="40"/>
+        <item x="20"/>
+        <item x="43"/>
+        <item m="1" x="56"/>
+        <item x="31"/>
+        <item m="1" x="49"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="30"/>
+        <item x="42"/>
+        <item x="23"/>
+        <item x="34"/>
+        <item m="1" x="50"/>
+        <item x="35"/>
+        <item x="46"/>
+        <item m="1" x="67"/>
+        <item x="39"/>
         <item m="1" x="65"/>
-        <item m="1" x="48"/>
-        <item m="1" x="49"/>
-        <item m="1" x="46"/>
-        <item m="1" x="47"/>
-        <item m="1" x="60"/>
-        <item m="1" x="61"/>
+        <item x="38"/>
         <item m="1" x="62"/>
-        <item m="1" x="57"/>
-        <item x="44"/>
-        <item m="1" x="64"/>
-        <item m="1" x="63"/>
-        <item x="18"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
+        <item m="1" x="54"/>
+        <item x="27"/>
         <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item m="1" x="50"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item m="1" x="51"/>
         <item m="1" x="52"/>
-        <item m="1" x="53"/>
-        <item m="1" x="54"/>
-        <item m="1" x="55"/>
-        <item m="1" x="56"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item m="1" x="45"/>
-        <item x="33"/>
-        <item x="32"/>
-        <item x="34"/>
-        <item x="35"/>
+        <item m="1" x="68"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3582,8 +3226,10 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="10">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item m="1" x="8"/>
+        <item m="1" x="9"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -3592,27 +3238,32 @@
         <item x="5"/>
         <item x="7"/>
         <item x="6"/>
-        <item m="1" x="8"/>
+        <item m="1" x="10"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="17">
+      <items count="22">
+        <item sd="0" x="15"/>
+        <item sd="0" x="16"/>
+        <item sd="0" x="17"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="12"/>
         <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
         <item sd="0" x="13"/>
-        <item sd="0" x="7"/>
+        <item sd="0" m="1" x="20"/>
+        <item sd="0" x="2"/>
+        <item sd="0" m="1" x="19"/>
+        <item x="7"/>
+        <item sd="0" x="8"/>
         <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="8"/>
-        <item sd="0" m="1" x="15"/>
-        <item sd="0" x="2"/>
-        <item sd="0" m="1" x="14"/>
-        <item x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
         <item sd="0" x="0"/>
         <item sd="0" x="1"/>
+        <item sd="0" x="6"/>
+        <item m="1" x="18"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="14"/>
         <item sd="0" x="3"/>
         <item t="default" sd="0"/>
       </items>
@@ -3624,9 +3275,9 @@
     <field x="16"/>
     <field x="6"/>
   </rowFields>
-  <rowItems count="26">
+  <rowItems count="30">
     <i>
-      <x/>
+      <x v="2"/>
     </i>
     <i r="1">
       <x v="13"/>
@@ -3634,8 +3285,11 @@
     <i r="1">
       <x v="14"/>
     </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
     <i>
-      <x v="1"/>
+      <x v="3"/>
     </i>
     <i r="1">
       <x v="3"/>
@@ -3652,47 +3306,56 @@
     <i r="1">
       <x v="8"/>
     </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
     <i>
-      <x v="2"/>
+      <x v="4"/>
     </i>
     <i r="1">
       <x v="15"/>
     </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
     <i>
-      <x v="3"/>
+      <x v="5"/>
     </i>
     <i r="1">
       <x v="10"/>
     </i>
     <i r="2">
-      <x v="58"/>
+      <x v="38"/>
     </i>
     <i r="2">
-      <x v="59"/>
+      <x v="47"/>
     </i>
     <i r="2">
       <x v="60"/>
     </i>
     <i>
-      <x v="4"/>
+      <x v="6"/>
     </i>
     <i r="1">
       <x v="11"/>
     </i>
     <i>
-      <x v="5"/>
+      <x v="7"/>
     </i>
     <i r="1">
       <x v="12"/>
     </i>
     <i>
-      <x v="6"/>
+      <x v="8"/>
     </i>
     <i r="1">
       <x v="2"/>
     </i>
     <i>
-      <x v="7"/>
+      <x v="9"/>
     </i>
     <i r="1">
       <x/>
@@ -3729,10 +3392,10 @@
     <dataField name="perc" fld="7" showDataAs="percentOfCol" baseField="16" baseItem="3" numFmtId="10"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="174">
+    <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="163">
+    <format dxfId="13">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -3741,7 +3404,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="160">
+    <format dxfId="14">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -3753,7 +3416,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="158">
+    <format dxfId="15">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -3805,8 +3468,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F03C8F44-51F0-4988-B901-F73D54ED6F2F}" name="PivotTable1" cacheId="191" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" mergeItem="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="A3:D27" firstHeaderRow="1" firstDataRow="2" firstDataCol="2" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F03C8F44-51F0-4988-B901-F73D54ED6F2F}" name="PivotTable1" cacheId="180" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" mergeItem="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="A3:D28" firstHeaderRow="1" firstDataRow="2" firstDataCol="2" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="18">
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" numFmtId="164" outline="0" showAll="0"/>
@@ -3815,73 +3478,84 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="66">
-        <item m="1" x="58"/>
-        <item x="10"/>
-        <item x="6"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item x="17"/>
-        <item x="0"/>
-        <item x="19"/>
+      <items count="77">
+        <item m="1" x="69"/>
+        <item x="9"/>
         <item x="5"/>
         <item x="7"/>
+        <item m="1" x="48"/>
+        <item x="16"/>
+        <item x="0"/>
+        <item x="18"/>
         <item x="4"/>
-        <item x="13"/>
-        <item x="9"/>
+        <item x="6"/>
+        <item x="3"/>
+        <item x="12"/>
+        <item x="8"/>
         <item x="1"/>
-        <item x="20"/>
-        <item x="3"/>
+        <item x="19"/>
+        <item x="2"/>
+        <item x="10"/>
+        <item x="14"/>
         <item x="11"/>
         <item x="15"/>
-        <item x="12"/>
-        <item x="16"/>
-        <item x="14"/>
+        <item x="13"/>
+        <item m="1" x="70"/>
+        <item m="1" x="76"/>
         <item m="1" x="59"/>
-        <item m="1" x="65"/>
-        <item m="1" x="48"/>
-        <item m="1" x="49"/>
-        <item m="1" x="46"/>
-        <item m="1" x="47"/>
         <item m="1" x="60"/>
-        <item m="1" x="61"/>
-        <item m="1" x="62"/>
         <item m="1" x="57"/>
-        <item x="44"/>
-        <item m="1" x="64"/>
-        <item m="1" x="63"/>
-        <item x="18"/>
+        <item m="1" x="58"/>
+        <item m="1" x="71"/>
+        <item m="1" x="72"/>
+        <item m="1" x="73"/>
+        <item m="1" x="68"/>
+        <item x="47"/>
+        <item m="1" x="75"/>
+        <item m="1" x="74"/>
+        <item x="17"/>
+        <item x="20"/>
         <item x="21"/>
         <item x="22"/>
-        <item x="23"/>
+        <item m="1" x="55"/>
         <item x="24"/>
-        <item x="25"/>
+        <item x="38"/>
         <item x="26"/>
         <item x="27"/>
-        <item x="28"/>
-        <item m="1" x="50"/>
+        <item m="1" x="61"/>
         <item x="36"/>
         <item x="37"/>
-        <item x="38"/>
         <item x="39"/>
         <item x="40"/>
+        <item m="1" x="51"/>
+        <item m="1" x="52"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item m="1" x="62"/>
+        <item m="1" x="63"/>
+        <item m="1" x="64"/>
+        <item m="1" x="65"/>
+        <item m="1" x="66"/>
+        <item m="1" x="67"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item m="1" x="56"/>
+        <item x="33"/>
+        <item m="1" x="49"/>
+        <item m="1" x="50"/>
+        <item x="35"/>
+        <item x="25"/>
+        <item x="23"/>
         <item x="41"/>
+        <item m="1" x="54"/>
+        <item m="1" x="53"/>
+        <item x="44"/>
         <item x="42"/>
         <item x="43"/>
-        <item m="1" x="51"/>
-        <item m="1" x="52"/>
-        <item m="1" x="53"/>
-        <item m="1" x="54"/>
-        <item m="1" x="55"/>
-        <item m="1" x="56"/>
-        <item x="29"/>
-        <item x="30"/>
         <item x="31"/>
-        <item m="1" x="45"/>
-        <item x="33"/>
         <item x="32"/>
         <item x="34"/>
-        <item x="35"/>
       </items>
       <autoSortScope>
         <pivotArea dataOnly="0" outline="0" fieldPosition="0">
@@ -3899,21 +3573,23 @@
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField axis="axisPage" compact="0" outline="0" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item m="1" x="10"/>
-        <item m="1" x="11"/>
+      <items count="17">
+        <item m="1" x="8"/>
         <item m="1" x="12"/>
         <item m="1" x="13"/>
+        <item m="1" x="14"/>
+        <item m="1" x="15"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
         <item x="6"/>
+        <item m="1" x="11"/>
+        <item x="7"/>
+        <item m="1" x="10"/>
+        <item x="5"/>
         <item m="1" x="9"/>
-        <item x="7"/>
-        <item m="1" x="8"/>
-        <item x="5"/>
+        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3923,20 +3599,20 @@
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
       <items count="14">
-        <item x="5"/>
+        <item x="4"/>
+        <item m="1" x="13"/>
+        <item x="1"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="12"/>
         <item x="2"/>
-        <item x="1"/>
-        <item x="11"/>
-        <item x="10"/>
-        <item x="13"/>
         <item x="3"/>
-        <item x="4"/>
+        <item x="6"/>
         <item x="7"/>
         <item x="8"/>
-        <item x="9"/>
         <item x="0"/>
-        <item x="6"/>
-        <item x="12"/>
+        <item x="5"/>
+        <item x="11"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -3944,7 +3620,7 @@
     <field x="6"/>
     <field x="17"/>
   </rowFields>
-  <rowItems count="23">
+  <rowItems count="24">
     <i>
       <x v="10"/>
       <x v="7"/>
@@ -3981,6 +3657,10 @@
       <x v="4"/>
     </i>
     <i>
+      <x v="73"/>
+      <x v="9"/>
+    </i>
+    <i>
       <x v="16"/>
       <x v="9"/>
     </i>
@@ -3993,12 +3673,12 @@
       <x v="12"/>
     </i>
     <i>
+      <x v="72"/>
+      <x v="8"/>
+    </i>
+    <i>
       <x v="17"/>
       <x v="13"/>
-    </i>
-    <i>
-      <x v="4"/>
-      <x v="1"/>
     </i>
     <i>
       <x v="2"/>
@@ -4048,7 +3728,7 @@
     </i>
   </colItems>
   <pageFields count="1">
-    <pageField fld="12" item="0" hier="-1"/>
+    <pageField fld="12" item="15" hier="-1"/>
   </pageFields>
   <dataFields count="2">
     <dataField name="Sum of Bal" fld="7" baseField="0" baseItem="0" numFmtId="40"/>
@@ -4080,11 +3760,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{07209837-6C83-4BBC-9E05-466D8E45337D}" name="Trx" displayName="Trx" ref="A1:F2" totalsRowShown="0" headerRowDxfId="185">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{07209837-6C83-4BBC-9E05-466D8E45337D}" name="Trx" displayName="Trx" ref="A1:F2" totalsRowShown="0" headerRowDxfId="35">
   <autoFilter ref="A1:F2" xr:uid="{07209837-6C83-4BBC-9E05-466D8E45337D}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{F105BBBA-07BE-48EE-817A-250E3814BDFC}" name="Id"/>
-    <tableColumn id="2" xr3:uid="{90198A57-84E0-4FF2-A6FA-AA81A96E49BD}" name="Date" dataDxfId="184"/>
+    <tableColumn id="2" xr3:uid="{90198A57-84E0-4FF2-A6FA-AA81A96E49BD}" name="Date" dataDxfId="34"/>
     <tableColumn id="3" xr3:uid="{231C793D-9C6F-4B89-BC6D-1DCF5630A11C}" name="Division"/>
     <tableColumn id="4" xr3:uid="{1B3E9F40-C03A-4F2E-9F41-F9C4897D65AE}" name="Action"/>
     <tableColumn id="5" xr3:uid="{AC6C4E64-35C5-42B2-9EEB-564E7390898A}" name="IncNode"/>
@@ -4095,27 +3775,27 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{783E67F7-A626-4EB3-9931-2B8E4332E50D}" name="Jnl" displayName="Jnl" ref="A1:R80" totalsRowShown="0" headerRowDxfId="183">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{783E67F7-A626-4EB3-9931-2B8E4332E50D}" name="Jnl" displayName="Jnl" ref="A1:R80" totalsRowShown="0" headerRowDxfId="33">
   <autoFilter ref="A1:R80" xr:uid="{783E67F7-A626-4EB3-9931-2B8E4332E50D}"/>
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{71B2C84B-D5B0-48D0-AF75-7AA4E674435E}" name="TrxId"/>
-    <tableColumn id="2" xr3:uid="{7F3BB002-49F0-4622-91C3-EDE1BB39E037}" name="TrxDate" dataDxfId="182">
+    <tableColumn id="2" xr3:uid="{7F3BB002-49F0-4622-91C3-EDE1BB39E037}" name="TrxDate" dataDxfId="32">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5019CCD8-C251-41B8-8C65-1CECE1FEB799}" name="Division" dataDxfId="181">
+    <tableColumn id="3" xr3:uid="{5019CCD8-C251-41B8-8C65-1CECE1FEB799}" name="Division" dataDxfId="31">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Division],,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E7CB1B45-6F0A-4E0A-A77F-E495B0819870}" name="Action" dataDxfId="180">
+    <tableColumn id="4" xr3:uid="{E7CB1B45-6F0A-4E0A-A77F-E495B0819870}" name="Action" dataDxfId="30">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Action],,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{0610E7A0-7523-45EB-923A-5338328D8C72}" name="Vehicle" dataDxfId="179"/>
+    <tableColumn id="15" xr3:uid="{0610E7A0-7523-45EB-923A-5338328D8C72}" name="Vehicle" dataDxfId="29"/>
     <tableColumn id="5" xr3:uid="{88A5FA68-A048-4D06-AB82-9CA2F2E65F13}" name="Acct"/>
-    <tableColumn id="6" xr3:uid="{8AFDC351-60CD-4DB0-A113-1B63BA458362}" name="Item" dataDxfId="178"/>
-    <tableColumn id="7" xr3:uid="{FB5E3CB7-3053-4DE8-9454-AD102CDEA2EE}" name="Bal" dataDxfId="177"/>
-    <tableColumn id="9" xr3:uid="{474871EF-24BE-4230-A2C9-7BD22A94BE52}" name="IsValid" dataDxfId="176">
+    <tableColumn id="6" xr3:uid="{8AFDC351-60CD-4DB0-A113-1B63BA458362}" name="Item" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{FB5E3CB7-3053-4DE8-9454-AD102CDEA2EE}" name="Bal" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{474871EF-24BE-4230-A2C9-7BD22A94BE52}" name="IsValid" dataDxfId="26">
       <calculatedColumnFormula>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{44F3569E-1FE6-44B2-B6E4-DAE85FBDB137}" name="NetBal" dataDxfId="175">
+    <tableColumn id="8" xr3:uid="{44F3569E-1FE6-44B2-B6E4-DAE85FBDB137}" name="NetBal" dataDxfId="25">
       <calculatedColumnFormula>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{2360B888-54E4-4D46-BEE4-CFC178D7B87B}" name="BSLv0">
@@ -4133,13 +3813,13 @@
     <tableColumn id="14" xr3:uid="{47A3BD5E-32C9-4C87-A6B9-3A4E06DF4708}" name="IncType">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Jnl[[#This Row],[IncNode]], config_IS[Node], config_IS[Type],,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{59AE45B9-EF65-4833-AE4C-9F11B24D0D43}" name="NameBSLv2" dataDxfId="166">
+    <tableColumn id="17" xr3:uid="{59AE45B9-EF65-4833-AE4C-9F11B24D0D43}" name="NameBSLv2" dataDxfId="24">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Jnl[[#This Row],[BSLv2]], dict[Key], dict[Name],,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{C6BD57E2-40E3-4AC5-8465-4FC651B85CA5}" name="NameAcct" dataDxfId="167">
+    <tableColumn id="16" xr3:uid="{C6BD57E2-40E3-4AC5-8465-4FC651B85CA5}" name="NameAcct" dataDxfId="23">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], dict[Key], dict[Name],,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{C4A7C1EE-FFA2-4B8A-966B-288D5A8071DA}" name="NameVehicle" dataDxfId="40">
+    <tableColumn id="18" xr3:uid="{C4A7C1EE-FFA2-4B8A-966B-288D5A8071DA}" name="NameVehicle" dataDxfId="22">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4148,13 +3828,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D710FA55-B813-4EE9-940D-CEF2A6B4B916}" name="config_BS" displayName="config_BS" ref="E1:H16" totalsRowShown="0" headerRowDxfId="173">
-  <autoFilter ref="E1:H16" xr:uid="{D710FA55-B813-4EE9-940D-CEF2A6B4B916}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D710FA55-B813-4EE9-940D-CEF2A6B4B916}" name="config_BS" displayName="config_BS" ref="E1:H20" totalsRowShown="0" headerRowDxfId="21">
+  <autoFilter ref="E1:H20" xr:uid="{D710FA55-B813-4EE9-940D-CEF2A6B4B916}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7EA695D1-870E-4C08-9342-BF09B98EA310}" name="Acct"/>
     <tableColumn id="2" xr3:uid="{4785D38E-57FF-472D-BE2B-62F7C8A8ED1D}" name="Lv2"/>
     <tableColumn id="3" xr3:uid="{7460FDAD-9A94-406A-990F-CA16E4C2EE37}" name="Lv1"/>
-    <tableColumn id="4" xr3:uid="{E4BB113B-98C5-4CEB-B566-D92BDD17941C}" name="Lv0" dataDxfId="172">
+    <tableColumn id="4" xr3:uid="{E4BB113B-98C5-4CEB-B566-D92BDD17941C}" name="Lv0" dataDxfId="20">
       <calculatedColumnFormula>IF(config_BS[[#This Row],[Lv1]]="Assets", "A","LC")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4163,7 +3843,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{07E118F9-B6DA-4BA1-A5F8-AD7436D892BF}" name="config_IS" displayName="config_IS" ref="J1:K7" totalsRowShown="0" headerRowDxfId="171">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{07E118F9-B6DA-4BA1-A5F8-AD7436D892BF}" name="config_IS" displayName="config_IS" ref="J1:K7" totalsRowShown="0" headerRowDxfId="19">
   <autoFilter ref="J1:K7" xr:uid="{07E118F9-B6DA-4BA1-A5F8-AD7436D892BF}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{86CD6291-3219-4E28-96CE-EB8E9F1ADA73}" name="Node"/>
@@ -4174,7 +3854,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{97331B0E-5F28-455D-81F4-B5C75AC8F63C}" name="config_div" displayName="config_div" ref="M1:N7" totalsRowShown="0" headerRowDxfId="170">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{97331B0E-5F28-455D-81F4-B5C75AC8F63C}" name="config_div" displayName="config_div" ref="M1:N7" totalsRowShown="0" headerRowDxfId="18">
   <autoFilter ref="M1:N7" xr:uid="{97331B0E-5F28-455D-81F4-B5C75AC8F63C}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{4A0976A9-F08D-4FC3-AC46-D492AA68F7E6}" name="Id"/>
@@ -4185,8 +3865,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{FAC21B85-0121-4FEF-8DDD-28E68900BCF7}" name="config_vehicle" displayName="config_vehicle" ref="P1:S16" totalsRowShown="0" headerRowDxfId="169">
-  <autoFilter ref="P1:S16" xr:uid="{FAC21B85-0121-4FEF-8DDD-28E68900BCF7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{FAC21B85-0121-4FEF-8DDD-28E68900BCF7}" name="config_vehicle" displayName="config_vehicle" ref="P1:S14" totalsRowShown="0" headerRowDxfId="17">
+  <autoFilter ref="P1:S14" xr:uid="{FAC21B85-0121-4FEF-8DDD-28E68900BCF7}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{D098E912-7511-4647-9CD5-C7C1669169C3}" name="Id"/>
     <tableColumn id="2" xr3:uid="{974E95FB-0778-4F98-B419-06742B044B50}" name="Type"/>
@@ -4198,8 +3878,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8685134C-CD11-493E-AB79-5F297888CCE6}" name="dict" displayName="dict" ref="A1:C24" totalsRowShown="0" headerRowDxfId="168">
-  <autoFilter ref="A1:C24" xr:uid="{8685134C-CD11-493E-AB79-5F297888CCE6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8685134C-CD11-493E-AB79-5F297888CCE6}" name="dict" displayName="dict" ref="A1:C28" totalsRowShown="0" headerRowDxfId="16">
+  <autoFilter ref="A1:C28" xr:uid="{8685134C-CD11-493E-AB79-5F297888CCE6}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{E5A0AD05-34DE-4725-99E6-CE7AC7B8B5EA}" name="Key"/>
     <tableColumn id="2" xr3:uid="{A2DB06A5-0227-401C-AAF2-C0379C66B63D}" name="Name"/>
@@ -4489,19 +4169,19 @@
   <threadedComment ref="J5" dT="2026-01-29T03:22:53.83" personId="{D5AF6952-DFB4-4EB9-91BF-DCBDFE03949B}" id="{5D615C4E-EBE7-4C5B-AFF7-7BFD865942AD}">
     <text>资产处置损益</text>
   </threadedComment>
-  <threadedComment ref="F6" dT="2026-01-29T02:41:32.49" personId="{D5AF6952-DFB4-4EB9-91BF-DCBDFE03949B}" id="{AF69EBA6-49A2-4E66-B2B5-ADDCB203CBBC}">
-    <text>Inventories</text>
-  </threadedComment>
   <threadedComment ref="J6" dT="2026-01-29T03:23:31.07" personId="{D5AF6952-DFB4-4EB9-91BF-DCBDFE03949B}" id="{1AB846D4-C243-49DD-BFCE-0F152034E39C}">
     <text>自主活动损益 （类似 诗与歌 这样的活动）</text>
   </threadedComment>
-  <threadedComment ref="F14" dT="2026-01-29T02:38:42.71" personId="{D5AF6952-DFB4-4EB9-91BF-DCBDFE03949B}" id="{89049742-F5D2-410B-B198-12AF77C32560}">
+  <threadedComment ref="F9" dT="2026-01-29T02:41:32.49" personId="{D5AF6952-DFB4-4EB9-91BF-DCBDFE03949B}" id="{AF69EBA6-49A2-4E66-B2B5-ADDCB203CBBC}">
+    <text>Inventories</text>
+  </threadedComment>
+  <threadedComment ref="F18" dT="2026-01-29T02:38:42.71" personId="{D5AF6952-DFB4-4EB9-91BF-DCBDFE03949B}" id="{89049742-F5D2-410B-B198-12AF77C32560}">
     <text>Reserve 准备金</text>
   </threadedComment>
-  <threadedComment ref="E15" dT="2026-01-29T02:18:08.23" personId="{D5AF6952-DFB4-4EB9-91BF-DCBDFE03949B}" id="{8D1C1E60-2EA0-4CC8-8F9F-A8A7E37ADBA1}">
+  <threadedComment ref="E19" dT="2026-01-29T02:18:08.23" personId="{D5AF6952-DFB4-4EB9-91BF-DCBDFE03949B}" id="{8D1C1E60-2EA0-4CC8-8F9F-A8A7E37ADBA1}">
     <text xml:space="preserve">Additional Paid-In Capital </text>
   </threadedComment>
-  <threadedComment ref="E15" dT="2026-01-31T03:01:08.25" personId="{5762D9ED-58C9-4E54-8B3E-500022F66094}" id="{9E8D9125-D17F-41F2-BC54-4C5F82000D86}" parentId="{8D1C1E60-2EA0-4CC8-8F9F-A8A7E37ADBA1}">
+  <threadedComment ref="E19" dT="2026-01-31T03:01:08.25" personId="{5762D9ED-58C9-4E54-8B3E-500022F66094}" id="{9E8D9125-D17F-41F2-BC54-4C5F82000D86}" parentId="{8D1C1E60-2EA0-4CC8-8F9F-A8A7E37ADBA1}">
     <text>差不多是 资本公积</text>
   </threadedComment>
 </ThreadedComments>
@@ -4532,39 +4212,39 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="F1" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B2" s="32">
         <v>46022</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -4592,8 +4272,8 @@
   <dimension ref="A1:R80"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G78" sqref="G78"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4617,63 +4297,63 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="C1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="E1" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="P1" s="5" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B2" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -4688,13 +4368,13 @@
         <v>forward</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H2" s="21">
         <v>1982899.24</v>
@@ -4717,7 +4397,7 @@
       </c>
       <c r="M2" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv2],,0)</f>
-        <v>Cash</v>
+        <v>Cash-UnRev</v>
       </c>
       <c r="N2" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[IncNode], ,0)</f>
@@ -4729,7 +4409,7 @@
       </c>
       <c r="P2" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[BSLv2]], dict[Key], dict[Name],,0)</f>
-        <v>0.现金</v>
+        <v>0.现金-预售</v>
       </c>
       <c r="Q2" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], dict[Key], dict[Name],,0)</f>
@@ -4742,7 +4422,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B3" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -4757,13 +4437,13 @@
         <v>forward</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H3" s="21">
         <v>612335.77</v>
@@ -4786,7 +4466,7 @@
       </c>
       <c r="M3" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv2],,0)</f>
-        <v>Cash</v>
+        <v>Cash-UnRev</v>
       </c>
       <c r="N3" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[IncNode], ,0)</f>
@@ -4798,7 +4478,7 @@
       </c>
       <c r="P3" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[BSLv2]], dict[Key], dict[Name],,0)</f>
-        <v>0.现金</v>
+        <v>0.现金-预售</v>
       </c>
       <c r="Q3" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], dict[Key], dict[Name],,0)</f>
@@ -4811,7 +4491,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B4" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -4826,16 +4506,16 @@
         <v>forward</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H4" s="21">
-        <v>30640.9</v>
+        <v>1597158.42</v>
       </c>
       <c r="I4" s="11" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
@@ -4843,7 +4523,7 @@
       </c>
       <c r="J4" s="9">
         <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
-        <v>30640.9</v>
+        <v>1597158.42</v>
       </c>
       <c r="K4" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
@@ -4855,7 +4535,7 @@
       </c>
       <c r="M4" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv2],,0)</f>
-        <v>Cash</v>
+        <v>Cash-UnRev</v>
       </c>
       <c r="N4" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[IncNode], ,0)</f>
@@ -4867,7 +4547,7 @@
       </c>
       <c r="P4" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[BSLv2]], dict[Key], dict[Name],,0)</f>
-        <v>0.现金</v>
+        <v>0.现金-预售</v>
       </c>
       <c r="Q4" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], dict[Key], dict[Name],,0)</f>
@@ -4875,12 +4555,12 @@
       </c>
       <c r="R4" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</f>
-        <v>创业园-晓</v>
+        <v>桑木</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B5" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -4895,16 +4575,16 @@
         <v>forward</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H5" s="21">
-        <v>1597158.42</v>
+        <v>2759122.91</v>
       </c>
       <c r="I5" s="11" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
@@ -4912,7 +4592,7 @@
       </c>
       <c r="J5" s="9">
         <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
-        <v>1597158.42</v>
+        <v>2759122.91</v>
       </c>
       <c r="K5" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
@@ -4924,7 +4604,7 @@
       </c>
       <c r="M5" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv2],,0)</f>
-        <v>Cash</v>
+        <v>Cash-UnRev</v>
       </c>
       <c r="N5" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[IncNode], ,0)</f>
@@ -4936,7 +4616,7 @@
       </c>
       <c r="P5" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[BSLv2]], dict[Key], dict[Name],,0)</f>
-        <v>0.现金</v>
+        <v>0.现金-预售</v>
       </c>
       <c r="Q5" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], dict[Key], dict[Name],,0)</f>
@@ -4944,12 +4624,12 @@
       </c>
       <c r="R5" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</f>
-        <v>桑木</v>
+        <v>榆乐</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B6" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -4964,16 +4644,16 @@
         <v>forward</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H6" s="21">
-        <v>2759122.91</v>
+        <v>838646.21</v>
       </c>
       <c r="I6" s="11" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
@@ -4981,7 +4661,7 @@
       </c>
       <c r="J6" s="9">
         <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
-        <v>2759122.91</v>
+        <v>838646.21</v>
       </c>
       <c r="K6" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
@@ -4993,7 +4673,7 @@
       </c>
       <c r="M6" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv2],,0)</f>
-        <v>Cash</v>
+        <v>Cash-UnRev</v>
       </c>
       <c r="N6" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[IncNode], ,0)</f>
@@ -5005,7 +4685,7 @@
       </c>
       <c r="P6" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[BSLv2]], dict[Key], dict[Name],,0)</f>
-        <v>0.现金</v>
+        <v>0.现金-预售</v>
       </c>
       <c r="Q6" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], dict[Key], dict[Name],,0)</f>
@@ -5013,12 +4693,12 @@
       </c>
       <c r="R6" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</f>
-        <v>榆乐</v>
+        <v>喜家文化</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B7" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -5033,16 +4713,16 @@
         <v>forward</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H7" s="21">
-        <v>838646.21</v>
+        <v>25540.15</v>
       </c>
       <c r="I7" s="11" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
@@ -5050,7 +4730,7 @@
       </c>
       <c r="J7" s="9">
         <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
-        <v>838646.21</v>
+        <v>25540.15</v>
       </c>
       <c r="K7" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
@@ -5062,7 +4742,7 @@
       </c>
       <c r="M7" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv2],,0)</f>
-        <v>Cash</v>
+        <v>Cash-UnRev</v>
       </c>
       <c r="N7" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[IncNode], ,0)</f>
@@ -5074,11 +4754,11 @@
       </c>
       <c r="P7" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[BSLv2]], dict[Key], dict[Name],,0)</f>
-        <v>0.现金</v>
+        <v>0.现金-预售</v>
       </c>
       <c r="Q7" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], dict[Key], dict[Name],,0)</f>
-        <v>银行</v>
+        <v>物理现金</v>
       </c>
       <c r="R7" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</f>
@@ -5087,7 +4767,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B8" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -5102,16 +4782,16 @@
         <v>forward</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H8" s="21">
-        <v>25540.15</v>
+        <v>125030.24</v>
       </c>
       <c r="I8" s="11" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
@@ -5119,7 +4799,7 @@
       </c>
       <c r="J8" s="9">
         <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
-        <v>25540.15</v>
+        <v>125030.24</v>
       </c>
       <c r="K8" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
@@ -5131,7 +4811,7 @@
       </c>
       <c r="M8" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv2],,0)</f>
-        <v>Cash</v>
+        <v>Cash-UnRev</v>
       </c>
       <c r="N8" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[IncNode], ,0)</f>
@@ -5143,20 +4823,20 @@
       </c>
       <c r="P8" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[BSLv2]], dict[Key], dict[Name],,0)</f>
-        <v>0.现金</v>
+        <v>0.现金-预售</v>
       </c>
       <c r="Q8" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], dict[Key], dict[Name],,0)</f>
-        <v>物理现金</v>
+        <v>银行</v>
       </c>
       <c r="R8" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</f>
-        <v>喜家文化</v>
+        <v>远家花园高新分公司</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B9" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -5171,16 +4851,16 @@
         <v>forward</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H9" s="21">
-        <v>125030.24</v>
+        <v>2000</v>
       </c>
       <c r="I9" s="11" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
@@ -5188,7 +4868,7 @@
       </c>
       <c r="J9" s="9">
         <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
-        <v>125030.24</v>
+        <v>2000</v>
       </c>
       <c r="K9" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
@@ -5200,7 +4880,7 @@
       </c>
       <c r="M9" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv2],,0)</f>
-        <v>Cash</v>
+        <v>Cash-UnRev</v>
       </c>
       <c r="N9" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[IncNode], ,0)</f>
@@ -5212,20 +4892,20 @@
       </c>
       <c r="P9" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[BSLv2]], dict[Key], dict[Name],,0)</f>
-        <v>0.现金</v>
+        <v>0.现金-预售</v>
       </c>
       <c r="Q9" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], dict[Key], dict[Name],,0)</f>
-        <v>银行</v>
+        <v>物理现金</v>
       </c>
       <c r="R9" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</f>
-        <v>远家花园高新分公司</v>
+        <v>喜家文化</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B10" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -5243,13 +4923,13 @@
         <v>89</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H10" s="21">
-        <v>2000</v>
+        <v>1012107.86</v>
       </c>
       <c r="I10" s="11" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
@@ -5257,7 +4937,7 @@
       </c>
       <c r="J10" s="9">
         <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
-        <v>2000</v>
+        <v>1012107.86</v>
       </c>
       <c r="K10" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
@@ -5269,7 +4949,7 @@
       </c>
       <c r="M10" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv2],,0)</f>
-        <v>Cash</v>
+        <v>Cash-UnRev</v>
       </c>
       <c r="N10" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[IncNode], ,0)</f>
@@ -5281,20 +4961,20 @@
       </c>
       <c r="P10" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[BSLv2]], dict[Key], dict[Name],,0)</f>
-        <v>0.现金</v>
+        <v>0.现金-预售</v>
       </c>
       <c r="Q10" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], dict[Key], dict[Name],,0)</f>
-        <v>物理现金</v>
+        <v>银行</v>
       </c>
       <c r="R10" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</f>
-        <v>喜家文化</v>
+        <v>米小易</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B11" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -5309,16 +4989,16 @@
         <v>forward</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H11" s="21">
-        <v>1012107.86</v>
+        <v>1304</v>
       </c>
       <c r="I11" s="11" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
@@ -5326,7 +5006,7 @@
       </c>
       <c r="J11" s="9">
         <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
-        <v>1012107.86</v>
+        <v>1304</v>
       </c>
       <c r="K11" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
@@ -5338,7 +5018,7 @@
       </c>
       <c r="M11" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv2],,0)</f>
-        <v>Cash</v>
+        <v>Cash-UnRev</v>
       </c>
       <c r="N11" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[IncNode], ,0)</f>
@@ -5350,20 +5030,20 @@
       </c>
       <c r="P11" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[BSLv2]], dict[Key], dict[Name],,0)</f>
-        <v>0.现金</v>
+        <v>0.现金-预售</v>
       </c>
       <c r="Q11" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], dict[Key], dict[Name],,0)</f>
-        <v>银行</v>
+        <v>物理现金</v>
       </c>
       <c r="R11" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</f>
-        <v>米小易</v>
+        <v>喜家文化</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B12" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -5378,16 +5058,16 @@
         <v>forward</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H12" s="21">
-        <v>1304</v>
+        <v>174191.78</v>
       </c>
       <c r="I12" s="11" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
@@ -5395,7 +5075,7 @@
       </c>
       <c r="J12" s="9">
         <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
-        <v>1304</v>
+        <v>174191.78</v>
       </c>
       <c r="K12" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
@@ -5407,7 +5087,7 @@
       </c>
       <c r="M12" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv2],,0)</f>
-        <v>Cash</v>
+        <v>Cash-UnRev</v>
       </c>
       <c r="N12" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[IncNode], ,0)</f>
@@ -5419,20 +5099,20 @@
       </c>
       <c r="P12" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[BSLv2]], dict[Key], dict[Name],,0)</f>
-        <v>0.现金</v>
+        <v>0.现金-预售</v>
       </c>
       <c r="Q12" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], dict[Key], dict[Name],,0)</f>
-        <v>物理现金</v>
+        <v>银行</v>
       </c>
       <c r="R12" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</f>
-        <v>喜家文化</v>
+        <v>远家文化</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B13" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -5447,16 +5127,16 @@
         <v>forward</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H13" s="21">
-        <v>174191.78</v>
+        <v>21355.13</v>
       </c>
       <c r="I13" s="11" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
@@ -5464,7 +5144,7 @@
       </c>
       <c r="J13" s="9">
         <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
-        <v>174191.78</v>
+        <v>21355.13</v>
       </c>
       <c r="K13" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
@@ -5476,7 +5156,7 @@
       </c>
       <c r="M13" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv2],,0)</f>
-        <v>Cash</v>
+        <v>Cash-UnRev</v>
       </c>
       <c r="N13" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[IncNode], ,0)</f>
@@ -5488,7 +5168,7 @@
       </c>
       <c r="P13" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[BSLv2]], dict[Key], dict[Name],,0)</f>
-        <v>0.现金</v>
+        <v>0.现金-预售</v>
       </c>
       <c r="Q13" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], dict[Key], dict[Name],,0)</f>
@@ -5496,12 +5176,12 @@
       </c>
       <c r="R13" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</f>
-        <v>远家文化</v>
+        <v>远家文化蒲江分公司</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B14" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -5516,16 +5196,16 @@
         <v>forward</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H14" s="21">
-        <v>21355.13</v>
+        <v>143995.32</v>
       </c>
       <c r="I14" s="11" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
@@ -5533,7 +5213,7 @@
       </c>
       <c r="J14" s="9">
         <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
-        <v>21355.13</v>
+        <v>143995.32</v>
       </c>
       <c r="K14" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
@@ -5545,7 +5225,7 @@
       </c>
       <c r="M14" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv2],,0)</f>
-        <v>Cash</v>
+        <v>Cash-UnRev</v>
       </c>
       <c r="N14" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[IncNode], ,0)</f>
@@ -5557,7 +5237,7 @@
       </c>
       <c r="P14" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[BSLv2]], dict[Key], dict[Name],,0)</f>
-        <v>0.现金</v>
+        <v>0.现金-预售</v>
       </c>
       <c r="Q14" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], dict[Key], dict[Name],,0)</f>
@@ -5565,12 +5245,12 @@
       </c>
       <c r="R14" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</f>
-        <v>远家文化蒲江分公司</v>
+        <v>张小喜</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B15" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -5585,16 +5265,16 @@
         <v>forward</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H15" s="21">
-        <v>143995.32</v>
+        <v>435221.41</v>
       </c>
       <c r="I15" s="11" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
@@ -5602,7 +5282,7 @@
       </c>
       <c r="J15" s="9">
         <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
-        <v>143995.32</v>
+        <v>435221.41</v>
       </c>
       <c r="K15" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
@@ -5614,7 +5294,7 @@
       </c>
       <c r="M15" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv2],,0)</f>
-        <v>Cash</v>
+        <v>Cash-UnRev</v>
       </c>
       <c r="N15" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[IncNode], ,0)</f>
@@ -5626,7 +5306,7 @@
       </c>
       <c r="P15" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[BSLv2]], dict[Key], dict[Name],,0)</f>
-        <v>0.现金</v>
+        <v>0.现金-预售</v>
       </c>
       <c r="Q15" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], dict[Key], dict[Name],,0)</f>
@@ -5639,7 +5319,7 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B16" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -5660,10 +5340,10 @@
         <v>13</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H16" s="21">
-        <v>435221.41</v>
+        <v>12977.6</v>
       </c>
       <c r="I16" s="11" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
@@ -5671,7 +5351,7 @@
       </c>
       <c r="J16" s="9">
         <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
-        <v>435221.41</v>
+        <v>12977.6</v>
       </c>
       <c r="K16" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
@@ -5683,7 +5363,7 @@
       </c>
       <c r="M16" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv2],,0)</f>
-        <v>Cash</v>
+        <v>Cash-UnRev</v>
       </c>
       <c r="N16" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[IncNode], ,0)</f>
@@ -5695,7 +5375,7 @@
       </c>
       <c r="P16" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[BSLv2]], dict[Key], dict[Name],,0)</f>
-        <v>0.现金</v>
+        <v>0.现金-预售</v>
       </c>
       <c r="Q16" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], dict[Key], dict[Name],,0)</f>
@@ -5703,12 +5383,12 @@
       </c>
       <c r="R16" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</f>
-        <v>张小喜</v>
+        <v>小月号</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B17" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -5729,10 +5409,10 @@
         <v>13</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H17" s="21">
-        <v>12977.6</v>
+        <v>30900.25</v>
       </c>
       <c r="I17" s="11" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
@@ -5740,7 +5420,7 @@
       </c>
       <c r="J17" s="9">
         <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
-        <v>12977.6</v>
+        <v>30900.25</v>
       </c>
       <c r="K17" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
@@ -5752,7 +5432,7 @@
       </c>
       <c r="M17" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv2],,0)</f>
-        <v>Cash</v>
+        <v>Cash-UnRev</v>
       </c>
       <c r="N17" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[IncNode], ,0)</f>
@@ -5764,7 +5444,7 @@
       </c>
       <c r="P17" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[BSLv2]], dict[Key], dict[Name],,0)</f>
-        <v>0.现金</v>
+        <v>0.现金-预售</v>
       </c>
       <c r="Q17" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], dict[Key], dict[Name],,0)</f>
@@ -5772,12 +5452,12 @@
       </c>
       <c r="R17" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</f>
-        <v>小月号</v>
+        <v>郑术燕</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B18" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -5792,16 +5472,16 @@
         <v>forward</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H18" s="21">
-        <v>30900.25</v>
+        <v>6917.42</v>
       </c>
       <c r="I18" s="11" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
@@ -5809,7 +5489,7 @@
       </c>
       <c r="J18" s="9">
         <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
-        <v>30900.25</v>
+        <v>6917.42</v>
       </c>
       <c r="K18" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
@@ -5821,7 +5501,7 @@
       </c>
       <c r="M18" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv2],,0)</f>
-        <v>Cash</v>
+        <v>Cash-UnRev</v>
       </c>
       <c r="N18" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[IncNode], ,0)</f>
@@ -5833,7 +5513,7 @@
       </c>
       <c r="P18" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[BSLv2]], dict[Key], dict[Name],,0)</f>
-        <v>0.现金</v>
+        <v>0.现金-预售</v>
       </c>
       <c r="Q18" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], dict[Key], dict[Name],,0)</f>
@@ -5841,12 +5521,12 @@
       </c>
       <c r="R18" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</f>
-        <v>郑术燕</v>
+        <v>远家文化</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B19" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -5861,16 +5541,16 @@
         <v>forward</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H19" s="21">
-        <v>6917.42</v>
+        <v>709.51</v>
       </c>
       <c r="I19" s="11" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
@@ -5878,7 +5558,7 @@
       </c>
       <c r="J19" s="9">
         <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
-        <v>6917.42</v>
+        <v>709.51</v>
       </c>
       <c r="K19" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
@@ -5890,7 +5570,7 @@
       </c>
       <c r="M19" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv2],,0)</f>
-        <v>Cash</v>
+        <v>Cash-UnRev</v>
       </c>
       <c r="N19" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[IncNode], ,0)</f>
@@ -5902,7 +5582,7 @@
       </c>
       <c r="P19" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[BSLv2]], dict[Key], dict[Name],,0)</f>
-        <v>0.现金</v>
+        <v>0.现金-预售</v>
       </c>
       <c r="Q19" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], dict[Key], dict[Name],,0)</f>
@@ -5910,12 +5590,12 @@
       </c>
       <c r="R19" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</f>
-        <v>远家文化</v>
+        <v>远家文化蒲江分公司</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B20" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -5930,16 +5610,16 @@
         <v>forward</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="H20" s="21">
-        <v>709.51</v>
+        <v>20812</v>
       </c>
       <c r="I20" s="11" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
@@ -5947,7 +5627,7 @@
       </c>
       <c r="J20" s="9">
         <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
-        <v>709.51</v>
+        <v>20812</v>
       </c>
       <c r="K20" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
@@ -5959,7 +5639,7 @@
       </c>
       <c r="M20" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv2],,0)</f>
-        <v>Cash</v>
+        <v>Cash-UnRev</v>
       </c>
       <c r="N20" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[IncNode], ,0)</f>
@@ -5971,11 +5651,11 @@
       </c>
       <c r="P20" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[BSLv2]], dict[Key], dict[Name],,0)</f>
-        <v>0.现金</v>
+        <v>0.现金-预售</v>
       </c>
       <c r="Q20" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], dict[Key], dict[Name],,0)</f>
-        <v>银行</v>
+        <v>物理现金</v>
       </c>
       <c r="R20" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</f>
@@ -5984,7 +5664,7 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B21" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -6002,13 +5682,13 @@
         <v>119</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="H21" s="21">
-        <v>20812</v>
+        <v>630993.46</v>
       </c>
       <c r="I21" s="11" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
@@ -6016,7 +5696,7 @@
       </c>
       <c r="J21" s="9">
         <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
-        <v>20812</v>
+        <v>630993.46</v>
       </c>
       <c r="K21" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
@@ -6028,7 +5708,7 @@
       </c>
       <c r="M21" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv2],,0)</f>
-        <v>Cash</v>
+        <v>Cash-UnRev</v>
       </c>
       <c r="N21" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[IncNode], ,0)</f>
@@ -6040,20 +5720,20 @@
       </c>
       <c r="P21" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[BSLv2]], dict[Key], dict[Name],,0)</f>
-        <v>0.现金</v>
+        <v>0.现金-预售</v>
       </c>
       <c r="Q21" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], dict[Key], dict[Name],,0)</f>
-        <v>物理现金</v>
+        <v>银行</v>
       </c>
       <c r="R21" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</f>
-        <v>远家文化蒲江分公司</v>
+        <v>染匠文化</v>
       </c>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B22" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -6068,16 +5748,16 @@
         <v>forward</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H22" s="21">
-        <v>630993.46</v>
+        <v>20124.45</v>
       </c>
       <c r="I22" s="11" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
@@ -6085,7 +5765,7 @@
       </c>
       <c r="J22" s="9">
         <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
-        <v>630993.46</v>
+        <v>20124.45</v>
       </c>
       <c r="K22" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
@@ -6097,7 +5777,7 @@
       </c>
       <c r="M22" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv2],,0)</f>
-        <v>Cash</v>
+        <v>Cash-UnRev</v>
       </c>
       <c r="N22" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[IncNode], ,0)</f>
@@ -6109,7 +5789,7 @@
       </c>
       <c r="P22" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[BSLv2]], dict[Key], dict[Name],,0)</f>
-        <v>0.现金</v>
+        <v>0.现金-预售</v>
       </c>
       <c r="Q22" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], dict[Key], dict[Name],,0)</f>
@@ -6122,7 +5802,7 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B23" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -6137,16 +5817,16 @@
         <v>forward</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="H23" s="21">
-        <v>20124.45</v>
+        <v>18526.13</v>
       </c>
       <c r="I23" s="11" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
@@ -6154,7 +5834,7 @@
       </c>
       <c r="J23" s="9">
         <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
-        <v>20124.45</v>
+        <v>18526.13</v>
       </c>
       <c r="K23" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
@@ -6166,7 +5846,7 @@
       </c>
       <c r="M23" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv2],,0)</f>
-        <v>Cash</v>
+        <v>Rec-Pay</v>
       </c>
       <c r="N23" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[IncNode], ,0)</f>
@@ -6178,20 +5858,20 @@
       </c>
       <c r="P23" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[BSLv2]], dict[Key], dict[Name],,0)</f>
-        <v>0.现金</v>
+        <v>1.应收-应付</v>
       </c>
       <c r="Q23" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], dict[Key], dict[Name],,0)</f>
-        <v>银行</v>
+        <v>应收-一般</v>
       </c>
       <c r="R23" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</f>
-        <v>染匠文化</v>
+        <v>喜家文化</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B24" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -6206,16 +5886,16 @@
         <v>forward</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>125</v>
+        <v>223</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="H24" s="21">
-        <v>18526.13</v>
+        <v>2385.75</v>
       </c>
       <c r="I24" s="11" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
@@ -6223,7 +5903,7 @@
       </c>
       <c r="J24" s="9">
         <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
-        <v>18526.13</v>
+        <v>2385.75</v>
       </c>
       <c r="K24" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
@@ -6251,7 +5931,7 @@
       </c>
       <c r="Q24" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], dict[Key], dict[Name],,0)</f>
-        <v>应收-一般</v>
+        <v>应收-其他</v>
       </c>
       <c r="R24" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</f>
@@ -6260,7 +5940,7 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B25" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -6275,16 +5955,16 @@
         <v>forward</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>125</v>
+        <v>214</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H25" s="21">
-        <v>2385.75</v>
+        <v>100000</v>
       </c>
       <c r="I25" s="11" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
@@ -6292,7 +5972,7 @@
       </c>
       <c r="J25" s="9">
         <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
-        <v>2385.75</v>
+        <v>100000</v>
       </c>
       <c r="K25" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
@@ -6304,7 +5984,7 @@
       </c>
       <c r="M25" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv2],,0)</f>
-        <v>Rec-Pay</v>
+        <v>Prep-Sub</v>
       </c>
       <c r="N25" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[IncNode], ,0)</f>
@@ -6316,11 +5996,11 @@
       </c>
       <c r="P25" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[BSLv2]], dict[Key], dict[Name],,0)</f>
-        <v>1.应收-应付</v>
+        <v>2.预付-订阅</v>
       </c>
       <c r="Q25" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], dict[Key], dict[Name],,0)</f>
-        <v>应收-一般</v>
+        <v>押金</v>
       </c>
       <c r="R25" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</f>
@@ -6329,7 +6009,7 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B26" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -6344,16 +6024,16 @@
         <v>forward</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="H26" s="21">
-        <v>100000</v>
+        <v>289043.94</v>
       </c>
       <c r="I26" s="11" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
@@ -6361,7 +6041,7 @@
       </c>
       <c r="J26" s="9">
         <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
-        <v>100000</v>
+        <v>289043.94</v>
       </c>
       <c r="K26" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
@@ -6393,12 +6073,12 @@
       </c>
       <c r="R26" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</f>
-        <v>喜家文化</v>
+        <v>远家花园</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B27" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -6413,16 +6093,16 @@
         <v>forward</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>125</v>
+        <v>223</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="H27" s="21">
-        <v>289043.94</v>
+        <v>24591.75</v>
       </c>
       <c r="I27" s="11" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
@@ -6430,7 +6110,7 @@
       </c>
       <c r="J27" s="9">
         <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
-        <v>289043.94</v>
+        <v>24591.75</v>
       </c>
       <c r="K27" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
@@ -6458,7 +6138,7 @@
       </c>
       <c r="Q27" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], dict[Key], dict[Name],,0)</f>
-        <v>应收-一般</v>
+        <v>应收-其他</v>
       </c>
       <c r="R27" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</f>
@@ -6467,7 +6147,7 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B28" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -6482,16 +6162,16 @@
         <v>forward</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>125</v>
+        <v>214</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H28" s="21">
-        <v>24591.75</v>
+        <v>66888.95</v>
       </c>
       <c r="I28" s="11" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
@@ -6499,7 +6179,7 @@
       </c>
       <c r="J28" s="9">
         <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
-        <v>24591.75</v>
+        <v>66888.95</v>
       </c>
       <c r="K28" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
@@ -6511,7 +6191,7 @@
       </c>
       <c r="M28" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv2],,0)</f>
-        <v>Rec-Pay</v>
+        <v>Prep-Sub</v>
       </c>
       <c r="N28" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[IncNode], ,0)</f>
@@ -6523,11 +6203,11 @@
       </c>
       <c r="P28" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[BSLv2]], dict[Key], dict[Name],,0)</f>
-        <v>1.应收-应付</v>
+        <v>2.预付-订阅</v>
       </c>
       <c r="Q28" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], dict[Key], dict[Name],,0)</f>
-        <v>应收-一般</v>
+        <v>押金</v>
       </c>
       <c r="R28" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</f>
@@ -6536,7 +6216,7 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B29" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -6551,16 +6231,16 @@
         <v>forward</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="H29" s="21">
-        <v>66888.95</v>
+        <v>4640.3</v>
       </c>
       <c r="I29" s="11" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
@@ -6568,7 +6248,7 @@
       </c>
       <c r="J29" s="9">
         <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
-        <v>66888.95</v>
+        <v>4640.3</v>
       </c>
       <c r="K29" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
@@ -6600,12 +6280,12 @@
       </c>
       <c r="R29" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</f>
-        <v>远家花园</v>
+        <v>远家花园高新分公司</v>
       </c>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B30" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -6620,16 +6300,16 @@
         <v>forward</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>125</v>
+        <v>223</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="H30" s="21">
-        <v>4640.3</v>
+        <v>1474.3</v>
       </c>
       <c r="I30" s="11" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
@@ -6637,7 +6317,7 @@
       </c>
       <c r="J30" s="9">
         <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
-        <v>4640.3</v>
+        <v>1474.3</v>
       </c>
       <c r="K30" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
@@ -6665,7 +6345,7 @@
       </c>
       <c r="Q30" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], dict[Key], dict[Name],,0)</f>
-        <v>应收-一般</v>
+        <v>应收-其他</v>
       </c>
       <c r="R30" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</f>
@@ -6674,7 +6354,7 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B31" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -6689,16 +6369,16 @@
         <v>forward</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>125</v>
+        <v>223</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="H31" s="21">
-        <v>1474.3</v>
+        <v>3340.05</v>
       </c>
       <c r="I31" s="11" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
@@ -6706,7 +6386,7 @@
       </c>
       <c r="J31" s="9">
         <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
-        <v>1474.3</v>
+        <v>3340.05</v>
       </c>
       <c r="K31" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
@@ -6734,16 +6414,16 @@
       </c>
       <c r="Q31" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], dict[Key], dict[Name],,0)</f>
-        <v>应收-一般</v>
+        <v>应收-其他</v>
       </c>
       <c r="R31" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</f>
-        <v>远家花园高新分公司</v>
+        <v>染匠文化</v>
       </c>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B32" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -6758,16 +6438,16 @@
         <v>forward</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>125</v>
+        <v>223</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="H32" s="21">
-        <v>3340.05</v>
+        <v>14294.35</v>
       </c>
       <c r="I32" s="11" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
@@ -6775,7 +6455,7 @@
       </c>
       <c r="J32" s="9">
         <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
-        <v>3340.05</v>
+        <v>14294.35</v>
       </c>
       <c r="K32" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
@@ -6803,16 +6483,16 @@
       </c>
       <c r="Q32" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], dict[Key], dict[Name],,0)</f>
-        <v>应收-一般</v>
+        <v>应收-其他</v>
       </c>
       <c r="R32" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</f>
-        <v>染匠文化</v>
+        <v>榆乐</v>
       </c>
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B33" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -6830,13 +6510,13 @@
         <v>92</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>125</v>
+        <v>223</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="H33" s="21">
-        <v>14294.35</v>
+        <v>1431.45</v>
       </c>
       <c r="I33" s="11" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
@@ -6844,7 +6524,7 @@
       </c>
       <c r="J33" s="9">
         <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
-        <v>14294.35</v>
+        <v>1431.45</v>
       </c>
       <c r="K33" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
@@ -6872,16 +6552,16 @@
       </c>
       <c r="Q33" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], dict[Key], dict[Name],,0)</f>
-        <v>应收-一般</v>
+        <v>应收-其他</v>
       </c>
       <c r="R33" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</f>
-        <v>榆乐</v>
+        <v>桑木</v>
       </c>
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B34" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -6896,16 +6576,16 @@
         <v>forward</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>125</v>
+        <v>223</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="H34" s="21">
-        <v>1431.45</v>
+        <v>11451.6</v>
       </c>
       <c r="I34" s="11" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
@@ -6913,7 +6593,7 @@
       </c>
       <c r="J34" s="9">
         <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
-        <v>1431.45</v>
+        <v>11451.6</v>
       </c>
       <c r="K34" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
@@ -6941,16 +6621,16 @@
       </c>
       <c r="Q34" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], dict[Key], dict[Name],,0)</f>
-        <v>应收-一般</v>
+        <v>应收-其他</v>
       </c>
       <c r="R34" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</f>
-        <v>桑木</v>
+        <v>米小易</v>
       </c>
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B35" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -6965,16 +6645,16 @@
         <v>forward</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>125</v>
+        <v>214</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H35" s="21">
-        <v>11451.6</v>
+        <v>4000</v>
       </c>
       <c r="I35" s="11" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
@@ -6982,7 +6662,7 @@
       </c>
       <c r="J35" s="9">
         <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
-        <v>11451.6</v>
+        <v>4000</v>
       </c>
       <c r="K35" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
@@ -6994,7 +6674,7 @@
       </c>
       <c r="M35" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv2],,0)</f>
-        <v>Rec-Pay</v>
+        <v>Prep-Sub</v>
       </c>
       <c r="N35" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[IncNode], ,0)</f>
@@ -7006,11 +6686,11 @@
       </c>
       <c r="P35" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[BSLv2]], dict[Key], dict[Name],,0)</f>
-        <v>1.应收-应付</v>
+        <v>2.预付-订阅</v>
       </c>
       <c r="Q35" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], dict[Key], dict[Name],,0)</f>
-        <v>应收-一般</v>
+        <v>押金</v>
       </c>
       <c r="R35" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</f>
@@ -7019,7 +6699,7 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B36" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -7034,16 +6714,16 @@
         <v>forward</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="H36" s="21">
-        <v>4000</v>
+        <v>12892.74</v>
       </c>
       <c r="I36" s="11" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
@@ -7051,7 +6731,7 @@
       </c>
       <c r="J36" s="9">
         <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
-        <v>4000</v>
+        <v>12892.74</v>
       </c>
       <c r="K36" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
@@ -7088,7 +6768,7 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B37" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -7103,16 +6783,16 @@
         <v>forward</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>125</v>
+        <v>211</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>158</v>
+        <v>212</v>
       </c>
       <c r="H37" s="21">
-        <v>12892.74</v>
+        <v>30000</v>
       </c>
       <c r="I37" s="11" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
@@ -7120,7 +6800,7 @@
       </c>
       <c r="J37" s="9">
         <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
-        <v>12892.74</v>
+        <v>30000</v>
       </c>
       <c r="K37" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
@@ -7132,7 +6812,7 @@
       </c>
       <c r="M37" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv2],,0)</f>
-        <v>Rec-Pay</v>
+        <v>Prep-Sub</v>
       </c>
       <c r="N37" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[IncNode], ,0)</f>
@@ -7144,11 +6824,11 @@
       </c>
       <c r="P37" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[BSLv2]], dict[Key], dict[Name],,0)</f>
-        <v>1.应收-应付</v>
+        <v>2.预付-订阅</v>
       </c>
       <c r="Q37" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], dict[Key], dict[Name],,0)</f>
-        <v>应收-一般</v>
+        <v>员工预支</v>
       </c>
       <c r="R37" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</f>
@@ -7157,7 +6837,7 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B38" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -7171,17 +6851,17 @@
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Action],,0)</f>
         <v>forward</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="22" t="s">
         <v>90</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="H38" s="21">
-        <v>30000</v>
+        <v>240013.22999999998</v>
       </c>
       <c r="I38" s="11" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
@@ -7189,7 +6869,7 @@
       </c>
       <c r="J38" s="9">
         <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
-        <v>30000</v>
+        <v>240013.22999999998</v>
       </c>
       <c r="K38" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
@@ -7221,12 +6901,12 @@
       </c>
       <c r="R38" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</f>
-        <v>米小易</v>
+        <v>远家文化</v>
       </c>
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B39" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -7240,17 +6920,17 @@
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Action],,0)</f>
         <v>forward</v>
       </c>
-      <c r="E39" s="22" t="s">
-        <v>91</v>
+      <c r="E39" s="23" t="s">
+        <v>90</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H39" s="21">
-        <v>240013.22999999998</v>
+        <v>150000</v>
       </c>
       <c r="I39" s="11" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
@@ -7258,7 +6938,7 @@
       </c>
       <c r="J39" s="9">
         <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
-        <v>240013.22999999998</v>
+        <v>150000</v>
       </c>
       <c r="K39" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
@@ -7295,7 +6975,7 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B40" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -7310,16 +6990,16 @@
         <v>forward</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>125</v>
+        <v>214</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="H40" s="21">
-        <v>150000</v>
+        <v>38389.65</v>
       </c>
       <c r="I40" s="11" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
@@ -7327,7 +7007,7 @@
       </c>
       <c r="J40" s="9">
         <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
-        <v>150000</v>
+        <v>38389.65</v>
       </c>
       <c r="K40" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
@@ -7339,7 +7019,7 @@
       </c>
       <c r="M40" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv2],,0)</f>
-        <v>Rec-Pay</v>
+        <v>Prep-Sub</v>
       </c>
       <c r="N40" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[IncNode], ,0)</f>
@@ -7351,11 +7031,11 @@
       </c>
       <c r="P40" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[BSLv2]], dict[Key], dict[Name],,0)</f>
-        <v>1.应收-应付</v>
+        <v>2.预付-订阅</v>
       </c>
       <c r="Q40" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], dict[Key], dict[Name],,0)</f>
-        <v>应收-一般</v>
+        <v>押金</v>
       </c>
       <c r="R40" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</f>
@@ -7364,7 +7044,7 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B41" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -7378,17 +7058,17 @@
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Action],,0)</f>
         <v>forward</v>
       </c>
-      <c r="E41" s="23" t="s">
-        <v>91</v>
+      <c r="E41" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>159</v>
+        <v>210</v>
       </c>
       <c r="H41" s="21">
-        <v>38389.65</v>
+        <v>25551.3</v>
       </c>
       <c r="I41" s="11" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
@@ -7396,7 +7076,7 @@
       </c>
       <c r="J41" s="9">
         <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
-        <v>38389.65</v>
+        <v>25551.3</v>
       </c>
       <c r="K41" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
@@ -7428,12 +7108,12 @@
       </c>
       <c r="R41" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</f>
-        <v>远家文化</v>
+        <v>创业园-琦</v>
       </c>
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B42" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -7448,16 +7128,16 @@
         <v>forward</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H42" s="21">
-        <v>25551.3</v>
+        <v>130521.15</v>
       </c>
       <c r="I42" s="11" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
@@ -7465,7 +7145,7 @@
       </c>
       <c r="J42" s="9">
         <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
-        <v>25551.3</v>
+        <v>130521.15</v>
       </c>
       <c r="K42" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
@@ -7477,7 +7157,7 @@
       </c>
       <c r="M42" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv2],,0)</f>
-        <v>Rec-Pay</v>
+        <v>Prep-Sub</v>
       </c>
       <c r="N42" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[IncNode], ,0)</f>
@@ -7489,20 +7169,20 @@
       </c>
       <c r="P42" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[BSLv2]], dict[Key], dict[Name],,0)</f>
-        <v>1.应收-应付</v>
+        <v>2.预付-订阅</v>
       </c>
       <c r="Q42" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], dict[Key], dict[Name],,0)</f>
-        <v>应收-一般</v>
+        <v>订单</v>
       </c>
       <c r="R42" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</f>
-        <v>创业园-琦</v>
+        <v>喜家文化</v>
       </c>
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B43" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -7517,16 +7197,16 @@
         <v>forward</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="H43" s="21">
-        <v>130521.15</v>
+        <v>87645.27</v>
       </c>
       <c r="I43" s="11" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
@@ -7534,7 +7214,7 @@
       </c>
       <c r="J43" s="9">
         <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
-        <v>130521.15</v>
+        <v>87645.27</v>
       </c>
       <c r="K43" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
@@ -7566,12 +7246,12 @@
       </c>
       <c r="R43" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</f>
-        <v>喜家文化</v>
+        <v>远家花园</v>
       </c>
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B44" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -7586,16 +7266,16 @@
         <v>forward</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="H44" s="21">
-        <v>87645.27</v>
+        <v>99417.5</v>
       </c>
       <c r="I44" s="11" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
@@ -7603,7 +7283,7 @@
       </c>
       <c r="J44" s="9">
         <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
-        <v>87645.27</v>
+        <v>99417.5</v>
       </c>
       <c r="K44" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
@@ -7635,12 +7315,12 @@
       </c>
       <c r="R44" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</f>
-        <v>远家花园</v>
+        <v>桑木</v>
       </c>
     </row>
     <row r="45" spans="1:18">
       <c r="A45" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B45" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -7655,16 +7335,16 @@
         <v>forward</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="H45" s="21">
-        <v>99417.5</v>
+        <v>1225</v>
       </c>
       <c r="I45" s="11" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
@@ -7672,7 +7352,7 @@
       </c>
       <c r="J45" s="9">
         <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
-        <v>99417.5</v>
+        <v>1225</v>
       </c>
       <c r="K45" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
@@ -7704,12 +7384,12 @@
       </c>
       <c r="R45" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</f>
-        <v>桑木</v>
+        <v>米小易</v>
       </c>
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B46" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -7723,17 +7403,17 @@
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Action],,0)</f>
         <v>forward</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="22" t="s">
         <v>90</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H46" s="21">
-        <v>1225</v>
+        <v>192761.82</v>
       </c>
       <c r="I46" s="11" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
@@ -7741,7 +7421,7 @@
       </c>
       <c r="J46" s="9">
         <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
-        <v>1225</v>
+        <v>192761.82</v>
       </c>
       <c r="K46" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
@@ -7753,7 +7433,7 @@
       </c>
       <c r="M46" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv2],,0)</f>
-        <v>Prep-Sub</v>
+        <v>Invtr</v>
       </c>
       <c r="N46" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[IncNode], ,0)</f>
@@ -7765,20 +7445,20 @@
       </c>
       <c r="P46" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[BSLv2]], dict[Key], dict[Name],,0)</f>
-        <v>2.预付-订阅</v>
+        <v>3.库存占款</v>
       </c>
       <c r="Q46" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], dict[Key], dict[Name],,0)</f>
-        <v>订单</v>
+        <v>当期存货</v>
       </c>
       <c r="R46" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</f>
-        <v>米小易</v>
+        <v>远家文化</v>
       </c>
     </row>
     <row r="47" spans="1:18">
       <c r="A47" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B47" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -7792,17 +7472,17 @@
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Action],,0)</f>
         <v>forward</v>
       </c>
-      <c r="E47" s="22" t="s">
-        <v>91</v>
+      <c r="E47" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="H47" s="21">
-        <v>192761.82</v>
+        <v>242182.81</v>
       </c>
       <c r="I47" s="11" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
@@ -7810,7 +7490,7 @@
       </c>
       <c r="J47" s="9">
         <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
-        <v>192761.82</v>
+        <v>242182.81</v>
       </c>
       <c r="K47" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
@@ -7842,12 +7522,12 @@
       </c>
       <c r="R47" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</f>
-        <v>远家文化</v>
+        <v>米小易</v>
       </c>
     </row>
     <row r="48" spans="1:18">
       <c r="A48" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B48" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -7862,16 +7542,16 @@
         <v>forward</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>129</v>
+        <v>87</v>
+      </c>
+      <c r="F48" s="28" t="s">
+        <v>124</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="H48" s="21">
-        <v>242182.81</v>
+        <v>164</v>
+      </c>
+      <c r="H48" s="27">
+        <v>10513383.689999999</v>
       </c>
       <c r="I48" s="11" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
@@ -7879,7 +7559,7 @@
       </c>
       <c r="J48" s="9">
         <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
-        <v>242182.81</v>
+        <v>10513383.689999999</v>
       </c>
       <c r="K48" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
@@ -7911,12 +7591,12 @@
       </c>
       <c r="R48" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</f>
-        <v>米小易</v>
+        <v>远家花园</v>
       </c>
     </row>
     <row r="49" spans="1:18">
       <c r="A49" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B49" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -7930,17 +7610,17 @@
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Action],,0)</f>
         <v>forward</v>
       </c>
-      <c r="E49" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F49" s="28" t="s">
+      <c r="E49" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F49" s="10" t="s">
         <v>129</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="H49" s="27">
-        <v>10513383.689999999</v>
+        <v>225</v>
+      </c>
+      <c r="H49" s="21">
+        <v>2949723.27</v>
       </c>
       <c r="I49" s="11" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
@@ -7948,7 +7628,7 @@
       </c>
       <c r="J49" s="9">
         <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
-        <v>10513383.689999999</v>
+        <v>2949723.27</v>
       </c>
       <c r="K49" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
@@ -7960,7 +7640,7 @@
       </c>
       <c r="M49" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv2],,0)</f>
-        <v>Invtr</v>
+        <v>PP&amp;E</v>
       </c>
       <c r="N49" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[IncNode], ,0)</f>
@@ -7972,20 +7652,20 @@
       </c>
       <c r="P49" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[BSLv2]], dict[Key], dict[Name],,0)</f>
-        <v>3.库存占款</v>
+        <v>5.硬件设施</v>
       </c>
       <c r="Q49" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], dict[Key], dict[Name],,0)</f>
-        <v>当期存货</v>
+        <v>房地产</v>
       </c>
       <c r="R49" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</f>
-        <v>远家花园</v>
+        <v>远家文化</v>
       </c>
     </row>
     <row r="50" spans="1:18">
       <c r="A50" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B50" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -8000,16 +7680,16 @@
         <v>forward</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="H50" s="21">
-        <v>24079061.699999999</v>
+        <v>21129338.43</v>
       </c>
       <c r="I50" s="11" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
@@ -8017,7 +7697,7 @@
       </c>
       <c r="J50" s="9">
         <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
-        <v>24079061.699999999</v>
+        <v>21129338.43</v>
       </c>
       <c r="K50" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
@@ -8039,22 +7719,22 @@
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[IncNode]], config_IS[Node], config_IS[Type],,0)</f>
         <v>Non-Op</v>
       </c>
-      <c r="P50" t="str">
+      <c r="P50" s="36" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[BSLv2]], dict[Key], dict[Name],,0)</f>
         <v>5.硬件设施</v>
       </c>
-      <c r="Q50" t="str">
+      <c r="Q50" s="36" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], dict[Key], dict[Name],,0)</f>
         <v>房地产</v>
       </c>
-      <c r="R50" t="str">
+      <c r="R50" s="36" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</f>
         <v>远家文化</v>
       </c>
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B51" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -8069,13 +7749,13 @@
         <v>forward</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="H51" s="21">
         <v>-5217130.03</v>
@@ -8123,7 +7803,7 @@
     </row>
     <row r="52" spans="1:18">
       <c r="A52" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B52" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -8138,13 +7818,13 @@
         <v>forward</v>
       </c>
       <c r="E52" s="25" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="H52" s="21">
         <v>6467900</v>
@@ -8192,7 +7872,7 @@
     </row>
     <row r="53" spans="1:18">
       <c r="A53" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B53" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -8207,13 +7887,13 @@
         <v>forward</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="H53" s="21">
         <v>-1065602.3999999999</v>
@@ -8261,7 +7941,7 @@
     </row>
     <row r="54" spans="1:18">
       <c r="A54" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B54" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -8276,13 +7956,13 @@
         <v>forward</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="H54" s="21">
         <v>2000000</v>
@@ -8330,7 +8010,7 @@
     </row>
     <row r="55" spans="1:18">
       <c r="A55" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B55" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -8345,13 +8025,13 @@
         <v>forward</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="G55" s="29" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="H55" s="21">
         <v>100000</v>
@@ -8399,7 +8079,7 @@
     </row>
     <row r="56" spans="1:18">
       <c r="A56" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B56" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -8414,13 +8094,13 @@
         <v>forward</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="H56" s="30">
         <v>6891.7999999999993</v>
@@ -8468,7 +8148,7 @@
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B57" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -8483,13 +8163,13 @@
         <v>forward</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G57" s="29" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="H57" s="30">
         <v>30730.53</v>
@@ -8537,7 +8217,7 @@
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B58" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -8552,13 +8232,13 @@
         <v>forward</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H58" s="30">
         <v>37380.69</v>
@@ -8606,7 +8286,7 @@
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B59" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -8621,13 +8301,13 @@
         <v>forward</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G59" s="29" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="H59" s="30">
         <v>441296.96</v>
@@ -8675,7 +8355,7 @@
     </row>
     <row r="60" spans="1:18">
       <c r="A60" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B60" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -8690,13 +8370,13 @@
         <v>forward</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H60" s="30">
         <v>454010.9</v>
@@ -8744,7 +8424,7 @@
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B61" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -8759,13 +8439,13 @@
         <v>forward</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G61" s="29" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="H61" s="30">
         <v>5489.66</v>
@@ -8813,7 +8493,7 @@
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B62" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -8828,13 +8508,13 @@
         <v>forward</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H62" s="30">
         <v>34956.620000000003</v>
@@ -8882,7 +8562,7 @@
     </row>
     <row r="63" spans="1:18">
       <c r="A63" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B63" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -8897,13 +8577,13 @@
         <v>forward</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G63" s="29" t="s">
-        <v>157</v>
+        <v>216</v>
       </c>
       <c r="H63" s="30">
         <v>2200</v>
@@ -8951,7 +8631,7 @@
     </row>
     <row r="64" spans="1:18">
       <c r="A64" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B64" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -8966,13 +8646,13 @@
         <v>forward</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="H64" s="30">
         <v>15725.69</v>
@@ -9020,7 +8700,7 @@
     </row>
     <row r="65" spans="1:18">
       <c r="A65" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B65" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -9035,13 +8715,13 @@
         <v>forward</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="G65" s="29" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H65" s="30">
         <v>33541.86</v>
@@ -9089,7 +8769,7 @@
     </row>
     <row r="66" spans="1:18">
       <c r="A66" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B66" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -9104,13 +8784,13 @@
         <v>forward</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="H66" s="30">
         <v>42232.84</v>
@@ -9158,7 +8838,7 @@
     </row>
     <row r="67" spans="1:18">
       <c r="A67" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B67" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -9173,13 +8853,13 @@
         <v>forward</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="G67" s="29" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H67" s="30">
         <v>76031.259999999995</v>
@@ -9227,7 +8907,7 @@
     </row>
     <row r="68" spans="1:18">
       <c r="A68" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B68" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -9242,13 +8922,13 @@
         <v>forward</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="H68" s="30">
         <v>77772.66</v>
@@ -9296,7 +8976,7 @@
     </row>
     <row r="69" spans="1:18">
       <c r="A69" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B69" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -9311,13 +8991,13 @@
         <v>forward</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="G69" s="29" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H69" s="30">
         <v>18440</v>
@@ -9365,7 +9045,7 @@
     </row>
     <row r="70" spans="1:18">
       <c r="A70" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B70" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -9380,13 +9060,13 @@
         <v>forward</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="H70" s="30">
         <v>30461.37</v>
@@ -9434,7 +9114,7 @@
     </row>
     <row r="71" spans="1:18">
       <c r="A71" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B71" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -9449,13 +9129,13 @@
         <v>forward</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="G71" s="29" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H71" s="30">
         <v>156507.97</v>
@@ -9503,7 +9183,7 @@
     </row>
     <row r="72" spans="1:18">
       <c r="A72" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B72" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -9518,13 +9198,13 @@
         <v>forward</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>147</v>
+        <v>217</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>171</v>
+        <v>220</v>
       </c>
       <c r="H72" s="30">
         <v>50507.19</v>
@@ -9547,7 +9227,7 @@
       </c>
       <c r="M72" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv2],,0)</f>
-        <v>Rec-Pay</v>
+        <v>Cash-UnRev</v>
       </c>
       <c r="N72" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[IncNode], ,0)</f>
@@ -9559,11 +9239,11 @@
       </c>
       <c r="P72" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[BSLv2]], dict[Key], dict[Name],,0)</f>
-        <v>1.应收-应付</v>
+        <v>0.现金-预售</v>
       </c>
       <c r="Q72" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], dict[Key], dict[Name],,0)</f>
-        <v>应付-其他</v>
+        <v>会员充值</v>
       </c>
       <c r="R72" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</f>
@@ -9572,7 +9252,7 @@
     </row>
     <row r="73" spans="1:18">
       <c r="A73" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B73" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -9587,13 +9267,13 @@
         <v>forward</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G73" s="29" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="H73" s="30">
         <v>12351.18</v>
@@ -9641,7 +9321,7 @@
     </row>
     <row r="74" spans="1:18">
       <c r="A74" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B74" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -9656,13 +9336,13 @@
         <v>forward</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H74" s="30">
         <v>112127.37</v>
@@ -9710,7 +9390,7 @@
     </row>
     <row r="75" spans="1:18">
       <c r="A75" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B75" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -9725,13 +9405,13 @@
         <v>forward</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>147</v>
+        <v>217</v>
       </c>
       <c r="G75" s="29" t="s">
-        <v>172</v>
+        <v>34</v>
       </c>
       <c r="H75" s="30">
         <v>389468.04000000004</v>
@@ -9754,7 +9434,7 @@
       </c>
       <c r="M75" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv2],,0)</f>
-        <v>Rec-Pay</v>
+        <v>Cash-UnRev</v>
       </c>
       <c r="N75" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[IncNode], ,0)</f>
@@ -9766,11 +9446,11 @@
       </c>
       <c r="P75" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[BSLv2]], dict[Key], dict[Name],,0)</f>
-        <v>1.应收-应付</v>
+        <v>0.现金-预售</v>
       </c>
       <c r="Q75" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], dict[Key], dict[Name],,0)</f>
-        <v>应付-其他</v>
+        <v>会员充值</v>
       </c>
       <c r="R75" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</f>
@@ -9779,7 +9459,7 @@
     </row>
     <row r="76" spans="1:18">
       <c r="A76" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B76" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -9794,13 +9474,13 @@
         <v>forward</v>
       </c>
       <c r="E76" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>157</v>
+        <v>219</v>
       </c>
       <c r="H76" s="30">
         <v>5997.5</v>
@@ -9848,7 +9528,7 @@
     </row>
     <row r="77" spans="1:18">
       <c r="A77" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B77" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -9863,13 +9543,13 @@
         <v>forward</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G77" s="29" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="H77" s="30">
         <v>25551.3</v>
@@ -9917,7 +9597,7 @@
     </row>
     <row r="78" spans="1:18">
       <c r="A78" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B78" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -9932,13 +9612,13 @@
         <v>forward</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="H78" s="30">
         <v>14402045</v>
@@ -9986,7 +9666,7 @@
     </row>
     <row r="79" spans="1:18">
       <c r="A79" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B79" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -10001,13 +9681,13 @@
         <v>forward</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G79" s="29" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="H79" s="30">
         <v>25036191</v>
@@ -10055,7 +9735,7 @@
     </row>
     <row r="80" spans="1:18">
       <c r="A80" s="10" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B80" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -10070,16 +9750,16 @@
         <v>forward</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="H80" s="30">
-        <v>7657356.6349999905</v>
+        <v>7626715.7400000319</v>
       </c>
       <c r="I80" s="11" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
@@ -10087,7 +9767,7 @@
       </c>
       <c r="J80" s="9">
         <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
-        <v>-7657356.6349999905</v>
+        <v>-7626715.7400000319</v>
       </c>
       <c r="K80" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
@@ -10146,446 +9826,623 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:17">
       <c r="A1" s="5"/>
       <c r="B1" s="13" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="H1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="5"/>
-      <c r="B2" s="33" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="E2" s="34"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="B2" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="35"/>
+      <c r="H2" t="s">
+        <v>228</v>
+      </c>
+      <c r="I2" s="8">
+        <f>SUMIFS(Jnl[NetBal], Jnl[TrxDate], "&lt;"&amp;config_inception)</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="13" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>172</v>
+      </c>
+      <c r="M3" t="s">
+        <v>203</v>
+      </c>
+      <c r="N3" s="33">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="14" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="B4" s="9">
-        <v>10484984.029999999</v>
-      </c>
-      <c r="C4" s="35">
-        <v>0.21330337269664856</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="35">
+        <v>10454343.130000001</v>
+      </c>
+      <c r="C4" s="33">
+        <v>0.2128126800425317</v>
+      </c>
+      <c r="D4" s="9">
+        <v>439975.23000000004</v>
+      </c>
+      <c r="E4" s="33">
+        <v>8.9563071236814489E-3</v>
+      </c>
+      <c r="M4" t="s">
+        <v>231</v>
+      </c>
+      <c r="N4" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="9">
+        <v>10404686.98</v>
+      </c>
+      <c r="C5" s="33">
+        <v>0.21180186011528351</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="33">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="B5" s="9">
-        <v>10435327.879999999</v>
-      </c>
-      <c r="C5" s="35">
-        <v>0.21229318286328067</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:17">
       <c r="A6" s="15" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B6" s="9">
         <v>49656.15</v>
       </c>
-      <c r="C6" s="35">
-        <v>1.01018983336789E-3</v>
+      <c r="C6" s="33">
+        <v>1.0108199272481657E-3</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="35">
+      <c r="E6" s="33">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="B7" s="9">
-        <v>1038915.49</v>
-      </c>
-      <c r="C7" s="35">
-        <v>2.1135385359646684E-2</v>
+      <c r="M6" s="37" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="33">
+        <v>0</v>
       </c>
       <c r="D7" s="9">
-        <v>2059673.3900000001</v>
-      </c>
-      <c r="E7" s="35">
-        <v>4.190137815452908E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="35">
+        <v>439975.23000000004</v>
+      </c>
+      <c r="E7" s="33">
+        <v>8.9563071236814489E-3</v>
+      </c>
+      <c r="M7" t="s">
+        <v>235</v>
+      </c>
+      <c r="N7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" s="9">
+        <v>799636.89</v>
+      </c>
+      <c r="C8" s="33">
+        <v>1.6277719939519059E-2</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1619698.1600000001</v>
+      </c>
+      <c r="E8" s="33">
+        <v>3.2971206512288742E-2</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="I8" s="37" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="33">
         <v>0</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D9" s="9">
         <v>32443.1</v>
       </c>
-      <c r="E8" s="35">
-        <v>6.6001270308454205E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="35">
+      <c r="E9" s="33">
+        <v>6.604243780821698E-4</v>
+      </c>
+      <c r="I9" s="9">
+        <v>13209505.352789778</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="33">
         <v>0</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D10" s="9">
         <v>922996.67</v>
       </c>
-      <c r="E9" s="35">
-        <v>1.8777167629009901E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="35">
-        <v>0</v>
-      </c>
-      <c r="D10" s="9">
-        <v>448172.73000000004</v>
-      </c>
-      <c r="E10" s="35">
-        <v>9.1174917001173965E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10" s="33">
+        <v>1.8788879661828361E-2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>244</v>
+      </c>
+      <c r="J10" s="9">
+        <v>5000000</v>
+      </c>
+      <c r="K10" s="9">
+        <v>7626715.7400000319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="15" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="B11" s="9"/>
-      <c r="C11" s="35">
+      <c r="C11" s="33">
         <v>0</v>
       </c>
       <c r="D11" s="9">
         <v>656060.89</v>
       </c>
-      <c r="E11" s="35">
-        <v>1.334670612231724E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11" s="33">
+        <v>1.3355030969983904E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="B12" s="9">
-        <v>1038915.49</v>
-      </c>
-      <c r="C12" s="35">
-        <v>2.1135385359646684E-2</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="35">
+        <v>185</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="33">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="14" t="s">
-        <v>205</v>
+      <c r="D12" s="9">
+        <v>8197.5</v>
+      </c>
+      <c r="E12" s="33">
+        <v>1.6687150239430223E-4</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="J12" s="38">
+        <f>I9-J10</f>
+        <v>8209505.3527897783</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="15" t="s">
+        <v>204</v>
       </c>
       <c r="B13" s="9">
+        <v>740667.64</v>
+      </c>
+      <c r="C13" s="33">
+        <v>1.5077318921822786E-2</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="33">
+        <v>0</v>
+      </c>
+      <c r="M13" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="P13" s="9">
+        <v>10513383.689999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B14" s="9">
+        <v>58969.249999999993</v>
+      </c>
+      <c r="C14" s="33">
+        <v>1.2004010176962748E-3</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="33">
+        <v>0</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="N14" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="P14" s="9">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B15" s="9">
+        <v>558087.52</v>
+      </c>
+      <c r="C15" s="33">
+        <v>1.1360646895993934E-2</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="33">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
+        <v>243</v>
+      </c>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B16" s="9">
         <v>318808.92</v>
       </c>
-      <c r="C13" s="35">
-        <v>6.48575311962359E-3</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="35">
+      <c r="C16" s="33">
+        <v>6.4897985309063672E-3</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="33">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="15" t="s">
+    <row r="17" spans="1:17">
+      <c r="A17" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="B17" s="9">
+        <v>30000</v>
+      </c>
+      <c r="C17" s="33">
+        <v>6.1069168305325655E-4</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="33">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>246</v>
+      </c>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="B18" s="9">
+        <v>209278.6</v>
+      </c>
+      <c r="C18" s="33">
+        <v>4.2601566820343086E-3</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="33">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9"/>
+      <c r="N18" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="P18" s="9">
+        <f>P13-P14</f>
+        <v>5513383.6899999995</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="B19" s="9">
+        <v>10948328.32</v>
+      </c>
+      <c r="C19" s="33">
+        <v>0.22286843494534778</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B20" s="9">
+        <v>10948328.32</v>
+      </c>
+      <c r="C20" s="33">
+        <v>0.22286843494534778</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="B21" s="9">
+        <v>192761.82</v>
+      </c>
+      <c r="C21" s="33">
+        <v>3.923934676140297E-3</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B22" s="9">
+        <v>242182.81</v>
+      </c>
+      <c r="C22" s="33">
+        <v>4.9299675948489014E-3</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" s="9">
+        <v>10513383.689999999</v>
+      </c>
+      <c r="C23" s="33">
+        <v>0.21401453267435855</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="33">
+        <v>0</v>
+      </c>
+      <c r="J23" s="37"/>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B24" s="9">
+        <v>24264229.27</v>
+      </c>
+      <c r="C24" s="33">
+        <v>0.49393210036287971</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25" s="9">
+        <v>24264229.27</v>
+      </c>
+      <c r="C25" s="33">
+        <v>0.49393210036287971</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B26" s="9">
+        <v>2100000</v>
+      </c>
+      <c r="C26" s="33">
+        <v>4.2748417813727957E-2</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B27" s="9">
+        <v>2100000</v>
+      </c>
+      <c r="C27" s="33">
+        <v>4.2748417813727957E-2</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="33">
+        <v>0</v>
+      </c>
+      <c r="D28" s="9">
+        <v>7626715.7400000319</v>
+      </c>
+      <c r="E28" s="33">
+        <v>0.15525239571431262</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="33">
+        <v>0</v>
+      </c>
+      <c r="D29" s="9">
+        <v>7626715.7400000319</v>
+      </c>
+      <c r="E29" s="33">
+        <v>0.15525239571431262</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="33">
+        <v>0</v>
+      </c>
+      <c r="D30" s="9">
+        <v>39438236</v>
+      </c>
+      <c r="E30" s="33">
+        <v>0.80282009064971716</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="33">
+        <v>0</v>
+      </c>
+      <c r="D31" s="9">
+        <v>14402045</v>
+      </c>
+      <c r="E31" s="33">
+        <v>0.29317363668195773</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="B14" s="9">
-        <v>318808.92</v>
-      </c>
-      <c r="C14" s="35">
-        <v>6.48575311962359E-3</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="35">
+      <c r="B32" s="9"/>
+      <c r="C32" s="33">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="B15" s="9">
-        <v>10948328.32</v>
-      </c>
-      <c r="C15" s="35">
-        <v>0.22272951006547528</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="B16" s="9">
-        <v>10948328.32</v>
-      </c>
-      <c r="C16" s="35">
-        <v>0.22272951006547528</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="B17" s="9">
-        <v>192761.82</v>
-      </c>
-      <c r="C17" s="35">
-        <v>3.9214886942602516E-3</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="B18" s="9">
-        <v>242182.81</v>
-      </c>
-      <c r="C18" s="35">
-        <v>4.9268945030669382E-3</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="B19" s="9">
-        <v>10513383.689999999</v>
-      </c>
-      <c r="C19" s="35">
-        <v>0.21388112686814809</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="B20" s="9">
-        <v>24264229.27</v>
-      </c>
-      <c r="C20" s="35">
-        <v>0.49362420814061453</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="B21" s="9">
-        <v>24264229.27</v>
-      </c>
-      <c r="C21" s="35">
-        <v>0.49362420814061453</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="B22" s="9">
-        <v>2100000</v>
-      </c>
-      <c r="C22" s="35">
-        <v>4.2721770617991303E-2</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="B23" s="9">
-        <v>2100000</v>
-      </c>
-      <c r="C23" s="35">
-        <v>4.2721770617991303E-2</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="35">
-        <v>0</v>
-      </c>
-      <c r="D24" s="9">
-        <v>7657356.6349999905</v>
-      </c>
-      <c r="E24" s="35">
-        <v>0.15577896844471389</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="35">
-        <v>0</v>
-      </c>
-      <c r="D25" s="9">
-        <v>7657356.6349999905</v>
-      </c>
-      <c r="E25" s="35">
-        <v>0.15577896844471389</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="35">
-        <v>0</v>
-      </c>
-      <c r="D26" s="9">
-        <v>39438236</v>
-      </c>
-      <c r="E26" s="35">
-        <v>0.80231965340075706</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="35">
-        <v>0</v>
-      </c>
-      <c r="D27" s="9">
-        <v>14402045</v>
-      </c>
-      <c r="E27" s="35">
-        <v>0.29299088713455912</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="35">
-        <v>0</v>
-      </c>
-      <c r="D28" s="9">
+      <c r="D32" s="9">
         <v>25036191</v>
       </c>
-      <c r="E28" s="35">
-        <v>0.50932876626619794</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="B29" s="9">
-        <v>49155266.030000001</v>
-      </c>
-      <c r="C29" s="35">
+      <c r="E32" s="33">
+        <v>0.50964645396775943</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B33" s="9">
+        <v>49124625.129999995</v>
+      </c>
+      <c r="C33" s="33">
         <v>1</v>
       </c>
-      <c r="D29" s="9">
-        <v>49155266.024999991</v>
-      </c>
-      <c r="E29" s="35">
+      <c r="D33" s="9">
+        <v>49124625.130000032</v>
+      </c>
+      <c r="E33" s="33">
         <v>1</v>
       </c>
     </row>
@@ -10595,21 +10452,7 @@
     <mergeCell ref="D2:E2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{A1A3A84A-3A8B-4ED8-87BA-A38E92BC508A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting pivot="1" sqref="C4:C29 E4:E29">
+  <conditionalFormatting pivot="1" sqref="C4:C33 E4:E33">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -10627,19 +10470,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{A1A3A84A-3A8B-4ED8-87BA-A38E92BC508A}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF63C384"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H16</xm:sqref>
-        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" pivot="1">
           <x14:cfRule type="dataBar" id="{D82CD119-6F50-430B-932B-180680CFB548}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
@@ -10651,7 +10481,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C4:C29 E4:E29</xm:sqref>
+          <xm:sqref>C4:C33 E4:E33</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -10664,10 +10494,10 @@
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10690,359 +10520,373 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="13" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C5" s="8">
         <v>2759122.91</v>
       </c>
       <c r="D5" s="16">
-        <v>0.26314993919928742</v>
+        <v>0.25326255565749772</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="8">
         <v>1982899.24</v>
       </c>
       <c r="D6" s="16">
-        <v>0.18911800288168867</v>
+        <v>0.18201223559616991</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C7" s="8">
         <v>1597158.42</v>
       </c>
       <c r="D7" s="16">
-        <v>0.15232816906827465</v>
+        <v>0.14660471332141237</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="17" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="8">
         <v>1012107.86</v>
       </c>
       <c r="D8" s="16">
-        <v>9.6529270536237513E-2</v>
+        <v>9.290235759183374E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="17" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C9" s="8">
         <v>838646.21</v>
       </c>
       <c r="D9" s="16">
-        <v>7.9985454207697051E-2</v>
+        <v>7.6980145272714406E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="17" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" s="8">
         <v>630993.46</v>
       </c>
       <c r="D10" s="16">
-        <v>6.0180679168855146E-2</v>
+        <v>5.7919498875375237E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C11" s="8">
         <v>612335.77</v>
       </c>
       <c r="D11" s="16">
-        <v>5.8401211508569167E-2</v>
+        <v>5.6206891497523656E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="33" t="s">
-        <v>114</v>
+      <c r="A12" s="34" t="s">
+        <v>110</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="8">
         <v>12977.6</v>
       </c>
       <c r="D12" s="16">
-        <v>1.2377319758302007E-3</v>
+        <v>1.1912264330046617E-3</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="34"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C13" s="8">
         <v>435221.41</v>
       </c>
       <c r="D13" s="16">
-        <v>4.1509019828235245E-2</v>
+        <v>3.9949393401057159E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="17" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" s="8">
-        <v>174191.78</v>
+        <v>389468.04000000004</v>
       </c>
       <c r="D14" s="16">
-        <v>1.661345210460945E-2</v>
+        <v>3.5749647396939109E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="17" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C15" s="8">
-        <v>143995.32</v>
+        <v>174191.78</v>
       </c>
       <c r="D15" s="16">
-        <v>1.3733480145319782E-2</v>
+        <v>1.5989231656711008E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="17" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="C16" s="8">
-        <v>125030.24</v>
+        <v>143995.32</v>
       </c>
       <c r="D16" s="16">
-        <v>1.1924695320685194E-2</v>
+        <v>1.3217469440648874E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="17" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C17" s="8">
-        <v>30900.25</v>
+        <v>125030.24</v>
       </c>
       <c r="D17" s="16">
-        <v>2.9470955713034115E-3</v>
+        <v>1.1476646437932806E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="17" t="s">
-        <v>98</v>
+        <v>220</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="C18" s="8">
-        <v>30640.9</v>
+        <v>50507.19</v>
       </c>
       <c r="D18" s="16">
-        <v>2.9223601974337006E-3</v>
+        <v>4.6361037314132597E-3</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="17" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="C19" s="8">
-        <v>25540.15</v>
+        <v>30900.25</v>
       </c>
       <c r="D19" s="16">
-        <v>2.4358787697648021E-3</v>
+        <v>2.8363637796242989E-3</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="17" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C20" s="8">
-        <v>21355.13</v>
+        <v>25540.15</v>
       </c>
       <c r="D20" s="16">
-        <v>2.0367346234288924E-3</v>
+        <v>2.3443550258063135E-3</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="17" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C21" s="8">
-        <v>20812</v>
+        <v>21355.13</v>
       </c>
       <c r="D21" s="16">
-        <v>1.9849338769093003E-3</v>
+        <v>1.9602079996494607E-3</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="17" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C22" s="8">
-        <v>20124.45</v>
+        <v>20812</v>
       </c>
       <c r="D22" s="16">
-        <v>1.9193591466061582E-3</v>
+        <v>1.9103535725937784E-3</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C23" s="8">
-        <v>6917.42</v>
+        <v>20124.45</v>
       </c>
       <c r="D23" s="16">
-        <v>6.5974540163415008E-4</v>
+        <v>1.8472426943102473E-3</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="17" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C24" s="8">
-        <v>2000</v>
+        <v>6917.42</v>
       </c>
       <c r="D24" s="16">
-        <v>1.9074897913793005E-4</v>
+        <v>6.3495666010626825E-4</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="17" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25" s="8">
-        <v>1304</v>
+        <v>2000</v>
       </c>
       <c r="D25" s="16">
-        <v>1.2436833439793041E-4</v>
+        <v>1.8358193086620973E-4</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="17" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C26" s="8">
+        <v>1304</v>
+      </c>
+      <c r="D26" s="16">
+        <v>1.1969541892476875E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="8">
         <v>709.51</v>
       </c>
-      <c r="D26" s="16">
-        <v>6.7669154094076372E-5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="8">
-        <v>10484984.030000001</v>
-      </c>
       <c r="D27" s="16">
+        <v>6.5126607884442232E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" s="35"/>
+      <c r="C28" s="8">
+        <v>10894318.360000003</v>
+      </c>
+      <c r="D28" s="16">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting pivot="1" sqref="D5:D27">
+  <conditionalFormatting pivot="1" sqref="D5:D28">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -11071,7 +10915,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D5:D27</xm:sqref>
+          <xm:sqref>D5:D28</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -11084,11 +10928,11 @@
   <sheetPr codeName="Sheet1">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomLeft" activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11128,28 +10972,28 @@
         <v>12</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="M1" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -11166,38 +11010,38 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G2" t="s">
         <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
       </c>
       <c r="H2" t="str">
         <f>IF(config_BS[[#This Row],[Lv1]]="Assets", "A","LC")</f>
         <v>A</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="M2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="P2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R2" t="s">
+        <v>60</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -11211,41 +11055,41 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
       </c>
       <c r="H3" t="str">
         <f>IF(config_BS[[#This Row],[Lv1]]="Assets", "A","LC")</f>
         <v>A</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="P3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="Q3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R3" t="s">
+        <v>62</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -11259,402 +11103,446 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" t="str">
         <f>IF(config_BS[[#This Row],[Lv1]]="Assets", "A","LC")</f>
         <v>A</v>
       </c>
       <c r="J4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M4" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="P4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R4" t="s">
+        <v>64</v>
+      </c>
+      <c r="S4" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="E5" t="s">
-        <v>128</v>
+        <v>223</v>
       </c>
       <c r="F5" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="str">
+        <v>14</v>
+      </c>
+      <c r="H5" s="36" t="str">
         <f>IF(config_BS[[#This Row],[Lv1]]="Assets", "A","LC")</f>
         <v>A</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="P5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R5" t="s">
+        <v>66</v>
+      </c>
+      <c r="S5" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="E6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F6" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" t="str">
         <f>IF(config_BS[[#This Row],[Lv1]]="Assets", "A","LC")</f>
         <v>A</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="K6" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="P6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R6" t="s">
+        <v>68</v>
+      </c>
+      <c r="S6" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="E7" t="s">
-        <v>139</v>
+        <v>211</v>
       </c>
       <c r="F7" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" t="str">
+        <v>14</v>
+      </c>
+      <c r="H7" s="36" t="str">
         <f>IF(config_BS[[#This Row],[Lv1]]="Assets", "A","LC")</f>
         <v>A</v>
       </c>
       <c r="J7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="P7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="Q7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R7" t="s">
+        <v>70</v>
+      </c>
+      <c r="S7" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="E8" t="s">
-        <v>134</v>
+        <v>214</v>
       </c>
       <c r="F8" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" t="str">
+        <v>14</v>
+      </c>
+      <c r="H8" s="36" t="str">
         <f>IF(config_BS[[#This Row],[Lv1]]="Assets", "A","LC")</f>
         <v>A</v>
       </c>
       <c r="P8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R8" t="s">
+        <v>72</v>
+      </c>
+      <c r="S8" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="E9" t="s">
-        <v>193</v>
+        <v>124</v>
       </c>
       <c r="F9" t="s">
-        <v>211</v>
+        <v>127</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" t="str">
         <f>IF(config_BS[[#This Row],[Lv1]]="Assets", "A","LC")</f>
         <v>A</v>
       </c>
       <c r="P9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R9" t="s">
+        <v>74</v>
+      </c>
+      <c r="S9" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="E10" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F10" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G10" t="s">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="H10" t="str">
         <f>IF(config_BS[[#This Row],[Lv1]]="Assets", "A","LC")</f>
-        <v>LC</v>
+        <v>A</v>
       </c>
       <c r="P10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R10" t="s">
+        <v>76</v>
+      </c>
+      <c r="S10" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="E11" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="F11" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="G11" t="s">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="H11" t="str">
         <f>IF(config_BS[[#This Row],[Lv1]]="Assets", "A","LC")</f>
-        <v>LC</v>
+        <v>A</v>
       </c>
       <c r="P11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R11" t="s">
+        <v>78</v>
+      </c>
+      <c r="S11" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="E12" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>199</v>
       </c>
       <c r="G12" t="s">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="H12" t="str">
         <f>IF(config_BS[[#This Row],[Lv1]]="Assets", "A","LC")</f>
-        <v>LC</v>
+        <v>A</v>
       </c>
       <c r="M12" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="P12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R12" t="s">
+        <v>80</v>
+      </c>
+      <c r="S12" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="E13" t="s">
-        <v>148</v>
+        <v>217</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>221</v>
       </c>
       <c r="G13" t="s">
-        <v>136</v>
-      </c>
-      <c r="H13" t="str">
+        <v>131</v>
+      </c>
+      <c r="H13" s="36" t="str">
         <f>IF(config_BS[[#This Row],[Lv1]]="Assets", "A","LC")</f>
         <v>LC</v>
       </c>
       <c r="P13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R13" t="s">
+        <v>83</v>
+      </c>
+      <c r="S13" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="E14" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="H14" t="str">
         <f>IF(config_BS[[#This Row],[Lv1]]="Assets", "A","LC")</f>
         <v>LC</v>
       </c>
       <c r="P14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="Q14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R14" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="E15" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="G15" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="H15" t="str">
         <f>IF(config_BS[[#This Row],[Lv1]]="Assets", "A","LC")</f>
         <v>LC</v>
       </c>
-      <c r="P15" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>60</v>
-      </c>
-      <c r="R15" t="s">
-        <v>102</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>142</v>
-      </c>
     </row>
     <row r="16" spans="1:19">
       <c r="E16" t="s">
-        <v>18</v>
+        <v>209</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="G16" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="H16" t="str">
         <f>IF(config_BS[[#This Row],[Lv1]]="Assets", "A","LC")</f>
         <v>LC</v>
       </c>
-      <c r="P16" t="s">
-        <v>127</v>
-      </c>
-      <c r="S16" s="2"/>
+    </row>
+    <row r="17" spans="5:8">
+      <c r="E17" t="s">
+        <v>142</v>
+      </c>
+      <c r="F17" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" t="s">
+        <v>131</v>
+      </c>
+      <c r="H17" t="str">
+        <f>IF(config_BS[[#This Row],[Lv1]]="Assets", "A","LC")</f>
+        <v>LC</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8">
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" t="str">
+        <f>IF(config_BS[[#This Row],[Lv1]]="Assets", "A","LC")</f>
+        <v>LC</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8">
+      <c r="E19" t="s">
+        <v>170</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" t="str">
+        <f>IF(config_BS[[#This Row],[Lv1]]="Assets", "A","LC")</f>
+        <v>LC</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8">
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" t="str">
+        <f>IF(config_BS[[#This Row],[Lv1]]="Assets", "A","LC")</f>
+        <v>LC</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G16" xr:uid="{F683D44A-802D-4F34-82A2-33DE8400CFEA}">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G20" xr:uid="{F683D44A-802D-4F34-82A2-33DE8400CFEA}">
       <formula1>"Assets,Liability,Equity"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11674,10 +11562,10 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11689,13 +11577,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -11703,252 +11591,296 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C2" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C3" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>217</v>
       </c>
       <c r="B4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C4" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="C5" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>223</v>
       </c>
       <c r="B6" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="C6" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" t="s">
         <v>190</v>
-      </c>
-      <c r="B7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>211</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="C8" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="B9" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="C9" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s">
-        <v>217</v>
+        <v>177</v>
       </c>
       <c r="C10" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="B11" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="C11" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>223</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="C12" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="B13" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="C13" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="B14" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C14" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="C15" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>209</v>
       </c>
       <c r="B16" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="C16" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="B17" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="C17" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="C18" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="B19" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="C19" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>132</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="C20" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>133</v>
+        <v>221</v>
       </c>
       <c r="B21" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="C21" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>211</v>
+        <v>120</v>
       </c>
       <c r="B22" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="C22" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="B23" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="C23" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="B24" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="C24" t="s">
-        <v>202</v>
+        <v>191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" t="s">
+        <v>195</v>
+      </c>
+      <c r="C25" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>199</v>
+      </c>
+      <c r="B26" t="s">
+        <v>196</v>
+      </c>
+      <c r="C26" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>197</v>
+      </c>
+      <c r="C27" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>198</v>
+      </c>
+      <c r="C28" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/Setup_v1.xlsx
+++ b/Setup_v1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\YuanJia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__GitHub\YuanJia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA367A35-2FB9-4AFB-854D-858CED4EEF35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4037E1-4663-4695-8FF5-3326660E13A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="src_trx" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="180" r:id="rId7"/>
+    <pivotCache cacheId="127" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="264">
   <si>
     <t>Const</t>
   </si>
@@ -546,10 +546,6 @@
     <t>Values</t>
   </si>
   <si>
-    <t>Sink</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -701,9 +697,6 @@
     <t>当期存货</t>
   </si>
   <si>
-    <t>往期存过</t>
-  </si>
-  <si>
     <t>Old</t>
   </si>
   <si>
@@ -758,9 +751,6 @@
     <t>6.投资与长期负债</t>
   </si>
   <si>
-    <t>9.储备性权益</t>
-  </si>
-  <si>
     <t>X.资本</t>
   </si>
   <si>
@@ -860,63 +850,124 @@
     <t>*资产-负债/权益</t>
   </si>
   <si>
-    <t>服装</t>
-  </si>
-  <si>
-    <t>注释</t>
-  </si>
-  <si>
-    <t>库存抵消率</t>
-  </si>
-  <si>
-    <t>账号</t>
-  </si>
-  <si>
-    <t>集团内部</t>
-  </si>
-  <si>
-    <t>不包括 晓</t>
-  </si>
-  <si>
-    <t>预计 为明年</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9万 件 </t>
-  </si>
-  <si>
-    <t>太久卖不掉的</t>
-  </si>
-  <si>
-    <t>去年</t>
-  </si>
-  <si>
-    <t>利润 （2025）</t>
-  </si>
-  <si>
-    <t>几种可能</t>
-  </si>
-  <si>
-    <t>1） 有些资产 没有录入 资产负债表</t>
-  </si>
-  <si>
-    <t>资产负债表 倒推</t>
-  </si>
-  <si>
-    <t>差别</t>
-  </si>
-  <si>
-    <t>2） 已经发生的“分红”</t>
+    <t>净利润</t>
+  </si>
+  <si>
+    <t>T0001</t>
+  </si>
+  <si>
+    <t>adjust</t>
+  </si>
+  <si>
+    <t>invtr</t>
+  </si>
+  <si>
+    <t>外购</t>
+  </si>
+  <si>
+    <t>库存调整</t>
+  </si>
+  <si>
+    <t>资本</t>
+  </si>
+  <si>
+    <t>已入库</t>
+  </si>
+  <si>
+    <t>内产</t>
+  </si>
+  <si>
+    <t>材料</t>
+  </si>
+  <si>
+    <t>*推测</t>
+  </si>
+  <si>
+    <t>*库存记录</t>
+  </si>
+  <si>
+    <t>*盲猜</t>
+  </si>
+  <si>
+    <t>accuInc</t>
+  </si>
+  <si>
+    <t>系统总计</t>
+  </si>
+  <si>
+    <t>当期</t>
+  </si>
+  <si>
+    <t>往期</t>
+  </si>
+  <si>
+    <t>xxx</t>
+  </si>
+  <si>
+    <t>营业额</t>
+  </si>
+  <si>
+    <t>利润率</t>
+  </si>
+  <si>
+    <t>资本回报率 （RoC)</t>
+  </si>
+  <si>
+    <t>周转率</t>
+  </si>
+  <si>
+    <t>（年营业额 / 库存占款）</t>
+  </si>
+  <si>
+    <t>推测库存</t>
+  </si>
+  <si>
+    <t>往期存货</t>
+  </si>
+  <si>
+    <t>本金</t>
+  </si>
+  <si>
+    <t>10件衣服</t>
+  </si>
+  <si>
+    <t>购入单价</t>
+  </si>
+  <si>
+    <t>库存占款</t>
+  </si>
+  <si>
+    <t>卖出</t>
+  </si>
+  <si>
+    <t>每件</t>
+  </si>
+  <si>
+    <t>销售额</t>
+  </si>
+  <si>
+    <t>成本</t>
+  </si>
+  <si>
+    <t>毛利润</t>
+  </si>
+  <si>
+    <t>各种费用</t>
+  </si>
+  <si>
+    <t>9.蓄水池</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="165" formatCode="yy/m/d;@"/>
+    <numFmt numFmtId="166" formatCode="0.00%_);[Red]\(0.00%\)"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -965,21 +1016,8 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -991,21 +1029,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="8"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="8"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1034,8 +1072,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1089,32 +1137,31 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
@@ -1146,41 +1193,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="40" fontId="4" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="40" fontId="8" fillId="5" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="4" applyBorder="1"/>
-    <xf numFmtId="40" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="38" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="38" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="4" applyBorder="1"/>
+    <xf numFmtId="38" fontId="9" fillId="7" borderId="4" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="38" fontId="8" fillId="6" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="60% - Accent1" xfId="3" builtinId="32"/>
     <cellStyle name="Explanatory Text" xfId="2" builtinId="53"/>
     <cellStyle name="Input" xfId="4" builtinId="20"/>
+    <cellStyle name="Neutral" xfId="5" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
+    <cellStyle name="Output" xfId="6" builtinId="21"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="92">
     <dxf>
       <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
     </dxf>
@@ -1192,6 +1253,116 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFB2B2B2"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB2B2B2"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB2B2B2"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB2B2B2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFB2B2B2"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB2B2B2"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB2B2B2"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB2B2B2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFB2B2B2"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB2B2B2"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB2B2B2"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB2B2B2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFB2B2B2"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB2B2B2"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB2B2B2"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB2B2B2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFB2B2B2"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB2B2B2"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB2B2B2"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB2B2B2"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
@@ -1206,6 +1377,116 @@
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFB2B2B2"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB2B2B2"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB2B2B2"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB2B2B2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFB2B2B2"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB2B2B2"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB2B2B2"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB2B2B2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFB2B2B2"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB2B2B2"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB2B2B2"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB2B2B2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFB2B2B2"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB2B2B2"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB2B2B2"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB2B2B2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFB2B2B2"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB2B2B2"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB2B2B2"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB2B2B2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
     </dxf>
     <dxf>
@@ -1218,6 +1499,116 @@
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFB2B2B2"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB2B2B2"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB2B2B2"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB2B2B2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFB2B2B2"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB2B2B2"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB2B2B2"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB2B2B2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFB2B2B2"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB2B2B2"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB2B2B2"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB2B2B2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFB2B2B2"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB2B2B2"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB2B2B2"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB2B2B2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFB2B2B2"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB2B2B2"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB2B2B2"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB2B2B2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
     </dxf>
     <dxf>
@@ -1228,6 +1619,623 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFB2B2B2"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB2B2B2"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB2B2B2"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB2B2B2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFB2B2B2"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB2B2B2"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB2B2B2"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB2B2B2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFB2B2B2"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB2B2B2"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB2B2B2"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB2B2B2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFB2B2B2"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB2B2B2"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB2B2B2"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB2B2B2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFB2B2B2"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB2B2B2"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB2B2B2"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB2B2B2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFB2B2B2"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB2B2B2"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB2B2B2"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB2B2B2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFB2B2B2"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB2B2B2"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB2B2B2"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB2B2B2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFB2B2B2"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB2B2B2"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB2B2B2"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB2B2B2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFB2B2B2"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB2B2B2"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB2B2B2"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB2B2B2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFB2B2B2"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB2B2B2"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB2B2B2"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB2B2B2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFB2B2B2"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB2B2B2"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB2B2B2"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB2B2B2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFB2B2B2"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB2B2B2"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB2B2B2"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB2B2B2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFB2B2B2"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB2B2B2"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB2B2B2"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB2B2B2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFB2B2B2"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB2B2B2"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB2B2B2"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB2B2B2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFB2B2B2"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB2B2B2"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB2B2B2"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB2B2B2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFB2B2B2"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB2B2B2"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB2B2B2"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB2B2B2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFB2B2B2"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB2B2B2"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB2B2B2"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB2B2B2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFB2B2B2"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB2B2B2"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB2B2B2"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB2B2B2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFB2B2B2"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB2B2B2"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB2B2B2"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB2B2B2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFB2B2B2"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB2B2B2"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB2B2B2"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB2B2B2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFB2B2B2"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB2B2B2"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB2B2B2"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB2B2B2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFB2B2B2"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB2B2B2"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB2B2B2"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB2B2B2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFB2B2B2"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB2B2B2"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB2B2B2"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB2B2B2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFB2B2B2"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB2B2B2"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB2B2B2"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB2B2B2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFB2B2B2"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB2B2B2"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB2B2B2"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB2B2B2"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF7F7F7F"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="8" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1248,6 +2256,18 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1257,36 +2277,11 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="6" formatCode="#,##0_);[Red]\(#,##0\)"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color rgb="FF7F7F7F"/>
-        </left>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="8" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <right style="thin">
           <color rgb="FF7F7F7F"/>
         </right>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1318,7 +2313,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Administrator" refreshedDate="46054.610394328702" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="79" xr:uid="{05F4C23F-DC46-422C-907A-0D04194B955D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Yu Wang" refreshedDate="46055.47965601852" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="85" xr:uid="{05F4C23F-DC46-422C-907A-0D04194B955D}">
   <cacheSource type="worksheet">
     <worksheetSource name="Jnl"/>
   </cacheSource>
@@ -1342,7 +2337,7 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="Item" numFmtId="0">
-      <sharedItems containsBlank="1" count="77">
+      <sharedItems containsBlank="1" count="79">
         <s v="JH.0682"/>
         <s v="JH.7471"/>
         <s v="JT.7708"/>
@@ -1391,6 +2386,9 @@
         <s v="前期修建借款"/>
         <s v="注册资本"/>
         <s v="accuInc"/>
+        <s v="已入库"/>
+        <s v="材料"/>
+        <s v="xxx"/>
         <s v="CD.0214" u="1"/>
         <s v="明月村-基础投资" u="1"/>
         <s v="水街-建设投资" u="1"/>
@@ -1414,7 +2412,6 @@
         <m u="1"/>
         <s v="?" u="1"/>
         <s v="TaoBao" u="1"/>
-        <s v="xxx" u="1"/>
         <s v="zzz" u="1"/>
         <s v="Alipay" u="1"/>
         <s v="div.withheld" u="1"/>
@@ -1423,7 +2420,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Bal" numFmtId="40">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-5217130.03" maxValue="25036191"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-10513383.689999999" maxValue="25036191"/>
     </cacheField>
     <cacheField name="IsValid" numFmtId="0">
       <sharedItems/>
@@ -1468,7 +2465,7 @@
       <sharedItems/>
     </cacheField>
     <cacheField name="NameBSLv2" numFmtId="0">
-      <sharedItems count="11">
+      <sharedItems count="12">
         <s v="0.现金-预售"/>
         <s v="1.应收-应付"/>
         <s v="2.预付-订阅"/>
@@ -1476,14 +2473,15 @@
         <s v="5.硬件设施"/>
         <s v="6.投资与长期负债"/>
         <s v="X.资本"/>
-        <s v="9.储备性权益"/>
+        <s v="9.蓄水池"/>
+        <s v="9.储备性权益" u="1"/>
         <s v="0.现金" u="1"/>
         <s v="0.待完成销售" u="1"/>
         <e v="#N/A" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="NameAcct" numFmtId="0">
-      <sharedItems count="21">
+      <sharedItems count="23">
         <s v="银行"/>
         <s v="物理现金"/>
         <s v="应收-一般"/>
@@ -1502,6 +2500,8 @@
         <s v="额外投入"/>
         <s v="原始资本"/>
         <s v="可分配利润"/>
+        <s v="往期存货"/>
+        <s v="往期存过" u="1"/>
         <e v="#N/A" u="1"/>
         <s v="应收账款-一般" u="1"/>
         <s v="应付账款-一般" u="1"/>
@@ -1535,7 +2535,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="79">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="85">
   <r>
     <s v="T0000"/>
     <d v="2025-12-31T00:00:00"/>
@@ -3116,12 +4116,132 @@
     <x v="17"/>
     <x v="4"/>
   </r>
+  <r>
+    <s v="T0000"/>
+    <d v="2025-12-31T00:00:00"/>
+    <s v="Ctrl"/>
+    <s v="forward"/>
+    <s v="HuaYuan"/>
+    <s v="Curr"/>
+    <x v="30"/>
+    <n v="-10513383.689999999"/>
+    <b v="1"/>
+    <n v="-10513383.689999999"/>
+    <x v="0"/>
+    <s v="Assets"/>
+    <x v="3"/>
+    <s v="Other"/>
+    <s v="Non-Op"/>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="T0000"/>
+    <d v="2025-12-31T00:00:00"/>
+    <s v="Ctrl"/>
+    <s v="forward"/>
+    <s v="HuaYuan"/>
+    <s v="Curr"/>
+    <x v="48"/>
+    <n v="3926374.9699999997"/>
+    <b v="1"/>
+    <n v="3926374.9699999997"/>
+    <x v="0"/>
+    <s v="Assets"/>
+    <x v="3"/>
+    <s v="Other"/>
+    <s v="Non-Op"/>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="T0000"/>
+    <d v="2025-12-31T00:00:00"/>
+    <s v="Ctrl"/>
+    <s v="forward"/>
+    <s v="HuaYuan"/>
+    <s v="Curr"/>
+    <x v="49"/>
+    <n v="2000000"/>
+    <b v="1"/>
+    <n v="2000000"/>
+    <x v="0"/>
+    <s v="Assets"/>
+    <x v="3"/>
+    <s v="Other"/>
+    <s v="Non-Op"/>
+    <x v="3"/>
+    <x v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="T0000"/>
+    <d v="2025-12-31T00:00:00"/>
+    <s v="Ctrl"/>
+    <s v="forward"/>
+    <s v="HuaYuan"/>
+    <s v="RE"/>
+    <x v="47"/>
+    <n v="-4587008.72"/>
+    <b v="1"/>
+    <n v="4587008.72"/>
+    <x v="1"/>
+    <s v="Equity"/>
+    <x v="7"/>
+    <s v="Other"/>
+    <s v="Non-Op"/>
+    <x v="7"/>
+    <x v="17"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="T0000"/>
+    <d v="2025-12-31T00:00:00"/>
+    <s v="Ctrl"/>
+    <s v="forward"/>
+    <s v="HuaYuan"/>
+    <s v="Old"/>
+    <x v="50"/>
+    <m/>
+    <b v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <s v="Assets"/>
+    <x v="3"/>
+    <s v="Other"/>
+    <s v="Non-Op"/>
+    <x v="3"/>
+    <x v="18"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="T0000"/>
+    <d v="2025-12-31T00:00:00"/>
+    <s v="Ctrl"/>
+    <s v="forward"/>
+    <s v="HuaYuan"/>
+    <s v="RE"/>
+    <x v="47"/>
+    <m/>
+    <b v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+    <s v="Equity"/>
+    <x v="7"/>
+    <s v="Other"/>
+    <s v="Non-Op"/>
+    <x v="7"/>
+    <x v="17"/>
+    <x v="0"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{086B7771-E2BB-4B00-A506-AF7420A21A62}" name="PivotTable2" cacheId="180" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" colGrandTotals="0" itemPrintTitles="1" mergeItem="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A1:E33" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{086B7771-E2BB-4B00-A506-AF7420A21A62}" name="PivotTable2" cacheId="127" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" colGrandTotals="0" itemPrintTitles="1" mergeItem="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:E34" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
     <pivotField numFmtId="164" showAll="0"/>
@@ -3129,18 +4249,18 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="78">
-        <item m="1" x="69"/>
+    <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="ascending">
+      <items count="80">
+        <item m="1" x="72"/>
+        <item m="1" x="77"/>
+        <item x="47"/>
         <item m="1" x="75"/>
-        <item x="47"/>
-        <item m="1" x="73"/>
         <item x="9"/>
         <item x="5"/>
         <item x="7"/>
         <item x="17"/>
-        <item m="1" x="48"/>
-        <item m="1" x="74"/>
+        <item m="1" x="51"/>
+        <item m="1" x="76"/>
         <item x="16"/>
         <item x="0"/>
         <item x="18"/>
@@ -3152,62 +4272,64 @@
         <item x="1"/>
         <item x="19"/>
         <item x="2"/>
-        <item m="1" x="76"/>
-        <item m="1" x="60"/>
-        <item m="1" x="59"/>
+        <item m="1" x="78"/>
+        <item m="1" x="63"/>
+        <item m="1" x="62"/>
         <item x="10"/>
         <item x="14"/>
         <item x="11"/>
         <item x="15"/>
-        <item m="1" x="58"/>
-        <item m="1" x="57"/>
-        <item m="1" x="70"/>
+        <item m="1" x="61"/>
+        <item m="1" x="60"/>
+        <item m="1" x="73"/>
         <item x="13"/>
-        <item m="1" x="71"/>
-        <item m="1" x="72"/>
-        <item m="1" x="63"/>
+        <item x="50"/>
+        <item m="1" x="74"/>
+        <item m="1" x="66"/>
         <item x="21"/>
         <item x="36"/>
-        <item m="1" x="66"/>
+        <item m="1" x="69"/>
         <item x="28"/>
         <item x="37"/>
         <item x="44"/>
         <item x="22"/>
         <item x="24"/>
-        <item m="1" x="51"/>
+        <item m="1" x="54"/>
         <item x="45"/>
         <item x="25"/>
-        <item m="1" x="55"/>
+        <item m="1" x="58"/>
         <item x="29"/>
+        <item m="1" x="67"/>
         <item m="1" x="64"/>
-        <item m="1" x="61"/>
-        <item m="1" x="53"/>
+        <item m="1" x="56"/>
         <item x="41"/>
         <item x="40"/>
+        <item x="48"/>
         <item x="20"/>
         <item x="43"/>
-        <item m="1" x="56"/>
+        <item m="1" x="59"/>
         <item x="31"/>
-        <item m="1" x="49"/>
+        <item m="1" x="52"/>
         <item x="32"/>
         <item x="33"/>
         <item x="30"/>
+        <item x="49"/>
         <item x="42"/>
         <item x="23"/>
         <item x="34"/>
-        <item m="1" x="50"/>
+        <item m="1" x="53"/>
         <item x="35"/>
         <item x="46"/>
-        <item m="1" x="67"/>
+        <item m="1" x="70"/>
         <item x="39"/>
+        <item m="1" x="68"/>
+        <item x="38"/>
         <item m="1" x="65"/>
-        <item x="38"/>
-        <item m="1" x="62"/>
-        <item m="1" x="54"/>
+        <item m="1" x="57"/>
         <item x="27"/>
         <item x="26"/>
-        <item m="1" x="52"/>
-        <item m="1" x="68"/>
+        <item m="1" x="55"/>
+        <item m="1" x="71"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3227,23 +4349,24 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="12">
-        <item m="1" x="8"/>
+      <items count="13">
         <item m="1" x="9"/>
+        <item m="1" x="10"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
         <item x="5"/>
+        <item m="1" x="8"/>
         <item x="7"/>
         <item x="6"/>
-        <item m="1" x="10"/>
+        <item m="1" x="11"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="22">
+      <items count="24">
         <item sd="0" x="15"/>
         <item sd="0" x="16"/>
         <item sd="0" x="17"/>
@@ -3251,20 +4374,22 @@
         <item sd="0" x="12"/>
         <item sd="0" x="11"/>
         <item sd="0" x="13"/>
-        <item sd="0" m="1" x="20"/>
+        <item sd="0" m="1" x="22"/>
         <item sd="0" x="2"/>
-        <item sd="0" m="1" x="19"/>
+        <item sd="0" m="1" x="21"/>
         <item x="7"/>
         <item sd="0" x="8"/>
         <item sd="0" x="9"/>
         <item sd="0" x="0"/>
         <item sd="0" x="1"/>
         <item sd="0" x="6"/>
-        <item m="1" x="18"/>
+        <item m="1" x="20"/>
         <item sd="0" x="5"/>
         <item sd="0" x="4"/>
         <item sd="0" x="14"/>
         <item sd="0" x="3"/>
+        <item sd="0" m="1" x="19"/>
+        <item sd="0" x="18"/>
         <item t="default" sd="0"/>
       </items>
     </pivotField>
@@ -3275,7 +4400,7 @@
     <field x="16"/>
     <field x="6"/>
   </rowFields>
-  <rowItems count="30">
+  <rowItems count="31">
     <i>
       <x v="2"/>
     </i>
@@ -3334,7 +4459,10 @@
       <x v="47"/>
     </i>
     <i r="2">
-      <x v="60"/>
+      <x v="53"/>
+    </i>
+    <i r="2">
+      <x v="62"/>
     </i>
     <i>
       <x v="6"/>
@@ -3349,13 +4477,13 @@
       <x v="12"/>
     </i>
     <i>
-      <x v="8"/>
+      <x v="9"/>
     </i>
     <i r="1">
       <x v="2"/>
     </i>
     <i>
-      <x v="9"/>
+      <x v="10"/>
     </i>
     <i r="1">
       <x/>
@@ -3391,11 +4519,11 @@
     <dataField name="Sum of Bal" fld="7" baseField="0" baseItem="0" numFmtId="38"/>
     <dataField name="perc" fld="7" showDataAs="percentOfCol" baseField="16" baseItem="3" numFmtId="10"/>
   </dataFields>
-  <formats count="4">
-    <format dxfId="12">
+  <formats count="9">
+    <format dxfId="84">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="83">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -3404,7 +4532,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="82">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -3416,7 +4544,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="81">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -3424,6 +4552,79 @@
           </reference>
           <reference field="10" count="1" selected="0">
             <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="67">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="15" count="1">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="66">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="15" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="16" count="1">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="65">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="4">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="15" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="16" count="1">
+            <x v="22"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="64">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="15" count="1">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="63">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="15" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="16" count="2">
+            <x v="10"/>
+            <x v="22"/>
           </reference>
         </references>
       </pivotArea>
@@ -3456,6 +4657,18 @@
     </conditionalFormat>
   </conditionalFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="6" type="valueNotBetween" evalOrder="-1" id="1" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters>
+            <customFilter operator="lessThan" val="-1E-3"/>
+            <customFilter operator="greaterThan" val="1E-3"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -3468,7 +4681,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F03C8F44-51F0-4988-B901-F73D54ED6F2F}" name="PivotTable1" cacheId="180" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" mergeItem="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F03C8F44-51F0-4988-B901-F73D54ED6F2F}" name="PivotTable1" cacheId="127" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" mergeItem="1" createdVersion="8" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:D28" firstHeaderRow="1" firstDataRow="2" firstDataCol="2" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="18">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -3478,12 +4691,12 @@
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="77">
-        <item m="1" x="69"/>
+      <items count="79">
+        <item m="1" x="72"/>
         <item x="9"/>
         <item x="5"/>
         <item x="7"/>
-        <item m="1" x="48"/>
+        <item m="1" x="51"/>
         <item x="16"/>
         <item x="0"/>
         <item x="18"/>
@@ -3500,62 +4713,64 @@
         <item x="11"/>
         <item x="15"/>
         <item x="13"/>
-        <item m="1" x="70"/>
+        <item m="1" x="73"/>
+        <item m="1" x="78"/>
+        <item m="1" x="62"/>
+        <item m="1" x="63"/>
+        <item m="1" x="60"/>
+        <item m="1" x="61"/>
+        <item x="50"/>
+        <item m="1" x="74"/>
+        <item m="1" x="75"/>
+        <item m="1" x="71"/>
+        <item x="47"/>
+        <item m="1" x="77"/>
         <item m="1" x="76"/>
-        <item m="1" x="59"/>
-        <item m="1" x="60"/>
-        <item m="1" x="57"/>
-        <item m="1" x="58"/>
-        <item m="1" x="71"/>
-        <item m="1" x="72"/>
-        <item m="1" x="73"/>
-        <item m="1" x="68"/>
-        <item x="47"/>
-        <item m="1" x="75"/>
-        <item m="1" x="74"/>
         <item x="17"/>
         <item x="20"/>
         <item x="21"/>
         <item x="22"/>
-        <item m="1" x="55"/>
+        <item m="1" x="58"/>
         <item x="24"/>
         <item x="38"/>
         <item x="26"/>
         <item x="27"/>
-        <item m="1" x="61"/>
+        <item m="1" x="64"/>
         <item x="36"/>
         <item x="37"/>
         <item x="39"/>
         <item x="40"/>
-        <item m="1" x="51"/>
-        <item m="1" x="52"/>
+        <item m="1" x="54"/>
+        <item m="1" x="55"/>
         <item x="45"/>
         <item x="46"/>
-        <item m="1" x="62"/>
-        <item m="1" x="63"/>
-        <item m="1" x="64"/>
         <item m="1" x="65"/>
         <item m="1" x="66"/>
         <item m="1" x="67"/>
+        <item m="1" x="68"/>
+        <item m="1" x="69"/>
+        <item m="1" x="70"/>
         <item x="28"/>
         <item x="29"/>
         <item x="30"/>
-        <item m="1" x="56"/>
+        <item m="1" x="59"/>
         <item x="33"/>
-        <item m="1" x="49"/>
-        <item m="1" x="50"/>
+        <item m="1" x="52"/>
+        <item m="1" x="53"/>
         <item x="35"/>
         <item x="25"/>
         <item x="23"/>
         <item x="41"/>
-        <item m="1" x="54"/>
-        <item m="1" x="53"/>
+        <item m="1" x="57"/>
+        <item m="1" x="56"/>
         <item x="44"/>
         <item x="42"/>
         <item x="43"/>
         <item x="31"/>
         <item x="32"/>
         <item x="34"/>
+        <item x="48"/>
+        <item x="49"/>
       </items>
       <autoSortScope>
         <pivotArea dataOnly="0" outline="0" fieldPosition="0">
@@ -3760,11 +4975,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{07209837-6C83-4BBC-9E05-466D8E45337D}" name="Trx" displayName="Trx" ref="A1:F2" totalsRowShown="0" headerRowDxfId="35">
-  <autoFilter ref="A1:F2" xr:uid="{07209837-6C83-4BBC-9E05-466D8E45337D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{07209837-6C83-4BBC-9E05-466D8E45337D}" name="Trx" displayName="Trx" ref="A1:F3" totalsRowShown="0" headerRowDxfId="91">
+  <autoFilter ref="A1:F3" xr:uid="{07209837-6C83-4BBC-9E05-466D8E45337D}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{F105BBBA-07BE-48EE-817A-250E3814BDFC}" name="Id"/>
-    <tableColumn id="2" xr3:uid="{90198A57-84E0-4FF2-A6FA-AA81A96E49BD}" name="Date" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{90198A57-84E0-4FF2-A6FA-AA81A96E49BD}" name="Date" dataDxfId="90"/>
     <tableColumn id="3" xr3:uid="{231C793D-9C6F-4B89-BC6D-1DCF5630A11C}" name="Division"/>
     <tableColumn id="4" xr3:uid="{1B3E9F40-C03A-4F2E-9F41-F9C4897D65AE}" name="Action"/>
     <tableColumn id="5" xr3:uid="{AC6C4E64-35C5-42B2-9EEB-564E7390898A}" name="IncNode"/>
@@ -3775,27 +4990,27 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{783E67F7-A626-4EB3-9931-2B8E4332E50D}" name="Jnl" displayName="Jnl" ref="A1:R80" totalsRowShown="0" headerRowDxfId="33">
-  <autoFilter ref="A1:R80" xr:uid="{783E67F7-A626-4EB3-9931-2B8E4332E50D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{783E67F7-A626-4EB3-9931-2B8E4332E50D}" name="Jnl" displayName="Jnl" ref="A1:R86" totalsRowShown="0" headerRowDxfId="89">
+  <autoFilter ref="A1:R86" xr:uid="{783E67F7-A626-4EB3-9931-2B8E4332E50D}"/>
   <tableColumns count="18">
-    <tableColumn id="1" xr3:uid="{71B2C84B-D5B0-48D0-AF75-7AA4E674435E}" name="TrxId"/>
-    <tableColumn id="2" xr3:uid="{7F3BB002-49F0-4622-91C3-EDE1BB39E037}" name="TrxDate" dataDxfId="32">
+    <tableColumn id="1" xr3:uid="{71B2C84B-D5B0-48D0-AF75-7AA4E674435E}" name="TrxId" dataCellStyle="Input"/>
+    <tableColumn id="2" xr3:uid="{7F3BB002-49F0-4622-91C3-EDE1BB39E037}" name="TrxDate" dataDxfId="74">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{5019CCD8-C251-41B8-8C65-1CECE1FEB799}" name="Division" dataDxfId="31">
+    <tableColumn id="3" xr3:uid="{5019CCD8-C251-41B8-8C65-1CECE1FEB799}" name="Division" dataDxfId="73">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Division],,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E7CB1B45-6F0A-4E0A-A77F-E495B0819870}" name="Action" dataDxfId="30">
+    <tableColumn id="4" xr3:uid="{E7CB1B45-6F0A-4E0A-A77F-E495B0819870}" name="Action" dataDxfId="72">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Action],,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{0610E7A0-7523-45EB-923A-5338328D8C72}" name="Vehicle" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{88A5FA68-A048-4D06-AB82-9CA2F2E65F13}" name="Acct"/>
-    <tableColumn id="6" xr3:uid="{8AFDC351-60CD-4DB0-A113-1B63BA458362}" name="Item" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{FB5E3CB7-3053-4DE8-9454-AD102CDEA2EE}" name="Bal" dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{474871EF-24BE-4230-A2C9-7BD22A94BE52}" name="IsValid" dataDxfId="26">
+    <tableColumn id="15" xr3:uid="{0610E7A0-7523-45EB-923A-5338328D8C72}" name="Vehicle" dataDxfId="71"/>
+    <tableColumn id="5" xr3:uid="{88A5FA68-A048-4D06-AB82-9CA2F2E65F13}" name="Acct" dataCellStyle="Input"/>
+    <tableColumn id="6" xr3:uid="{8AFDC351-60CD-4DB0-A113-1B63BA458362}" name="Item" dataDxfId="88" dataCellStyle="Input"/>
+    <tableColumn id="7" xr3:uid="{FB5E3CB7-3053-4DE8-9454-AD102CDEA2EE}" name="Bal" dataDxfId="70" dataCellStyle="Input"/>
+    <tableColumn id="9" xr3:uid="{474871EF-24BE-4230-A2C9-7BD22A94BE52}" name="IsValid" dataDxfId="69" dataCellStyle="Note">
       <calculatedColumnFormula>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{44F3569E-1FE6-44B2-B6E4-DAE85FBDB137}" name="NetBal" dataDxfId="25">
+    <tableColumn id="8" xr3:uid="{44F3569E-1FE6-44B2-B6E4-DAE85FBDB137}" name="NetBal" dataDxfId="68">
       <calculatedColumnFormula>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{2360B888-54E4-4D46-BEE4-CFC178D7B87B}" name="BSLv0">
@@ -3813,13 +5028,13 @@
     <tableColumn id="14" xr3:uid="{47A3BD5E-32C9-4C87-A6B9-3A4E06DF4708}" name="IncType">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Jnl[[#This Row],[IncNode]], config_IS[Node], config_IS[Type],,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{59AE45B9-EF65-4833-AE4C-9F11B24D0D43}" name="NameBSLv2" dataDxfId="24">
+    <tableColumn id="17" xr3:uid="{59AE45B9-EF65-4833-AE4C-9F11B24D0D43}" name="NameBSLv2" dataDxfId="87">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Jnl[[#This Row],[BSLv2]], dict[Key], dict[Name],,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{C6BD57E2-40E3-4AC5-8465-4FC651B85CA5}" name="NameAcct" dataDxfId="23">
+    <tableColumn id="16" xr3:uid="{C6BD57E2-40E3-4AC5-8465-4FC651B85CA5}" name="NameAcct" dataDxfId="86">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], dict[Key], dict[Name],,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{C4A7C1EE-FFA2-4B8A-966B-288D5A8071DA}" name="NameVehicle" dataDxfId="22">
+    <tableColumn id="18" xr3:uid="{C4A7C1EE-FFA2-4B8A-966B-288D5A8071DA}" name="NameVehicle" dataDxfId="85">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3828,13 +5043,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D710FA55-B813-4EE9-940D-CEF2A6B4B916}" name="config_BS" displayName="config_BS" ref="E1:H20" totalsRowShown="0" headerRowDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D710FA55-B813-4EE9-940D-CEF2A6B4B916}" name="config_BS" displayName="config_BS" ref="E1:H20" totalsRowShown="0" headerRowDxfId="80">
   <autoFilter ref="E1:H20" xr:uid="{D710FA55-B813-4EE9-940D-CEF2A6B4B916}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7EA695D1-870E-4C08-9342-BF09B98EA310}" name="Acct"/>
     <tableColumn id="2" xr3:uid="{4785D38E-57FF-472D-BE2B-62F7C8A8ED1D}" name="Lv2"/>
     <tableColumn id="3" xr3:uid="{7460FDAD-9A94-406A-990F-CA16E4C2EE37}" name="Lv1"/>
-    <tableColumn id="4" xr3:uid="{E4BB113B-98C5-4CEB-B566-D92BDD17941C}" name="Lv0" dataDxfId="20">
+    <tableColumn id="4" xr3:uid="{E4BB113B-98C5-4CEB-B566-D92BDD17941C}" name="Lv0" dataDxfId="79">
       <calculatedColumnFormula>IF(config_BS[[#This Row],[Lv1]]="Assets", "A","LC")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3843,7 +5058,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{07E118F9-B6DA-4BA1-A5F8-AD7436D892BF}" name="config_IS" displayName="config_IS" ref="J1:K7" totalsRowShown="0" headerRowDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{07E118F9-B6DA-4BA1-A5F8-AD7436D892BF}" name="config_IS" displayName="config_IS" ref="J1:K7" totalsRowShown="0" headerRowDxfId="78">
   <autoFilter ref="J1:K7" xr:uid="{07E118F9-B6DA-4BA1-A5F8-AD7436D892BF}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{86CD6291-3219-4E28-96CE-EB8E9F1ADA73}" name="Node"/>
@@ -3854,7 +5069,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{97331B0E-5F28-455D-81F4-B5C75AC8F63C}" name="config_div" displayName="config_div" ref="M1:N7" totalsRowShown="0" headerRowDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{97331B0E-5F28-455D-81F4-B5C75AC8F63C}" name="config_div" displayName="config_div" ref="M1:N7" totalsRowShown="0" headerRowDxfId="77">
   <autoFilter ref="M1:N7" xr:uid="{97331B0E-5F28-455D-81F4-B5C75AC8F63C}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{4A0976A9-F08D-4FC3-AC46-D492AA68F7E6}" name="Id"/>
@@ -3865,8 +5080,11 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{FAC21B85-0121-4FEF-8DDD-28E68900BCF7}" name="config_vehicle" displayName="config_vehicle" ref="P1:S14" totalsRowShown="0" headerRowDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{FAC21B85-0121-4FEF-8DDD-28E68900BCF7}" name="config_vehicle" displayName="config_vehicle" ref="P1:S14" totalsRowShown="0" headerRowDxfId="76">
   <autoFilter ref="P1:S14" xr:uid="{FAC21B85-0121-4FEF-8DDD-28E68900BCF7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="P2:S14">
+    <sortCondition ref="Q1:Q14"/>
+  </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{D098E912-7511-4647-9CD5-C7C1669169C3}" name="Id"/>
     <tableColumn id="2" xr3:uid="{974E95FB-0778-4F98-B419-06742B044B50}" name="Type"/>
@@ -3878,7 +5096,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8685134C-CD11-493E-AB79-5F297888CCE6}" name="dict" displayName="dict" ref="A1:C28" totalsRowShown="0" headerRowDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8685134C-CD11-493E-AB79-5F297888CCE6}" name="dict" displayName="dict" ref="A1:C28" totalsRowShown="0" headerRowDxfId="75">
   <autoFilter ref="A1:C28" xr:uid="{8685134C-CD11-493E-AB79-5F297888CCE6}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{E5A0AD05-34DE-4725-99E6-CE7AC7B8B5EA}" name="Key"/>
@@ -4192,29 +5410,29 @@
   <sheetPr codeName="Sheet2">
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" style="32" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.54296875" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="11.7265625" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" customWidth="1"/>
     <col min="6" max="6" width="37" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" customWidth="1"/>
+    <col min="7" max="7" width="28.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="22" t="s">
         <v>42</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -4232,9 +5450,9 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B2" s="32">
+        <v>161</v>
+      </c>
+      <c r="B2" s="23">
         <v>46022</v>
       </c>
       <c r="C2" t="s">
@@ -4245,15 +5463,35 @@
       </c>
       <c r="E2" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" s="23">
+        <v>46022</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{50238286-9FDA-4270-A137-4DEDC07F7916}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3" xr:uid="{50238286-9FDA-4270-A137-4DEDC07F7916}">
       <formula1>INDIRECT("config_IS[Node]")</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{2A9839A0-BEAC-420B-BAC2-7B57A3D95195}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{2A9839A0-BEAC-420B-BAC2-7B57A3D95195}">
       <formula1>INDIRECT("config_div[Id]")</formula1>
     </dataValidation>
   </dataValidations>
@@ -4269,30 +5507,30 @@
   <sheetPr codeName="Sheet3">
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:R80"/>
+  <dimension ref="A1:R88"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G69" sqref="G69"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H85" sqref="H85:H86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="7.26953125" customWidth="1"/>
+    <col min="2" max="2" width="9.7265625" customWidth="1"/>
+    <col min="3" max="3" width="7.26953125" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
-    <col min="11" max="14" width="12.28515625" customWidth="1"/>
-    <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" customWidth="1"/>
-    <col min="17" max="17" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.453125" customWidth="1"/>
+    <col min="8" max="8" width="15.81640625" customWidth="1"/>
+    <col min="9" max="9" width="9.54296875" customWidth="1"/>
+    <col min="10" max="10" width="13.1796875" customWidth="1"/>
+    <col min="11" max="14" width="12.26953125" customWidth="1"/>
+    <col min="15" max="15" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.26953125" customWidth="1"/>
+    <col min="17" max="17" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -4342,18 +5580,18 @@
         <v>56</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B2" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -4422,7 +5660,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B3" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -4491,7 +5729,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B4" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -4517,7 +5755,7 @@
       <c r="H4" s="21">
         <v>1597158.42</v>
       </c>
-      <c r="I4" s="11" t="b">
+      <c r="I4" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -4560,7 +5798,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B5" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -4586,7 +5824,7 @@
       <c r="H5" s="21">
         <v>2759122.91</v>
       </c>
-      <c r="I5" s="11" t="b">
+      <c r="I5" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -4629,7 +5867,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B6" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -4655,7 +5893,7 @@
       <c r="H6" s="21">
         <v>838646.21</v>
       </c>
-      <c r="I6" s="11" t="b">
+      <c r="I6" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -4698,7 +5936,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B7" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -4724,7 +5962,7 @@
       <c r="H7" s="21">
         <v>25540.15</v>
       </c>
-      <c r="I7" s="11" t="b">
+      <c r="I7" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -4767,7 +6005,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B8" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -4793,7 +6031,7 @@
       <c r="H8" s="21">
         <v>125030.24</v>
       </c>
-      <c r="I8" s="11" t="b">
+      <c r="I8" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -4836,7 +6074,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B9" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -4862,7 +6100,7 @@
       <c r="H9" s="21">
         <v>2000</v>
       </c>
-      <c r="I9" s="11" t="b">
+      <c r="I9" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -4905,7 +6143,7 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B10" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -4931,7 +6169,7 @@
       <c r="H10" s="21">
         <v>1012107.86</v>
       </c>
-      <c r="I10" s="11" t="b">
+      <c r="I10" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -4974,7 +6212,7 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B11" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -5000,7 +6238,7 @@
       <c r="H11" s="21">
         <v>1304</v>
       </c>
-      <c r="I11" s="11" t="b">
+      <c r="I11" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -5043,7 +6281,7 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B12" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -5069,7 +6307,7 @@
       <c r="H12" s="21">
         <v>174191.78</v>
       </c>
-      <c r="I12" s="11" t="b">
+      <c r="I12" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -5112,7 +6350,7 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B13" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -5138,7 +6376,7 @@
       <c r="H13" s="21">
         <v>21355.13</v>
       </c>
-      <c r="I13" s="11" t="b">
+      <c r="I13" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -5181,7 +6419,7 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B14" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -5207,7 +6445,7 @@
       <c r="H14" s="21">
         <v>143995.32</v>
       </c>
-      <c r="I14" s="11" t="b">
+      <c r="I14" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -5250,7 +6488,7 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B15" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -5276,7 +6514,7 @@
       <c r="H15" s="21">
         <v>435221.41</v>
       </c>
-      <c r="I15" s="11" t="b">
+      <c r="I15" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -5319,7 +6557,7 @@
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B16" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -5345,7 +6583,7 @@
       <c r="H16" s="21">
         <v>12977.6</v>
       </c>
-      <c r="I16" s="11" t="b">
+      <c r="I16" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -5388,7 +6626,7 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B17" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -5414,7 +6652,7 @@
       <c r="H17" s="21">
         <v>30900.25</v>
       </c>
-      <c r="I17" s="11" t="b">
+      <c r="I17" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -5457,7 +6695,7 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B18" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -5483,7 +6721,7 @@
       <c r="H18" s="21">
         <v>6917.42</v>
       </c>
-      <c r="I18" s="11" t="b">
+      <c r="I18" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -5526,7 +6764,7 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B19" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -5552,7 +6790,7 @@
       <c r="H19" s="21">
         <v>709.51</v>
       </c>
-      <c r="I19" s="11" t="b">
+      <c r="I19" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -5595,7 +6833,7 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B20" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -5616,12 +6854,12 @@
         <v>15</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H20" s="21">
         <v>20812</v>
       </c>
-      <c r="I20" s="11" t="b">
+      <c r="I20" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -5664,7 +6902,7 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B21" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -5690,7 +6928,7 @@
       <c r="H21" s="21">
         <v>630993.46</v>
       </c>
-      <c r="I21" s="11" t="b">
+      <c r="I21" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -5733,7 +6971,7 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B22" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -5759,7 +6997,7 @@
       <c r="H22" s="21">
         <v>20124.45</v>
       </c>
-      <c r="I22" s="11" t="b">
+      <c r="I22" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -5802,7 +7040,7 @@
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B23" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -5823,12 +7061,12 @@
         <v>121</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H23" s="21">
         <v>18526.13</v>
       </c>
-      <c r="I23" s="11" t="b">
+      <c r="I23" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -5871,7 +7109,7 @@
     </row>
     <row r="24" spans="1:18">
       <c r="A24" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B24" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -5889,15 +7127,15 @@
         <v>88</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H24" s="21">
         <v>2385.75</v>
       </c>
-      <c r="I24" s="11" t="b">
+      <c r="I24" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -5940,7 +7178,7 @@
     </row>
     <row r="25" spans="1:18">
       <c r="A25" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B25" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -5958,15 +7196,15 @@
         <v>88</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H25" s="21">
         <v>100000</v>
       </c>
-      <c r="I25" s="11" t="b">
+      <c r="I25" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -6009,7 +7247,7 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B26" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -6030,12 +7268,12 @@
         <v>121</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H26" s="21">
         <v>289043.94</v>
       </c>
-      <c r="I26" s="11" t="b">
+      <c r="I26" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -6078,7 +7316,7 @@
     </row>
     <row r="27" spans="1:18">
       <c r="A27" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B27" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -6096,15 +7334,15 @@
         <v>87</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H27" s="21">
         <v>24591.75</v>
       </c>
-      <c r="I27" s="11" t="b">
+      <c r="I27" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -6147,7 +7385,7 @@
     </row>
     <row r="28" spans="1:18">
       <c r="A28" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B28" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -6165,15 +7403,15 @@
         <v>87</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H28" s="21">
         <v>66888.95</v>
       </c>
-      <c r="I28" s="11" t="b">
+      <c r="I28" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -6216,7 +7454,7 @@
     </row>
     <row r="29" spans="1:18">
       <c r="A29" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B29" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -6237,12 +7475,12 @@
         <v>121</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H29" s="21">
         <v>4640.3</v>
       </c>
-      <c r="I29" s="11" t="b">
+      <c r="I29" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -6285,7 +7523,7 @@
     </row>
     <row r="30" spans="1:18">
       <c r="A30" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B30" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -6303,15 +7541,15 @@
         <v>114</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H30" s="21">
         <v>1474.3</v>
       </c>
-      <c r="I30" s="11" t="b">
+      <c r="I30" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -6354,7 +7592,7 @@
     </row>
     <row r="31" spans="1:18">
       <c r="A31" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B31" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -6372,15 +7610,15 @@
         <v>119</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H31" s="21">
         <v>3340.05</v>
       </c>
-      <c r="I31" s="11" t="b">
+      <c r="I31" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -6423,7 +7661,7 @@
     </row>
     <row r="32" spans="1:18">
       <c r="A32" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B32" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -6441,15 +7679,15 @@
         <v>91</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H32" s="21">
         <v>14294.35</v>
       </c>
-      <c r="I32" s="11" t="b">
+      <c r="I32" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -6492,7 +7730,7 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B33" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -6510,15 +7748,15 @@
         <v>92</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H33" s="21">
         <v>1431.45</v>
       </c>
-      <c r="I33" s="11" t="b">
+      <c r="I33" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -6561,7 +7799,7 @@
     </row>
     <row r="34" spans="1:18">
       <c r="A34" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B34" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -6579,15 +7817,15 @@
         <v>89</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H34" s="21">
         <v>11451.6</v>
       </c>
-      <c r="I34" s="11" t="b">
+      <c r="I34" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -6630,7 +7868,7 @@
     </row>
     <row r="35" spans="1:18">
       <c r="A35" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B35" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -6648,15 +7886,15 @@
         <v>89</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H35" s="21">
         <v>4000</v>
       </c>
-      <c r="I35" s="11" t="b">
+      <c r="I35" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -6699,7 +7937,7 @@
     </row>
     <row r="36" spans="1:18">
       <c r="A36" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B36" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -6720,12 +7958,12 @@
         <v>121</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H36" s="21">
         <v>12892.74</v>
       </c>
-      <c r="I36" s="11" t="b">
+      <c r="I36" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -6768,7 +8006,7 @@
     </row>
     <row r="37" spans="1:18">
       <c r="A37" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B37" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -6786,15 +8024,15 @@
         <v>89</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H37" s="21">
         <v>30000</v>
       </c>
-      <c r="I37" s="11" t="b">
+      <c r="I37" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -6837,7 +8075,7 @@
     </row>
     <row r="38" spans="1:18">
       <c r="A38" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B38" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -6851,19 +8089,19 @@
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Action],,0)</f>
         <v>forward</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="6" t="s">
         <v>90</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>121</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H38" s="21">
         <v>240013.22999999998</v>
       </c>
-      <c r="I38" s="11" t="b">
+      <c r="I38" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -6906,7 +8144,7 @@
     </row>
     <row r="39" spans="1:18">
       <c r="A39" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B39" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -6920,19 +8158,19 @@
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Action],,0)</f>
         <v>forward</v>
       </c>
-      <c r="E39" s="23" t="s">
+      <c r="E39" s="6" t="s">
         <v>90</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>121</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H39" s="21">
         <v>150000</v>
       </c>
-      <c r="I39" s="11" t="b">
+      <c r="I39" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -6975,7 +8213,7 @@
     </row>
     <row r="40" spans="1:18">
       <c r="A40" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B40" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -6989,19 +8227,19 @@
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Action],,0)</f>
         <v>forward</v>
       </c>
-      <c r="E40" s="23" t="s">
+      <c r="E40" s="6" t="s">
         <v>90</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H40" s="21">
         <v>38389.65</v>
       </c>
-      <c r="I40" s="11" t="b">
+      <c r="I40" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -7044,7 +8282,7 @@
     </row>
     <row r="41" spans="1:18">
       <c r="A41" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B41" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -7065,12 +8303,12 @@
         <v>121</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H41" s="21">
         <v>25551.3</v>
       </c>
-      <c r="I41" s="11" t="b">
+      <c r="I41" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -7113,7 +8351,7 @@
     </row>
     <row r="42" spans="1:18">
       <c r="A42" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B42" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -7134,12 +8372,12 @@
         <v>123</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H42" s="21">
         <v>130521.15</v>
       </c>
-      <c r="I42" s="11" t="b">
+      <c r="I42" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -7182,7 +8420,7 @@
     </row>
     <row r="43" spans="1:18">
       <c r="A43" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B43" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -7203,12 +8441,12 @@
         <v>123</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H43" s="21">
         <v>87645.27</v>
       </c>
-      <c r="I43" s="11" t="b">
+      <c r="I43" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -7251,7 +8489,7 @@
     </row>
     <row r="44" spans="1:18">
       <c r="A44" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B44" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -7272,12 +8510,12 @@
         <v>123</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H44" s="21">
         <v>99417.5</v>
       </c>
-      <c r="I44" s="11" t="b">
+      <c r="I44" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -7320,7 +8558,7 @@
     </row>
     <row r="45" spans="1:18">
       <c r="A45" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B45" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -7341,12 +8579,12 @@
         <v>123</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H45" s="21">
         <v>1225</v>
       </c>
-      <c r="I45" s="11" t="b">
+      <c r="I45" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -7389,7 +8627,7 @@
     </row>
     <row r="46" spans="1:18">
       <c r="A46" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B46" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -7403,19 +8641,19 @@
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Action],,0)</f>
         <v>forward</v>
       </c>
-      <c r="E46" s="22" t="s">
+      <c r="E46" s="6" t="s">
         <v>90</v>
       </c>
       <c r="F46" s="10" t="s">
         <v>124</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H46" s="21">
         <v>192761.82</v>
       </c>
-      <c r="I46" s="11" t="b">
+      <c r="I46" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -7458,7 +8696,7 @@
     </row>
     <row r="47" spans="1:18">
       <c r="A47" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B47" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -7479,12 +8717,12 @@
         <v>124</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H47" s="21">
         <v>242182.81</v>
       </c>
-      <c r="I47" s="11" t="b">
+      <c r="I47" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -7527,7 +8765,7 @@
     </row>
     <row r="48" spans="1:18">
       <c r="A48" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B48" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -7544,16 +8782,16 @@
       <c r="E48" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="F48" s="28" t="s">
+      <c r="F48" s="10" t="s">
         <v>124</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="H48" s="27">
+        <v>163</v>
+      </c>
+      <c r="H48" s="21">
         <v>10513383.689999999</v>
       </c>
-      <c r="I48" s="11" t="b">
+      <c r="I48" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -7596,7 +8834,7 @@
     </row>
     <row r="49" spans="1:18">
       <c r="A49" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B49" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -7610,19 +8848,19 @@
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Action],,0)</f>
         <v>forward</v>
       </c>
-      <c r="E49" s="22" t="s">
+      <c r="E49" s="6" t="s">
         <v>90</v>
       </c>
       <c r="F49" s="10" t="s">
         <v>129</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H49" s="21">
         <v>2949723.27</v>
       </c>
-      <c r="I49" s="11" t="b">
+      <c r="I49" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -7665,7 +8903,7 @@
     </row>
     <row r="50" spans="1:18">
       <c r="A50" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B50" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -7679,19 +8917,19 @@
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Action],,0)</f>
         <v>forward</v>
       </c>
-      <c r="E50" s="22" t="s">
+      <c r="E50" s="6" t="s">
         <v>90</v>
       </c>
       <c r="F50" s="10" t="s">
         <v>129</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H50" s="21">
         <v>21129338.43</v>
       </c>
-      <c r="I50" s="11" t="b">
+      <c r="I50" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -7719,22 +8957,22 @@
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[IncNode]], config_IS[Node], config_IS[Type],,0)</f>
         <v>Non-Op</v>
       </c>
-      <c r="P50" s="36" t="str">
+      <c r="P50" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[BSLv2]], dict[Key], dict[Name],,0)</f>
         <v>5.硬件设施</v>
       </c>
-      <c r="Q50" s="36" t="str">
+      <c r="Q50" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], dict[Key], dict[Name],,0)</f>
         <v>房地产</v>
       </c>
-      <c r="R50" s="36" t="str">
+      <c r="R50" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</f>
         <v>远家文化</v>
       </c>
     </row>
     <row r="51" spans="1:18">
       <c r="A51" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B51" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -7748,19 +8986,19 @@
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Action],,0)</f>
         <v>forward</v>
       </c>
-      <c r="E51" s="23" t="s">
+      <c r="E51" s="6" t="s">
         <v>90</v>
       </c>
       <c r="F51" s="10" t="s">
         <v>129</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H51" s="21">
         <v>-5217130.03</v>
       </c>
-      <c r="I51" s="11" t="b">
+      <c r="I51" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -7803,7 +9041,7 @@
     </row>
     <row r="52" spans="1:18">
       <c r="A52" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B52" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -7817,19 +9055,19 @@
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Action],,0)</f>
         <v>forward</v>
       </c>
-      <c r="E52" s="25" t="s">
+      <c r="E52" s="6" t="s">
         <v>114</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>129</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H52" s="21">
         <v>6467900</v>
       </c>
-      <c r="I52" s="11" t="b">
+      <c r="I52" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -7872,7 +9110,7 @@
     </row>
     <row r="53" spans="1:18">
       <c r="A53" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B53" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -7886,19 +9124,19 @@
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Action],,0)</f>
         <v>forward</v>
       </c>
-      <c r="E53" s="26" t="s">
+      <c r="E53" s="6" t="s">
         <v>114</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>129</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H53" s="21">
         <v>-1065602.3999999999</v>
       </c>
-      <c r="I53" s="11" t="b">
+      <c r="I53" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -7941,7 +9179,7 @@
     </row>
     <row r="54" spans="1:18">
       <c r="A54" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B54" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -7959,15 +9197,15 @@
         <v>88</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H54" s="21">
         <v>2000000</v>
       </c>
-      <c r="I54" s="24" t="b">
+      <c r="I54" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -8010,7 +9248,7 @@
     </row>
     <row r="55" spans="1:18">
       <c r="A55" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B55" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -8028,15 +9266,15 @@
         <v>88</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="G55" s="29" t="s">
-        <v>157</v>
+        <v>180</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>156</v>
       </c>
       <c r="H55" s="21">
         <v>100000</v>
       </c>
-      <c r="I55" s="24" t="b">
+      <c r="I55" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -8079,7 +9317,7 @@
     </row>
     <row r="56" spans="1:18">
       <c r="A56" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B56" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -8100,12 +9338,12 @@
         <v>122</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="H56" s="30">
+        <v>147</v>
+      </c>
+      <c r="H56" s="21">
         <v>6891.7999999999993</v>
       </c>
-      <c r="I56" s="11" t="b">
+      <c r="I56" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -8148,7 +9386,7 @@
     </row>
     <row r="57" spans="1:18">
       <c r="A57" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B57" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -8166,15 +9404,15 @@
         <v>88</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="G57" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="H57" s="30">
+        <v>136</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="H57" s="21">
         <v>30730.53</v>
       </c>
-      <c r="I57" s="11" t="b">
+      <c r="I57" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -8217,7 +9455,7 @@
     </row>
     <row r="58" spans="1:18">
       <c r="A58" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B58" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -8235,15 +9473,15 @@
         <v>88</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="H58" s="30">
+        <v>160</v>
+      </c>
+      <c r="H58" s="21">
         <v>37380.69</v>
       </c>
-      <c r="I58" s="11" t="b">
+      <c r="I58" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -8286,7 +9524,7 @@
     </row>
     <row r="59" spans="1:18">
       <c r="A59" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B59" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -8304,15 +9542,15 @@
         <v>87</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="G59" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="H59" s="30">
+        <v>136</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="H59" s="21">
         <v>441296.96</v>
       </c>
-      <c r="I59" s="11" t="b">
+      <c r="I59" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -8355,7 +9593,7 @@
     </row>
     <row r="60" spans="1:18">
       <c r="A60" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B60" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -8373,15 +9611,15 @@
         <v>87</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="H60" s="30">
+        <v>160</v>
+      </c>
+      <c r="H60" s="21">
         <v>454010.9</v>
       </c>
-      <c r="I60" s="11" t="b">
+      <c r="I60" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -8424,7 +9662,7 @@
     </row>
     <row r="61" spans="1:18">
       <c r="A61" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B61" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -8442,15 +9680,15 @@
         <v>114</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="G61" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="H61" s="30">
+        <v>136</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="H61" s="21">
         <v>5489.66</v>
       </c>
-      <c r="I61" s="11" t="b">
+      <c r="I61" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -8493,7 +9731,7 @@
     </row>
     <row r="62" spans="1:18">
       <c r="A62" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B62" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -8511,15 +9749,15 @@
         <v>114</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="H62" s="30">
+        <v>160</v>
+      </c>
+      <c r="H62" s="21">
         <v>34956.620000000003</v>
       </c>
-      <c r="I62" s="11" t="b">
+      <c r="I62" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -8562,7 +9800,7 @@
     </row>
     <row r="63" spans="1:18">
       <c r="A63" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B63" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -8580,15 +9818,15 @@
         <v>114</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="G63" s="29" t="s">
-        <v>216</v>
-      </c>
-      <c r="H63" s="30">
+        <v>140</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="H63" s="21">
         <v>2200</v>
       </c>
-      <c r="I63" s="11" t="b">
+      <c r="I63" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -8631,7 +9869,7 @@
     </row>
     <row r="64" spans="1:18">
       <c r="A64" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B64" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -8649,15 +9887,15 @@
         <v>119</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="H64" s="30">
+        <v>159</v>
+      </c>
+      <c r="H64" s="21">
         <v>15725.69</v>
       </c>
-      <c r="I64" s="11" t="b">
+      <c r="I64" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -8700,7 +9938,7 @@
     </row>
     <row r="65" spans="1:18">
       <c r="A65" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B65" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -8718,15 +9956,15 @@
         <v>119</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="G65" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="H65" s="30">
+        <v>206</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="H65" s="21">
         <v>33541.86</v>
       </c>
-      <c r="I65" s="11" t="b">
+      <c r="I65" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -8769,7 +10007,7 @@
     </row>
     <row r="66" spans="1:18">
       <c r="A66" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B66" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -8787,15 +10025,15 @@
         <v>91</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="H66" s="30">
+        <v>159</v>
+      </c>
+      <c r="H66" s="21">
         <v>42232.84</v>
       </c>
-      <c r="I66" s="11" t="b">
+      <c r="I66" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -8838,7 +10076,7 @@
     </row>
     <row r="67" spans="1:18">
       <c r="A67" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B67" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -8856,15 +10094,15 @@
         <v>91</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="G67" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="H67" s="30">
+        <v>206</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="H67" s="21">
         <v>76031.259999999995</v>
       </c>
-      <c r="I67" s="11" t="b">
+      <c r="I67" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -8907,7 +10145,7 @@
     </row>
     <row r="68" spans="1:18">
       <c r="A68" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B68" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -8925,15 +10163,15 @@
         <v>92</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="H68" s="30">
+        <v>159</v>
+      </c>
+      <c r="H68" s="21">
         <v>77772.66</v>
       </c>
-      <c r="I68" s="11" t="b">
+      <c r="I68" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -8976,7 +10214,7 @@
     </row>
     <row r="69" spans="1:18">
       <c r="A69" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B69" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -8994,15 +10232,15 @@
         <v>92</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="G69" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="H69" s="30">
+        <v>206</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="H69" s="21">
         <v>18440</v>
       </c>
-      <c r="I69" s="11" t="b">
+      <c r="I69" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -9045,7 +10283,7 @@
     </row>
     <row r="70" spans="1:18">
       <c r="A70" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B70" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -9063,15 +10301,15 @@
         <v>89</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="H70" s="30">
+        <v>159</v>
+      </c>
+      <c r="H70" s="21">
         <v>30461.37</v>
       </c>
-      <c r="I70" s="11" t="b">
+      <c r="I70" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -9114,7 +10352,7 @@
     </row>
     <row r="71" spans="1:18">
       <c r="A71" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B71" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -9132,15 +10370,15 @@
         <v>89</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="G71" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="H71" s="30">
+        <v>206</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="H71" s="21">
         <v>156507.97</v>
       </c>
-      <c r="I71" s="11" t="b">
+      <c r="I71" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -9183,7 +10421,7 @@
     </row>
     <row r="72" spans="1:18">
       <c r="A72" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B72" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -9201,15 +10439,15 @@
         <v>89</v>
       </c>
       <c r="F72" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="G72" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="G72" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="H72" s="30">
+      <c r="H72" s="21">
         <v>50507.19</v>
       </c>
-      <c r="I72" s="11" t="b">
+      <c r="I72" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -9252,7 +10490,7 @@
     </row>
     <row r="73" spans="1:18">
       <c r="A73" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B73" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -9270,15 +10508,15 @@
         <v>90</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="G73" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="H73" s="30">
+        <v>136</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="H73" s="21">
         <v>12351.18</v>
       </c>
-      <c r="I73" s="11" t="b">
+      <c r="I73" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -9321,7 +10559,7 @@
     </row>
     <row r="74" spans="1:18">
       <c r="A74" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B74" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -9339,15 +10577,15 @@
         <v>90</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="H74" s="30">
+        <v>160</v>
+      </c>
+      <c r="H74" s="21">
         <v>112127.37</v>
       </c>
-      <c r="I74" s="11" t="b">
+      <c r="I74" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -9390,7 +10628,7 @@
     </row>
     <row r="75" spans="1:18">
       <c r="A75" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B75" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -9408,15 +10646,15 @@
         <v>90</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="G75" s="29" t="s">
+        <v>214</v>
+      </c>
+      <c r="G75" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H75" s="30">
+      <c r="H75" s="21">
         <v>389468.04000000004</v>
       </c>
-      <c r="I75" s="11" t="b">
+      <c r="I75" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -9459,7 +10697,7 @@
     </row>
     <row r="76" spans="1:18">
       <c r="A76" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B76" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -9477,15 +10715,15 @@
         <v>90</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="H76" s="30">
+        <v>216</v>
+      </c>
+      <c r="H76" s="21">
         <v>5997.5</v>
       </c>
-      <c r="I76" s="11" t="b">
+      <c r="I76" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -9528,7 +10766,7 @@
     </row>
     <row r="77" spans="1:18">
       <c r="A77" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B77" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -9548,13 +10786,13 @@
       <c r="F77" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="G77" s="29" t="s">
-        <v>148</v>
-      </c>
-      <c r="H77" s="30">
+      <c r="G77" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="H77" s="21">
         <v>25551.3</v>
       </c>
-      <c r="I77" s="11" t="b">
+      <c r="I77" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -9597,7 +10835,7 @@
     </row>
     <row r="78" spans="1:18">
       <c r="A78" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B78" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -9615,15 +10853,15 @@
         <v>90</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="H78" s="30">
+        <v>157</v>
+      </c>
+      <c r="H78" s="21">
         <v>14402045</v>
       </c>
-      <c r="I78" s="11" t="b">
+      <c r="I78" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -9666,7 +10904,7 @@
     </row>
     <row r="79" spans="1:18">
       <c r="A79" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B79" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -9686,13 +10924,13 @@
       <c r="F79" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G79" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="H79" s="30">
+      <c r="G79" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="H79" s="21">
         <v>25036191</v>
       </c>
-      <c r="I79" s="11" t="b">
+      <c r="I79" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -9735,7 +10973,7 @@
     </row>
     <row r="80" spans="1:18">
       <c r="A80" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B80" s="6">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
@@ -9756,12 +10994,12 @@
         <v>19</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="H80" s="30">
+        <v>135</v>
+      </c>
+      <c r="H80" s="21">
         <v>7626715.7400000319</v>
       </c>
-      <c r="I80" s="11" t="b">
+      <c r="I80" s="4" t="b">
         <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
         <v>1</v>
       </c>
@@ -9791,7 +11029,7 @@
       </c>
       <c r="P80" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[BSLv2]], dict[Key], dict[Name],,0)</f>
-        <v>9.储备性权益</v>
+        <v>9.蓄水池</v>
       </c>
       <c r="Q80" t="str">
         <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], dict[Key], dict[Name],,0)</f>
@@ -9802,13 +11040,426 @@
         <v>喜家文化</v>
       </c>
     </row>
+    <row r="81" spans="1:18">
+      <c r="A81" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B81" s="6">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
+        <v>46022</v>
+      </c>
+      <c r="C81" s="6" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Division],,0)</f>
+        <v>Ctrl</v>
+      </c>
+      <c r="D81" s="6" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Action],,0)</f>
+        <v>forward</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="H81" s="21">
+        <v>-10513383.689999999</v>
+      </c>
+      <c r="I81" s="4" t="b">
+        <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J81" s="9">
+        <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
+        <v>-10513383.689999999</v>
+      </c>
+      <c r="K81" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
+        <v>A</v>
+      </c>
+      <c r="L81" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv1],,0)</f>
+        <v>Assets</v>
+      </c>
+      <c r="M81" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv2],,0)</f>
+        <v>Invtr</v>
+      </c>
+      <c r="N81" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[IncNode], ,0)</f>
+        <v>Other</v>
+      </c>
+      <c r="O81" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[IncNode]], config_IS[Node], config_IS[Type],,0)</f>
+        <v>Non-Op</v>
+      </c>
+      <c r="P81" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[BSLv2]], dict[Key], dict[Name],,0)</f>
+        <v>3.库存占款</v>
+      </c>
+      <c r="Q81" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], dict[Key], dict[Name],,0)</f>
+        <v>当期存货</v>
+      </c>
+      <c r="R81" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</f>
+        <v>远家花园</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
+      <c r="A82" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B82" s="6">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
+        <v>46022</v>
+      </c>
+      <c r="C82" s="6" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Division],,0)</f>
+        <v>Ctrl</v>
+      </c>
+      <c r="D82" s="6" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Action],,0)</f>
+        <v>forward</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G82" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="H82" s="21">
+        <v>3926374.9699999997</v>
+      </c>
+      <c r="I82" s="11" t="b">
+        <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J82" s="9">
+        <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
+        <v>3926374.9699999997</v>
+      </c>
+      <c r="K82" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
+        <v>A</v>
+      </c>
+      <c r="L82" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv1],,0)</f>
+        <v>Assets</v>
+      </c>
+      <c r="M82" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv2],,0)</f>
+        <v>Invtr</v>
+      </c>
+      <c r="N82" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[IncNode], ,0)</f>
+        <v>Other</v>
+      </c>
+      <c r="O82" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[IncNode]], config_IS[Node], config_IS[Type],,0)</f>
+        <v>Non-Op</v>
+      </c>
+      <c r="P82" s="29" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[BSLv2]], dict[Key], dict[Name],,0)</f>
+        <v>3.库存占款</v>
+      </c>
+      <c r="Q82" s="29" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], dict[Key], dict[Name],,0)</f>
+        <v>当期存货</v>
+      </c>
+      <c r="R82" s="29" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</f>
+        <v>远家花园</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
+      <c r="A83" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B83" s="6">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
+        <v>46022</v>
+      </c>
+      <c r="C83" s="6" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Division],,0)</f>
+        <v>Ctrl</v>
+      </c>
+      <c r="D83" s="6" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Action],,0)</f>
+        <v>forward</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G83" s="30" t="s">
+        <v>237</v>
+      </c>
+      <c r="H83" s="21">
+        <v>2000000</v>
+      </c>
+      <c r="I83" s="11" t="b">
+        <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J83" s="9">
+        <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
+        <v>2000000</v>
+      </c>
+      <c r="K83" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
+        <v>A</v>
+      </c>
+      <c r="L83" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv1],,0)</f>
+        <v>Assets</v>
+      </c>
+      <c r="M83" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv2],,0)</f>
+        <v>Invtr</v>
+      </c>
+      <c r="N83" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[IncNode], ,0)</f>
+        <v>Other</v>
+      </c>
+      <c r="O83" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[IncNode]], config_IS[Node], config_IS[Type],,0)</f>
+        <v>Non-Op</v>
+      </c>
+      <c r="P83" s="29" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[BSLv2]], dict[Key], dict[Name],,0)</f>
+        <v>3.库存占款</v>
+      </c>
+      <c r="Q83" s="29" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], dict[Key], dict[Name],,0)</f>
+        <v>当期存货</v>
+      </c>
+      <c r="R83" s="29" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</f>
+        <v>远家花园</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
+      <c r="A84" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B84" s="6">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
+        <v>46022</v>
+      </c>
+      <c r="C84" s="6" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Division],,0)</f>
+        <v>Ctrl</v>
+      </c>
+      <c r="D84" s="6" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Action],,0)</f>
+        <v>forward</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G84" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="H84" s="21">
+        <v>-4587008.72</v>
+      </c>
+      <c r="I84" s="11" t="b">
+        <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
+        <v>1</v>
+      </c>
+      <c r="J84" s="9">
+        <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
+        <v>4587008.72</v>
+      </c>
+      <c r="K84" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
+        <v>LC</v>
+      </c>
+      <c r="L84" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv1],,0)</f>
+        <v>Equity</v>
+      </c>
+      <c r="M84" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv2],,0)</f>
+        <v>Rsv</v>
+      </c>
+      <c r="N84" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[IncNode], ,0)</f>
+        <v>Other</v>
+      </c>
+      <c r="O84" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[IncNode]], config_IS[Node], config_IS[Type],,0)</f>
+        <v>Non-Op</v>
+      </c>
+      <c r="P84" s="29" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[BSLv2]], dict[Key], dict[Name],,0)</f>
+        <v>9.蓄水池</v>
+      </c>
+      <c r="Q84" s="29" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], dict[Key], dict[Name],,0)</f>
+        <v>可分配利润</v>
+      </c>
+      <c r="R84" s="29" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</f>
+        <v>远家花园</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
+      <c r="A85" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B85" s="6">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
+        <v>46022</v>
+      </c>
+      <c r="C85" s="6" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Division],,0)</f>
+        <v>Ctrl</v>
+      </c>
+      <c r="D85" s="6" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Action],,0)</f>
+        <v>forward</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="G85" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="H85" s="21"/>
+      <c r="I85" s="11" t="b">
+        <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J85" s="9">
+        <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
+        <v>0</v>
+      </c>
+      <c r="K85" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
+        <v>A</v>
+      </c>
+      <c r="L85" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv1],,0)</f>
+        <v>Assets</v>
+      </c>
+      <c r="M85" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv2],,0)</f>
+        <v>Invtr</v>
+      </c>
+      <c r="N85" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[IncNode], ,0)</f>
+        <v>Other</v>
+      </c>
+      <c r="O85" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[IncNode]], config_IS[Node], config_IS[Type],,0)</f>
+        <v>Non-Op</v>
+      </c>
+      <c r="P85" s="29" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[BSLv2]], dict[Key], dict[Name],,0)</f>
+        <v>3.库存占款</v>
+      </c>
+      <c r="Q85" s="29" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], dict[Key], dict[Name],,0)</f>
+        <v>往期存货</v>
+      </c>
+      <c r="R85" s="29" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</f>
+        <v>远家花园</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
+      <c r="A86" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B86" s="6">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Date],,0)</f>
+        <v>46022</v>
+      </c>
+      <c r="C86" s="6" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Division],,0)</f>
+        <v>Ctrl</v>
+      </c>
+      <c r="D86" s="6" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[Action],,0)</f>
+        <v>forward</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G86" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="H86" s="21"/>
+      <c r="I86" s="11" t="b">
+        <f>AND(Jnl[[#This Row],[TrxId]]&lt;&gt;"",Jnl[[#This Row],[Acct]]&lt;&gt;"",Jnl[[#This Row],[Item]]&lt;&gt;"",ISNUMBER(Jnl[[#This Row],[Bal]]))</f>
+        <v>0</v>
+      </c>
+      <c r="J86" s="9">
+        <f>IF(Jnl[[#This Row],[BSLv0]]="A",1,-1)*Jnl[[#This Row],[Bal]]</f>
+        <v>0</v>
+      </c>
+      <c r="K86" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv0],,0)</f>
+        <v>LC</v>
+      </c>
+      <c r="L86" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv1],,0)</f>
+        <v>Equity</v>
+      </c>
+      <c r="M86" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], config_BS[Acct], config_BS[Lv2],,0)</f>
+        <v>Rsv</v>
+      </c>
+      <c r="N86" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[TrxId]], Trx[Id], Trx[IncNode], ,0)</f>
+        <v>Other</v>
+      </c>
+      <c r="O86" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[IncNode]], config_IS[Node], config_IS[Type],,0)</f>
+        <v>Non-Op</v>
+      </c>
+      <c r="P86" s="29" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[BSLv2]], dict[Key], dict[Name],,0)</f>
+        <v>9.蓄水池</v>
+      </c>
+      <c r="Q86" s="29" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Acct]], dict[Key], dict[Name],,0)</f>
+        <v>可分配利润</v>
+      </c>
+      <c r="R86" s="29" t="str">
+        <f>_xlfn.XLOOKUP(Jnl[[#This Row],[Vehicle]],config_vehicle[Id], config_vehicle[Name],,0)</f>
+        <v>远家花园</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
+      <c r="H88" s="9"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F80" xr:uid="{27180EBA-4775-47D1-B40D-F072FAF2E681}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F86" xr:uid="{27180EBA-4775-47D1-B40D-F072FAF2E681}">
       <formula1>INDIRECT("config_BS[Acct]")</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E80" xr:uid="{8960B149-D376-4904-8B46-36BCE9B84524}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E86" xr:uid="{8960B149-D376-4904-8B46-36BCE9B84524}">
       <formula1>INDIRECT("config_vehicle[Id]")</formula1>
     </dataValidation>
   </dataValidations>
@@ -9826,624 +11477,778 @@
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.7109375" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="13.26953125" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.90625" customWidth="1"/>
+    <col min="12" max="12" width="16.7265625" customWidth="1"/>
+    <col min="13" max="13" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="5"/>
       <c r="B1" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
-      <c r="H1" s="1" t="s">
-        <v>229</v>
-      </c>
+      <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="M1" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="N1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="N1" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="5"/>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="34" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="H2" t="s">
-        <v>228</v>
-      </c>
-      <c r="I2" s="8">
+      <c r="E2" s="27"/>
+      <c r="H2" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="I2" s="28">
+        <v>58333810.554496594</v>
+      </c>
+      <c r="N2" t="s">
+        <v>225</v>
+      </c>
+      <c r="O2" s="9">
         <f>SUMIFS(Jnl[NetBal], Jnl[TrxDate], "&lt;"&amp;config_inception)</f>
         <v>0</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="M2" s="37" t="s">
-        <v>233</v>
+      <c r="P2" s="2" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B3" s="17" t="s">
         <v>118</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D3" s="17" t="s">
         <v>118</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="M3" t="s">
-        <v>203</v>
-      </c>
-      <c r="N3" s="33">
-        <v>0.5</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="14" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B4" s="9">
         <v>10454343.130000001</v>
       </c>
-      <c r="C4" s="33">
-        <v>0.2128126800425317</v>
+      <c r="C4" s="24">
+        <v>0.23473063833862232</v>
       </c>
       <c r="D4" s="9">
         <v>439975.23000000004</v>
       </c>
-      <c r="E4" s="33">
-        <v>8.9563071236814489E-3</v>
-      </c>
-      <c r="M4" t="s">
-        <v>231</v>
-      </c>
-      <c r="N4" s="33">
-        <v>1</v>
+      <c r="E4" s="24">
+        <v>9.8787332027318007E-3</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="I4" s="28">
+        <v>13209505.352789778</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="L4" s="33">
+        <f>I4/I2</f>
+        <v>0.22644681064421804</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B5" s="9">
         <v>10404686.98</v>
       </c>
-      <c r="C5" s="33">
-        <v>0.21180186011528351</v>
+      <c r="C5" s="24">
+        <v>0.23361571226034095</v>
       </c>
       <c r="D5" s="9"/>
-      <c r="E5" s="33">
+      <c r="E5" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B6" s="9">
         <v>49656.15</v>
       </c>
-      <c r="C6" s="33">
-        <v>1.0108199272481657E-3</v>
+      <c r="C6" s="24">
+        <v>1.1149260782813411E-3</v>
       </c>
       <c r="D6" s="9"/>
-      <c r="E6" s="33">
+      <c r="E6" s="24">
         <v>0</v>
       </c>
-      <c r="M6" s="37" t="s">
+      <c r="H6" s="25" t="s">
         <v>234</v>
+      </c>
+      <c r="I6" s="31">
+        <f>SUMIFS(Jnl[Bal], Jnl[BSLv2], "Cap")</f>
+        <v>39438236</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="L6" s="33">
+        <f>I4/I6</f>
+        <v>0.33494158696118603</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="15" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="33">
+      <c r="C7" s="24">
         <v>0</v>
       </c>
       <c r="D7" s="9">
         <v>439975.23000000004</v>
       </c>
-      <c r="E7" s="33">
-        <v>8.9563071236814489E-3</v>
-      </c>
-      <c r="M7" t="s">
-        <v>235</v>
-      </c>
-      <c r="N7" t="s">
-        <v>236</v>
-      </c>
+      <c r="E7" s="24">
+        <v>9.8787332027318007E-3</v>
+      </c>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B8" s="9">
-        <v>799636.89</v>
-      </c>
-      <c r="C8" s="33">
-        <v>1.6277719939519059E-2</v>
+        <v>799636.8899999999</v>
+      </c>
+      <c r="C8" s="24">
+        <v>1.7954191410666915E-2</v>
       </c>
       <c r="D8" s="9">
         <v>1619698.1600000001</v>
       </c>
-      <c r="E8" s="33">
-        <v>3.2971206512288742E-2</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>241</v>
+      <c r="E8" s="24">
+        <v>3.6366970003278605E-2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="15" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="33">
+      <c r="C9" s="24">
         <v>0</v>
       </c>
       <c r="D9" s="9">
         <v>32443.1</v>
       </c>
-      <c r="E9" s="33">
-        <v>6.604243780821698E-4</v>
-      </c>
-      <c r="I9" s="9">
-        <v>13209505.352789778</v>
+      <c r="E9" s="24">
+        <v>7.2844266521446678E-4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="33">
+      <c r="C10" s="24">
         <v>0</v>
       </c>
       <c r="D10" s="9">
         <v>922996.67</v>
       </c>
-      <c r="E10" s="33">
-        <v>1.8788879661828361E-2</v>
-      </c>
-      <c r="H10" t="s">
-        <v>244</v>
-      </c>
-      <c r="J10" s="9">
-        <v>5000000</v>
-      </c>
-      <c r="K10" s="9">
-        <v>7626715.7400000319</v>
+      <c r="E10" s="24">
+        <v>2.0723979961189829E-2</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B11" s="9"/>
-      <c r="C11" s="33">
+      <c r="C11" s="24">
         <v>0</v>
       </c>
       <c r="D11" s="9">
         <v>656060.89</v>
       </c>
-      <c r="E11" s="33">
-        <v>1.3355030969983904E-2</v>
-      </c>
+      <c r="E11" s="24">
+        <v>1.4730489480184544E-2</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="33">
+      <c r="C12" s="24">
         <v>0</v>
       </c>
       <c r="D12" s="9">
         <v>8197.5</v>
       </c>
-      <c r="E12" s="33">
-        <v>1.6687150239430223E-4</v>
-      </c>
-      <c r="I12" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="J12" s="38">
-        <f>I9-J10</f>
-        <v>8209505.3527897783</v>
+      <c r="E12" s="24">
+        <v>1.8405789668976121E-4</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="I12" s="35">
+        <v>13399451.129999999</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="15" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B13" s="9">
-        <v>740667.64</v>
-      </c>
-      <c r="C13" s="33">
-        <v>1.5077318921822786E-2</v>
+        <v>740667.6399999999</v>
+      </c>
+      <c r="C13" s="24">
+        <v>1.6630158946577534E-2</v>
       </c>
       <c r="D13" s="9"/>
-      <c r="E13" s="33">
+      <c r="E13" s="24">
         <v>0</v>
-      </c>
-      <c r="M13" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="P13" s="9">
-        <v>10513383.689999999</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="15" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B14" s="9">
         <v>58969.249999999993</v>
       </c>
-      <c r="C14" s="33">
-        <v>1.2004010176962748E-3</v>
+      <c r="C14" s="24">
+        <v>1.3240324640893819E-3</v>
       </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="33">
+      <c r="E14" s="24">
         <v>0</v>
       </c>
-      <c r="I14" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="N14" s="37" t="s">
-        <v>237</v>
-      </c>
-      <c r="P14" s="9">
-        <v>5000000</v>
+      <c r="H14" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="I14" s="9">
+        <f>K14+K18</f>
+        <v>5926374.9699999997</v>
+      </c>
+      <c r="J14" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="K14" s="31">
+        <f>SUM(K15:K16)</f>
+        <v>3926374.9699999997</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B15" s="9">
         <v>558087.52</v>
       </c>
-      <c r="C15" s="33">
-        <v>1.1360646895993934E-2</v>
+      <c r="C15" s="24">
+        <v>1.2530700225679184E-2</v>
       </c>
       <c r="D15" s="9"/>
-      <c r="E15" s="33">
+      <c r="E15" s="24">
         <v>0</v>
       </c>
-      <c r="I15" t="s">
-        <v>243</v>
-      </c>
-      <c r="J15" s="8"/>
+      <c r="J15" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="K15" s="9">
+        <v>1038997.53</v>
+      </c>
+      <c r="L15" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B16" s="9">
         <v>318808.92</v>
       </c>
-      <c r="C16" s="33">
-        <v>6.4897985309063672E-3</v>
+      <c r="C16" s="24">
+        <v>7.1581944813826634E-3</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="33">
+      <c r="E16" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="H16" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="I16" s="31">
+        <f>I12-I14</f>
+        <v>7473076.1599999992</v>
+      </c>
+      <c r="J16" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="K16" s="34">
+        <v>2887377.44</v>
+      </c>
+      <c r="L16" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="15" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B17" s="9">
         <v>30000</v>
       </c>
-      <c r="C17" s="33">
-        <v>6.1069168305325655E-4</v>
+      <c r="C17" s="24">
+        <v>6.7358791103297835E-4</v>
       </c>
       <c r="D17" s="9"/>
-      <c r="E17" s="33">
+      <c r="E17" s="24">
         <v>0</v>
       </c>
-      <c r="I17" t="s">
-        <v>246</v>
-      </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="J17" s="36"/>
+      <c r="M17" s="9"/>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="15" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B18" s="9">
         <v>209278.6</v>
       </c>
-      <c r="C18" s="33">
-        <v>4.2601566820343086E-3</v>
+      <c r="C18" s="24">
+        <v>4.6989178332635427E-3</v>
       </c>
       <c r="D18" s="9"/>
-      <c r="E18" s="33">
+      <c r="E18" s="24">
         <v>0</v>
       </c>
-      <c r="L18" s="9"/>
-      <c r="N18" s="37" t="s">
-        <v>239</v>
-      </c>
-      <c r="P18" s="9">
-        <f>P13-P14</f>
-        <v>5513383.6899999995</v>
-      </c>
-      <c r="Q18">
+      <c r="I18" s="9"/>
+      <c r="J18" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="K18" s="9">
+        <v>2000000</v>
+      </c>
+      <c r="L18" t="s">
+        <v>240</v>
+      </c>
+      <c r="M18" s="9"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="38" t="s">
+        <v>192</v>
+      </c>
+      <c r="B19" s="39">
+        <v>6361319.5999999996</v>
+      </c>
+      <c r="C19" s="24">
+        <v>0.14283026602590471</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="B19" s="9">
-        <v>10948328.32</v>
-      </c>
-      <c r="C19" s="33">
-        <v>0.22286843494534778</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="33">
+    <row r="20" spans="1:13">
+      <c r="A20" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="B20" s="39">
+        <v>6361319.5999999996</v>
+      </c>
+      <c r="C20" s="24">
+        <v>0.14283026602590471</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="B20" s="9">
-        <v>10948328.32</v>
-      </c>
-      <c r="C20" s="33">
-        <v>0.22286843494534778</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:13">
       <c r="A21" s="18" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B21" s="9">
         <v>192761.82</v>
       </c>
-      <c r="C21" s="33">
-        <v>3.923934676140297E-3</v>
+      <c r="C21" s="24">
+        <v>4.3280677220238328E-3</v>
       </c>
       <c r="D21" s="9"/>
-      <c r="E21" s="33">
+      <c r="E21" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="H21" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="I21">
+        <v>10</v>
+      </c>
+      <c r="J21" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="18" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B22" s="9">
         <v>242182.81</v>
       </c>
-      <c r="C22" s="33">
-        <v>4.9299675948489014E-3</v>
+      <c r="C22" s="24">
+        <v>5.4377137691998898E-3</v>
       </c>
       <c r="D22" s="9"/>
-      <c r="E22" s="33">
+      <c r="E22" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="H22" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="I22" s="34">
+        <f>I2/I21</f>
+        <v>5833381.055449659</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="18" t="s">
-        <v>163</v>
+        <v>235</v>
       </c>
       <c r="B23" s="9">
-        <v>10513383.689999999</v>
-      </c>
-      <c r="C23" s="33">
-        <v>0.21401453267435855</v>
+        <v>3926374.9699999997</v>
+      </c>
+      <c r="C23" s="24">
+        <v>8.81586237991491E-2</v>
       </c>
       <c r="D23" s="9"/>
-      <c r="E23" s="33">
+      <c r="E23" s="24">
         <v>0</v>
       </c>
-      <c r="J23" s="37"/>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="14" t="s">
-        <v>195</v>
+      <c r="J23" s="25"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="18" t="s">
+        <v>237</v>
       </c>
       <c r="B24" s="9">
-        <v>24264229.27</v>
-      </c>
-      <c r="C24" s="33">
-        <v>0.49393210036287971</v>
+        <v>2000000</v>
+      </c>
+      <c r="C24" s="24">
+        <v>4.4905860735531891E-2</v>
       </c>
       <c r="D24" s="9"/>
-      <c r="E24" s="33">
+      <c r="E24" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
-      <c r="A25" s="15" t="s">
-        <v>180</v>
+    <row r="25" spans="1:13">
+      <c r="A25" s="14" t="s">
+        <v>193</v>
       </c>
       <c r="B25" s="9">
         <v>24264229.27</v>
       </c>
-      <c r="C25" s="33">
-        <v>0.49393210036287971</v>
+      <c r="C25" s="24">
+        <v>0.5448030502268183</v>
       </c>
       <c r="D25" s="9"/>
-      <c r="E25" s="33">
+      <c r="E25" s="24">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="A26" s="14" t="s">
-        <v>196</v>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="15" t="s">
+        <v>178</v>
       </c>
       <c r="B26" s="9">
-        <v>2100000</v>
-      </c>
-      <c r="C26" s="33">
-        <v>4.2748417813727957E-2</v>
+        <v>24264229.27</v>
+      </c>
+      <c r="C26" s="24">
+        <v>0.5448030502268183</v>
       </c>
       <c r="D26" s="9"/>
-      <c r="E26" s="33">
+      <c r="E26" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
-      <c r="A27" s="15" t="s">
-        <v>181</v>
+    <row r="27" spans="1:13">
+      <c r="A27" s="14" t="s">
+        <v>194</v>
       </c>
       <c r="B27" s="9">
         <v>2100000</v>
       </c>
-      <c r="C27" s="33">
-        <v>4.2748417813727957E-2</v>
+      <c r="C27" s="24">
+        <v>4.7151153772308482E-2</v>
       </c>
       <c r="D27" s="9"/>
-      <c r="E27" s="33">
+      <c r="E27" s="24">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="33">
+    <row r="28" spans="1:13">
+      <c r="A28" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28" s="9">
+        <v>2100000</v>
+      </c>
+      <c r="C28" s="24">
+        <v>4.7151153772308482E-2</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="24">
         <v>0</v>
       </c>
-      <c r="D28" s="9">
-        <v>7626715.7400000319</v>
-      </c>
-      <c r="E28" s="33">
-        <v>0.15525239571431262</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="A29" s="15" t="s">
+      <c r="H28" t="s">
+        <v>253</v>
+      </c>
+      <c r="I28" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="24">
+        <v>0</v>
+      </c>
+      <c r="D29" s="9">
+        <v>3039707.0200000321</v>
+      </c>
+      <c r="E29" s="24">
+        <v>6.8250330058470005E-2</v>
+      </c>
+      <c r="I29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="24">
+        <v>0</v>
+      </c>
+      <c r="D30" s="9">
+        <v>3039707.0200000321</v>
+      </c>
+      <c r="E30" s="24">
+        <v>6.8250330058470005E-2</v>
+      </c>
+      <c r="H30" t="s">
+        <v>254</v>
+      </c>
+      <c r="I30" s="9">
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>255</v>
+      </c>
+      <c r="K30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="24">
+        <v>0</v>
+      </c>
+      <c r="D31" s="9">
+        <v>39438236</v>
+      </c>
+      <c r="E31" s="24">
+        <v>0.88550396673551957</v>
+      </c>
+      <c r="H31" t="s">
+        <v>256</v>
+      </c>
+      <c r="I31" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="33">
+      <c r="B32" s="9"/>
+      <c r="C32" s="24">
         <v>0</v>
       </c>
-      <c r="D29" s="9">
-        <v>7626715.7400000319</v>
-      </c>
-      <c r="E29" s="33">
-        <v>0.15525239571431262</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="A30" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="33">
+      <c r="D32" s="9">
+        <v>14402045</v>
+      </c>
+      <c r="E32" s="24">
+        <v>0.32336811353843148</v>
+      </c>
+      <c r="I32" s="9">
         <v>0</v>
       </c>
-      <c r="D30" s="9">
-        <v>39438236</v>
-      </c>
-      <c r="E30" s="33">
-        <v>0.80282009064971716</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="A31" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="33">
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="24">
         <v>0</v>
       </c>
-      <c r="D31" s="9">
-        <v>14402045</v>
-      </c>
-      <c r="E31" s="33">
-        <v>0.29317363668195773</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="A32" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="33">
+      <c r="D33" s="9">
+        <v>25036191</v>
+      </c>
+      <c r="E33" s="24">
+        <v>0.56213585319708803</v>
+      </c>
+      <c r="H33" t="s">
+        <v>257</v>
+      </c>
+      <c r="I33" s="9">
+        <v>4</v>
+      </c>
+      <c r="J33" t="s">
+        <v>258</v>
+      </c>
+      <c r="K33">
+        <v>30</v>
+      </c>
+      <c r="L33" s="9">
+        <f>K30-I33</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34" s="9">
+        <v>44537616.410000004</v>
+      </c>
+      <c r="C34" s="24">
+        <v>1</v>
+      </c>
+      <c r="D34" s="9">
+        <v>44537616.410000034</v>
+      </c>
+      <c r="E34" s="24">
+        <v>1</v>
+      </c>
+      <c r="I34" s="9">
         <v>0</v>
       </c>
-      <c r="D32" s="9">
-        <v>25036191</v>
-      </c>
-      <c r="E32" s="33">
-        <v>0.50964645396775943</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="B33" s="9">
-        <v>49124625.129999995</v>
-      </c>
-      <c r="C33" s="33">
-        <v>1</v>
-      </c>
-      <c r="D33" s="9">
-        <v>49124625.130000032</v>
-      </c>
-      <c r="E33" s="33">
-        <v>1</v>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="H35" t="s">
+        <v>259</v>
+      </c>
+      <c r="I35" s="9">
+        <f>I33*K33</f>
+        <v>120</v>
+      </c>
+      <c r="K35" s="24">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="I36" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="H37" t="s">
+        <v>260</v>
+      </c>
+      <c r="I37" s="9">
+        <f>I35*K35*-1</f>
+        <v>-96</v>
+      </c>
+      <c r="J37" t="s">
+        <v>256</v>
+      </c>
+      <c r="K37" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="H39" t="s">
+        <v>261</v>
+      </c>
+      <c r="I39" s="9">
+        <f>I35+I37</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="H41" t="s">
+        <v>262</v>
+      </c>
+      <c r="I41">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="H43" t="s">
+        <v>228</v>
+      </c>
+      <c r="I43" s="9">
+        <f>I39+I41</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -10452,7 +12257,7 @@
     <mergeCell ref="D2:E2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting pivot="1" sqref="C4:C33 E4:E33">
+  <conditionalFormatting pivot="1" sqref="C4:C34 E4:E34">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -10481,7 +12286,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C4:C33 E4:E33</xm:sqref>
+          <xm:sqref>C4:C34 E4:E34</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -10496,26 +12301,26 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1796875" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" customWidth="1"/>
+    <col min="5" max="6" width="17.1796875" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.26953125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -10523,7 +12328,7 @@
         <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -10539,13 +12344,13 @@
         <v>49</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>118</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -10647,7 +12452,7 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="26" t="s">
         <v>110</v>
       </c>
       <c r="B12" s="17" t="s">
@@ -10661,7 +12466,7 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="35"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="17" t="s">
         <v>78</v>
       </c>
@@ -10730,7 +12535,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="17" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B18" s="17" t="s">
         <v>66</v>
@@ -10786,7 +12591,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B22" s="17" t="s">
         <v>70</v>
@@ -10869,10 +12674,10 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="B28" s="35"/>
+      <c r="A28" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" s="27"/>
       <c r="C28" s="8">
         <v>10894318.360000003</v>
       </c>
@@ -10930,27 +12735,27 @@
   </sheetPr>
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R24" sqref="R24"/>
+      <selection pane="bottomLeft" activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
-    <col min="6" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" customWidth="1"/>
-    <col min="14" max="14" width="20.5703125" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" customWidth="1"/>
-    <col min="18" max="18" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.54296875" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" customWidth="1"/>
+    <col min="6" max="7" width="13.26953125" customWidth="1"/>
+    <col min="8" max="8" width="10.7265625" customWidth="1"/>
+    <col min="10" max="10" width="12.7265625" customWidth="1"/>
+    <col min="11" max="11" width="13.26953125" customWidth="1"/>
+    <col min="13" max="13" width="11.7265625" customWidth="1"/>
+    <col min="14" max="14" width="20.54296875" customWidth="1"/>
+    <col min="16" max="16" width="12.453125" customWidth="1"/>
+    <col min="17" max="17" width="11.26953125" customWidth="1"/>
+    <col min="18" max="18" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="41.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -11010,7 +12815,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -11023,7 +12828,7 @@
         <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M2" t="s">
         <v>30</v>
@@ -11032,16 +12837,16 @@
         <v>31</v>
       </c>
       <c r="P2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="Q2" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="R2" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -11058,7 +12863,7 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
@@ -11077,19 +12882,19 @@
         <v>32</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P3" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="Q3" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="R3" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -11128,21 +12933,21 @@
         <v>34</v>
       </c>
       <c r="P4" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="Q4" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="R4" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="E5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F5" t="s">
         <v>120</v>
@@ -11150,12 +12955,12 @@
       <c r="G5" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="36" t="str">
+      <c r="H5" t="str">
         <f>IF(config_BS[[#This Row],[Lv1]]="Assets", "A","LC")</f>
         <v>A</v>
       </c>
       <c r="J5" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K5" s="20" t="s">
         <v>28</v>
@@ -11167,16 +12972,16 @@
         <v>37</v>
       </c>
       <c r="P5" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="Q5" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="R5" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -11184,7 +12989,7 @@
         <v>123</v>
       </c>
       <c r="F6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
@@ -11194,7 +12999,7 @@
         <v>A</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K6" s="20" t="s">
         <v>28</v>
@@ -11206,29 +13011,29 @@
         <v>39</v>
       </c>
       <c r="P6" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="Q6" t="s">
-        <v>85</v>
-      </c>
-      <c r="R6" t="s">
-        <v>68</v>
+        <v>59</v>
+      </c>
+      <c r="R6" s="19" t="s">
+        <v>99</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="E7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="36" t="str">
+      <c r="H7" t="str">
         <f>IF(config_BS[[#This Row],[Lv1]]="Assets", "A","LC")</f>
         <v>A</v>
       </c>
@@ -11245,43 +13050,43 @@
         <v>41</v>
       </c>
       <c r="P7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q7" t="s">
         <v>86</v>
       </c>
       <c r="R7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="E8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G8" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="36" t="str">
+      <c r="H8" t="str">
         <f>IF(config_BS[[#This Row],[Lv1]]="Assets", "A","LC")</f>
         <v>A</v>
       </c>
       <c r="P8" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="Q8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -11299,21 +13104,21 @@
         <v>A</v>
       </c>
       <c r="P9" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="Q9" t="s">
         <v>85</v>
       </c>
       <c r="R9" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="E10" t="s">
-        <v>134</v>
+        <v>177</v>
       </c>
       <c r="F10" t="s">
         <v>127</v>
@@ -11326,16 +13131,16 @@
         <v>A</v>
       </c>
       <c r="P10" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="Q10" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="R10" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -11353,24 +13158,24 @@
         <v>A</v>
       </c>
       <c r="P11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="Q11" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="R11" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="E12" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G12" t="s">
         <v>14</v>
@@ -11380,46 +13185,46 @@
         <v>A</v>
       </c>
       <c r="M12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Q12" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="R12" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="E13" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F13" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G13" t="s">
         <v>131</v>
       </c>
-      <c r="H13" s="36" t="str">
+      <c r="H13" t="str">
         <f>IF(config_BS[[#This Row],[Lv1]]="Assets", "A","LC")</f>
         <v>LC</v>
       </c>
       <c r="P13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Q13" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="R13" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -11437,24 +13242,24 @@
         <v>LC</v>
       </c>
       <c r="P14" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="Q14" t="s">
-        <v>59</v>
-      </c>
-      <c r="R14" s="19" t="s">
-        <v>99</v>
+        <v>85</v>
+      </c>
+      <c r="R14" t="s">
+        <v>74</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="E15" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" t="s">
         <v>138</v>
-      </c>
-      <c r="F15" t="s">
-        <v>139</v>
       </c>
       <c r="G15" t="s">
         <v>131</v>
@@ -11466,7 +13271,7 @@
     </row>
     <row r="16" spans="1:19">
       <c r="E16" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F16" t="s">
         <v>120</v>
@@ -11481,7 +13286,7 @@
     </row>
     <row r="17" spans="5:8">
       <c r="E17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F17" t="s">
         <v>120</v>
@@ -11511,7 +13316,7 @@
     </row>
     <row r="19" spans="5:8">
       <c r="E19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F19" t="s">
         <v>16</v>
@@ -11565,25 +13370,25 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.81640625" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -11591,10 +13396,10 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -11602,21 +13407,21 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -11624,21 +13429,21 @@
         <v>121</v>
       </c>
       <c r="B5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -11646,32 +13451,32 @@
         <v>123</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B8" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B9" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -11679,21 +13484,21 @@
         <v>124</v>
       </c>
       <c r="B10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B11" t="s">
-        <v>178</v>
+        <v>252</v>
       </c>
       <c r="C11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -11701,21 +13506,21 @@
         <v>129</v>
       </c>
       <c r="B12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -11723,43 +13528,43 @@
         <v>122</v>
       </c>
       <c r="B14" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -11767,21 +13572,21 @@
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C19" t="s">
         <v>188</v>
-      </c>
-      <c r="C19" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -11789,21 +13594,21 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -11811,10 +13616,10 @@
         <v>120</v>
       </c>
       <c r="B22" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C22" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -11822,10 +13627,10 @@
         <v>126</v>
       </c>
       <c r="B23" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -11833,10 +13638,10 @@
         <v>127</v>
       </c>
       <c r="B24" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C24" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -11844,21 +13649,21 @@
         <v>128</v>
       </c>
       <c r="B25" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C25" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B26" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C26" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -11866,10 +13671,10 @@
         <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>197</v>
+        <v>263</v>
       </c>
       <c r="C27" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -11877,10 +13682,10 @@
         <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
